--- a/templates/BOM_ULIX_template.xlsx
+++ b/templates/BOM_ULIX_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ASETS-code\python\pyp-id_finder\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6260FE34-129E-4A4D-986D-E69E91C0FA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F881C5A9-45E1-4C41-BBE3-9A779DC56AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="18600" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -621,7 +621,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/templates/BOM_ULIX_template.xlsx
+++ b/templates/BOM_ULIX_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ASETS-code\python\pyp-id_finder\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F881C5A9-45E1-4C41-BBE3-9A779DC56AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBBCD73-A32C-4F99-BC9D-1C6B19725FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="18600" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>#</t>
   </si>
@@ -118,6 +118,7 @@
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Q (m</t>
     </r>
@@ -127,6 +128,7 @@
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -135,6 +137,7 @@
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/h)</t>
     </r>
@@ -170,48 +173,6 @@
     <t>ARRIVED</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Gas M</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>D200</t>
-  </si>
-  <si>
-    <t>AISI316</t>
-  </si>
-  <si>
-    <t>2_3_4</t>
-  </si>
-  <si>
-    <t>Nitrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metron </t>
-  </si>
-  <si>
-    <t>TE</t>
-  </si>
-  <si>
-    <t>Temperature probe</t>
-  </si>
-  <si>
-    <t>FKM</t>
-  </si>
-  <si>
-    <t>TE141</t>
-  </si>
-  <si>
-    <t>Nitrogen heating after E140</t>
-  </si>
-  <si>
-    <t>Probe length: 80mm after thread</t>
-  </si>
-  <si>
     <t>Datasheet</t>
   </si>
 </sst>
@@ -222,7 +183,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,21 +194,25 @@
       <sz val="7"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="7"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -268,6 +233,28 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -333,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -368,18 +355,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -392,6 +367,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -618,10 +621,10 @@
   <dimension ref="A1:AH662"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F659" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomRight" activeCell="A662" sqref="A662:XFD662"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -648,7 +651,7 @@
     <col min="26" max="26" width="22" customWidth="1"/>
     <col min="27" max="27" width="31.88671875" customWidth="1"/>
     <col min="28" max="33" width="9.109375" customWidth="1"/>
-    <col min="34" max="34" width="19.109375" style="18" customWidth="1"/>
+    <col min="34" max="34" width="19.109375" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
@@ -752,7 +755,7 @@
         <v>32</v>
       </c>
       <c r="AH1" s="7" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
@@ -760,7 +763,7 @@
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="16"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -789,14 +792,14 @@
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
       <c r="AG2" s="8"/>
-      <c r="AH2" s="17"/>
+      <c r="AH2" s="13"/>
     </row>
     <row r="3" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="16"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -825,14 +828,14 @@
       <c r="AE3" s="9"/>
       <c r="AF3" s="9"/>
       <c r="AG3" s="8"/>
-      <c r="AH3" s="17"/>
+      <c r="AH3" s="13"/>
     </row>
     <row r="4" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="16"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -861,14 +864,14 @@
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
       <c r="AG4" s="8"/>
-      <c r="AH4" s="17"/>
+      <c r="AH4" s="13"/>
     </row>
     <row r="5" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="16"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -897,14 +900,14 @@
       <c r="AE5" s="9"/>
       <c r="AF5" s="9"/>
       <c r="AG5" s="8"/>
-      <c r="AH5" s="17"/>
+      <c r="AH5" s="13"/>
     </row>
     <row r="6" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="16"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -933,14 +936,14 @@
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
       <c r="AG6" s="8"/>
-      <c r="AH6" s="17"/>
+      <c r="AH6" s="13"/>
     </row>
     <row r="7" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -969,14 +972,14 @@
       <c r="AE7" s="9"/>
       <c r="AF7" s="9"/>
       <c r="AG7" s="8"/>
-      <c r="AH7" s="17"/>
+      <c r="AH7" s="13"/>
     </row>
     <row r="8" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="16"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -1005,14 +1008,14 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
       <c r="AG8" s="8"/>
-      <c r="AH8" s="17"/>
+      <c r="AH8" s="13"/>
     </row>
     <row r="9" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="16"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -1041,14 +1044,14 @@
       <c r="AE9" s="9"/>
       <c r="AF9" s="9"/>
       <c r="AG9" s="8"/>
-      <c r="AH9" s="17"/>
+      <c r="AH9" s="13"/>
     </row>
     <row r="10" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="16"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -1077,14 +1080,14 @@
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
       <c r="AG10" s="8"/>
-      <c r="AH10" s="17"/>
+      <c r="AH10" s="13"/>
     </row>
     <row r="11" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="16"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -1113,14 +1116,14 @@
       <c r="AE11" s="9"/>
       <c r="AF11" s="9"/>
       <c r="AG11" s="8"/>
-      <c r="AH11" s="17"/>
+      <c r="AH11" s="13"/>
     </row>
     <row r="12" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="16"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -1149,14 +1152,14 @@
       <c r="AE12" s="9"/>
       <c r="AF12" s="9"/>
       <c r="AG12" s="8"/>
-      <c r="AH12" s="17"/>
+      <c r="AH12" s="13"/>
     </row>
     <row r="13" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="16"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -1185,14 +1188,14 @@
       <c r="AE13" s="9"/>
       <c r="AF13" s="9"/>
       <c r="AG13" s="8"/>
-      <c r="AH13" s="17"/>
+      <c r="AH13" s="13"/>
     </row>
     <row r="14" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="16"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -1221,19 +1224,19 @@
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
       <c r="AG14" s="8"/>
-      <c r="AH14" s="17"/>
+      <c r="AH14" s="13"/>
     </row>
     <row r="15" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="16"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="19"/>
+      <c r="J15" s="15"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="9"/>
@@ -1257,14 +1260,14 @@
       <c r="AE15" s="9"/>
       <c r="AF15" s="9"/>
       <c r="AG15" s="8"/>
-      <c r="AH15" s="17"/>
+      <c r="AH15" s="13"/>
     </row>
     <row r="16" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="16"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -1293,14 +1296,14 @@
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
       <c r="AG16" s="8"/>
-      <c r="AH16" s="17"/>
+      <c r="AH16" s="13"/>
     </row>
     <row r="17" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="16"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -1329,14 +1332,14 @@
       <c r="AE17" s="9"/>
       <c r="AF17" s="9"/>
       <c r="AG17" s="8"/>
-      <c r="AH17" s="17"/>
+      <c r="AH17" s="13"/>
     </row>
     <row r="18" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -1365,14 +1368,14 @@
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
       <c r="AG18" s="8"/>
-      <c r="AH18" s="17"/>
+      <c r="AH18" s="13"/>
     </row>
     <row r="19" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="16"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -1401,14 +1404,14 @@
       <c r="AE19" s="9"/>
       <c r="AF19" s="9"/>
       <c r="AG19" s="8"/>
-      <c r="AH19" s="17"/>
+      <c r="AH19" s="13"/>
     </row>
     <row r="20" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="16"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -1437,14 +1440,14 @@
       <c r="AE20" s="9"/>
       <c r="AF20" s="9"/>
       <c r="AG20" s="8"/>
-      <c r="AH20" s="17"/>
+      <c r="AH20" s="13"/>
     </row>
     <row r="21" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="16"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -1473,14 +1476,14 @@
       <c r="AE21" s="9"/>
       <c r="AF21" s="9"/>
       <c r="AG21" s="8"/>
-      <c r="AH21" s="17"/>
+      <c r="AH21" s="13"/>
     </row>
     <row r="22" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="16"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -1509,14 +1512,14 @@
       <c r="AE22" s="9"/>
       <c r="AF22" s="9"/>
       <c r="AG22" s="8"/>
-      <c r="AH22" s="17"/>
+      <c r="AH22" s="13"/>
     </row>
     <row r="23" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="16"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -1545,14 +1548,14 @@
       <c r="AE23" s="9"/>
       <c r="AF23" s="9"/>
       <c r="AG23" s="8"/>
-      <c r="AH23" s="17"/>
+      <c r="AH23" s="13"/>
     </row>
     <row r="24" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="16"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -1581,14 +1584,14 @@
       <c r="AE24" s="9"/>
       <c r="AF24" s="9"/>
       <c r="AG24" s="8"/>
-      <c r="AH24" s="17"/>
+      <c r="AH24" s="13"/>
     </row>
     <row r="25" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="16"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -1617,14 +1620,14 @@
       <c r="AE25" s="9"/>
       <c r="AF25" s="9"/>
       <c r="AG25" s="8"/>
-      <c r="AH25" s="17"/>
+      <c r="AH25" s="13"/>
     </row>
     <row r="26" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="16"/>
+      <c r="E26" s="12"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -1653,14 +1656,14 @@
       <c r="AE26" s="9"/>
       <c r="AF26" s="9"/>
       <c r="AG26" s="8"/>
-      <c r="AH26" s="17"/>
+      <c r="AH26" s="13"/>
     </row>
     <row r="27" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="16"/>
+      <c r="E27" s="12"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -1689,14 +1692,14 @@
       <c r="AE27" s="9"/>
       <c r="AF27" s="9"/>
       <c r="AG27" s="8"/>
-      <c r="AH27" s="17"/>
+      <c r="AH27" s="13"/>
     </row>
     <row r="28" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="16"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -1725,14 +1728,14 @@
       <c r="AE28" s="9"/>
       <c r="AF28" s="9"/>
       <c r="AG28" s="8"/>
-      <c r="AH28" s="17"/>
+      <c r="AH28" s="13"/>
     </row>
     <row r="29" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="16"/>
+      <c r="E29" s="12"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
@@ -1761,14 +1764,14 @@
       <c r="AE29" s="9"/>
       <c r="AF29" s="9"/>
       <c r="AG29" s="8"/>
-      <c r="AH29" s="17"/>
+      <c r="AH29" s="13"/>
     </row>
     <row r="30" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="16"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -1797,14 +1800,14 @@
       <c r="AE30" s="9"/>
       <c r="AF30" s="9"/>
       <c r="AG30" s="8"/>
-      <c r="AH30" s="17"/>
+      <c r="AH30" s="13"/>
     </row>
     <row r="31" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="16"/>
+      <c r="E31" s="12"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -1833,14 +1836,14 @@
       <c r="AE31" s="9"/>
       <c r="AF31" s="9"/>
       <c r="AG31" s="8"/>
-      <c r="AH31" s="17"/>
+      <c r="AH31" s="13"/>
     </row>
     <row r="32" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="16"/>
+      <c r="E32" s="12"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -1869,14 +1872,14 @@
       <c r="AE32" s="9"/>
       <c r="AF32" s="9"/>
       <c r="AG32" s="8"/>
-      <c r="AH32" s="17"/>
+      <c r="AH32" s="13"/>
     </row>
     <row r="33" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="16"/>
+      <c r="E33" s="12"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -1905,14 +1908,14 @@
       <c r="AE33" s="9"/>
       <c r="AF33" s="9"/>
       <c r="AG33" s="8"/>
-      <c r="AH33" s="17"/>
+      <c r="AH33" s="13"/>
     </row>
     <row r="34" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="16"/>
+      <c r="E34" s="12"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -1941,14 +1944,14 @@
       <c r="AE34" s="9"/>
       <c r="AF34" s="9"/>
       <c r="AG34" s="8"/>
-      <c r="AH34" s="17"/>
+      <c r="AH34" s="13"/>
     </row>
     <row r="35" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="16"/>
+      <c r="E35" s="12"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
@@ -1977,14 +1980,14 @@
       <c r="AE35" s="9"/>
       <c r="AF35" s="9"/>
       <c r="AG35" s="8"/>
-      <c r="AH35" s="17"/>
+      <c r="AH35" s="13"/>
     </row>
     <row r="36" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="16"/>
+      <c r="E36" s="12"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -2013,14 +2016,14 @@
       <c r="AE36" s="9"/>
       <c r="AF36" s="9"/>
       <c r="AG36" s="8"/>
-      <c r="AH36" s="17"/>
+      <c r="AH36" s="13"/>
     </row>
     <row r="37" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="16"/>
+      <c r="E37" s="12"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -2049,14 +2052,14 @@
       <c r="AE37" s="9"/>
       <c r="AF37" s="9"/>
       <c r="AG37" s="8"/>
-      <c r="AH37" s="17"/>
+      <c r="AH37" s="13"/>
     </row>
     <row r="38" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="16"/>
+      <c r="E38" s="12"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -2085,14 +2088,14 @@
       <c r="AE38" s="9"/>
       <c r="AF38" s="9"/>
       <c r="AG38" s="8"/>
-      <c r="AH38" s="17"/>
+      <c r="AH38" s="13"/>
     </row>
     <row r="39" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="16"/>
+      <c r="E39" s="12"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -2121,14 +2124,14 @@
       <c r="AE39" s="9"/>
       <c r="AF39" s="9"/>
       <c r="AG39" s="8"/>
-      <c r="AH39" s="17"/>
+      <c r="AH39" s="13"/>
     </row>
     <row r="40" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="16"/>
+      <c r="E40" s="12"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
@@ -2157,14 +2160,14 @@
       <c r="AE40" s="9"/>
       <c r="AF40" s="9"/>
       <c r="AG40" s="8"/>
-      <c r="AH40" s="17"/>
+      <c r="AH40" s="13"/>
     </row>
     <row r="41" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="16"/>
+      <c r="E41" s="12"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -2193,14 +2196,14 @@
       <c r="AE41" s="9"/>
       <c r="AF41" s="9"/>
       <c r="AG41" s="8"/>
-      <c r="AH41" s="17"/>
+      <c r="AH41" s="13"/>
     </row>
     <row r="42" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
-      <c r="E42" s="16"/>
+      <c r="E42" s="12"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
@@ -2229,14 +2232,14 @@
       <c r="AE42" s="9"/>
       <c r="AF42" s="9"/>
       <c r="AG42" s="8"/>
-      <c r="AH42" s="17"/>
+      <c r="AH42" s="13"/>
     </row>
     <row r="43" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
-      <c r="E43" s="16"/>
+      <c r="E43" s="12"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
@@ -2265,14 +2268,14 @@
       <c r="AE43" s="9"/>
       <c r="AF43" s="9"/>
       <c r="AG43" s="8"/>
-      <c r="AH43" s="17"/>
+      <c r="AH43" s="13"/>
     </row>
     <row r="44" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
-      <c r="E44" s="16"/>
+      <c r="E44" s="12"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -2301,14 +2304,14 @@
       <c r="AE44" s="9"/>
       <c r="AF44" s="9"/>
       <c r="AG44" s="8"/>
-      <c r="AH44" s="17"/>
+      <c r="AH44" s="13"/>
     </row>
     <row r="45" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="16"/>
+      <c r="E45" s="12"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
@@ -2337,14 +2340,14 @@
       <c r="AE45" s="9"/>
       <c r="AF45" s="9"/>
       <c r="AG45" s="8"/>
-      <c r="AH45" s="17"/>
+      <c r="AH45" s="13"/>
     </row>
     <row r="46" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
-      <c r="E46" s="16"/>
+      <c r="E46" s="12"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -2373,14 +2376,14 @@
       <c r="AE46" s="9"/>
       <c r="AF46" s="9"/>
       <c r="AG46" s="8"/>
-      <c r="AH46" s="17"/>
+      <c r="AH46" s="13"/>
     </row>
     <row r="47" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
-      <c r="E47" s="16"/>
+      <c r="E47" s="12"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
@@ -2409,14 +2412,14 @@
       <c r="AE47" s="9"/>
       <c r="AF47" s="9"/>
       <c r="AG47" s="8"/>
-      <c r="AH47" s="17"/>
+      <c r="AH47" s="13"/>
     </row>
     <row r="48" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
-      <c r="E48" s="16"/>
+      <c r="E48" s="12"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
@@ -2445,14 +2448,14 @@
       <c r="AE48" s="9"/>
       <c r="AF48" s="9"/>
       <c r="AG48" s="8"/>
-      <c r="AH48" s="17"/>
+      <c r="AH48" s="13"/>
     </row>
     <row r="49" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="16"/>
+      <c r="E49" s="12"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
@@ -2481,14 +2484,14 @@
       <c r="AE49" s="9"/>
       <c r="AF49" s="9"/>
       <c r="AG49" s="8"/>
-      <c r="AH49" s="17"/>
+      <c r="AH49" s="13"/>
     </row>
     <row r="50" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
-      <c r="E50" s="16"/>
+      <c r="E50" s="12"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
@@ -2517,14 +2520,14 @@
       <c r="AE50" s="9"/>
       <c r="AF50" s="9"/>
       <c r="AG50" s="8"/>
-      <c r="AH50" s="17"/>
+      <c r="AH50" s="13"/>
     </row>
     <row r="51" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
-      <c r="E51" s="16"/>
+      <c r="E51" s="12"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
@@ -2553,14 +2556,14 @@
       <c r="AE51" s="9"/>
       <c r="AF51" s="9"/>
       <c r="AG51" s="8"/>
-      <c r="AH51" s="17"/>
+      <c r="AH51" s="13"/>
     </row>
     <row r="52" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
-      <c r="E52" s="16"/>
+      <c r="E52" s="12"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
@@ -2589,14 +2592,14 @@
       <c r="AE52" s="9"/>
       <c r="AF52" s="9"/>
       <c r="AG52" s="8"/>
-      <c r="AH52" s="17"/>
+      <c r="AH52" s="13"/>
     </row>
     <row r="53" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="16"/>
+      <c r="E53" s="12"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
@@ -2625,14 +2628,14 @@
       <c r="AE53" s="9"/>
       <c r="AF53" s="9"/>
       <c r="AG53" s="8"/>
-      <c r="AH53" s="17"/>
+      <c r="AH53" s="13"/>
     </row>
     <row r="54" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
-      <c r="E54" s="16"/>
+      <c r="E54" s="12"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
@@ -2661,14 +2664,14 @@
       <c r="AE54" s="9"/>
       <c r="AF54" s="9"/>
       <c r="AG54" s="8"/>
-      <c r="AH54" s="17"/>
+      <c r="AH54" s="13"/>
     </row>
     <row r="55" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
-      <c r="E55" s="16"/>
+      <c r="E55" s="12"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
@@ -2697,14 +2700,14 @@
       <c r="AE55" s="9"/>
       <c r="AF55" s="9"/>
       <c r="AG55" s="8"/>
-      <c r="AH55" s="17"/>
+      <c r="AH55" s="13"/>
     </row>
     <row r="56" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
-      <c r="E56" s="16"/>
+      <c r="E56" s="12"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
@@ -2733,14 +2736,14 @@
       <c r="AE56" s="9"/>
       <c r="AF56" s="9"/>
       <c r="AG56" s="8"/>
-      <c r="AH56" s="17"/>
+      <c r="AH56" s="13"/>
     </row>
     <row r="57" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="16"/>
+      <c r="E57" s="12"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
@@ -2769,14 +2772,14 @@
       <c r="AE57" s="9"/>
       <c r="AF57" s="9"/>
       <c r="AG57" s="8"/>
-      <c r="AH57" s="17"/>
+      <c r="AH57" s="13"/>
     </row>
     <row r="58" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
-      <c r="E58" s="16"/>
+      <c r="E58" s="12"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
@@ -2805,14 +2808,14 @@
       <c r="AE58" s="9"/>
       <c r="AF58" s="9"/>
       <c r="AG58" s="8"/>
-      <c r="AH58" s="17"/>
+      <c r="AH58" s="13"/>
     </row>
     <row r="59" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
-      <c r="E59" s="16"/>
+      <c r="E59" s="12"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
@@ -2841,14 +2844,14 @@
       <c r="AE59" s="9"/>
       <c r="AF59" s="9"/>
       <c r="AG59" s="8"/>
-      <c r="AH59" s="17"/>
+      <c r="AH59" s="13"/>
     </row>
     <row r="60" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
-      <c r="E60" s="16"/>
+      <c r="E60" s="12"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
@@ -2877,14 +2880,14 @@
       <c r="AE60" s="9"/>
       <c r="AF60" s="9"/>
       <c r="AG60" s="8"/>
-      <c r="AH60" s="17"/>
+      <c r="AH60" s="13"/>
     </row>
     <row r="61" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
-      <c r="E61" s="16"/>
+      <c r="E61" s="12"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
@@ -2913,14 +2916,14 @@
       <c r="AE61" s="9"/>
       <c r="AF61" s="9"/>
       <c r="AG61" s="8"/>
-      <c r="AH61" s="17"/>
+      <c r="AH61" s="13"/>
     </row>
     <row r="62" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
-      <c r="E62" s="16"/>
+      <c r="E62" s="12"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
@@ -2949,14 +2952,14 @@
       <c r="AE62" s="9"/>
       <c r="AF62" s="9"/>
       <c r="AG62" s="8"/>
-      <c r="AH62" s="17"/>
+      <c r="AH62" s="13"/>
     </row>
     <row r="63" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
-      <c r="E63" s="16"/>
+      <c r="E63" s="12"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
@@ -2985,14 +2988,14 @@
       <c r="AE63" s="9"/>
       <c r="AF63" s="9"/>
       <c r="AG63" s="8"/>
-      <c r="AH63" s="17"/>
+      <c r="AH63" s="13"/>
     </row>
     <row r="64" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
-      <c r="E64" s="16"/>
+      <c r="E64" s="12"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
@@ -3021,14 +3024,14 @@
       <c r="AE64" s="9"/>
       <c r="AF64" s="9"/>
       <c r="AG64" s="8"/>
-      <c r="AH64" s="17"/>
+      <c r="AH64" s="13"/>
     </row>
     <row r="65" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="16"/>
+      <c r="E65" s="12"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
@@ -3057,14 +3060,14 @@
       <c r="AE65" s="9"/>
       <c r="AF65" s="9"/>
       <c r="AG65" s="8"/>
-      <c r="AH65" s="17"/>
+      <c r="AH65" s="13"/>
     </row>
     <row r="66" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
-      <c r="E66" s="16"/>
+      <c r="E66" s="12"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
@@ -3093,14 +3096,14 @@
       <c r="AE66" s="9"/>
       <c r="AF66" s="9"/>
       <c r="AG66" s="8"/>
-      <c r="AH66" s="17"/>
+      <c r="AH66" s="13"/>
     </row>
     <row r="67" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
-      <c r="E67" s="16"/>
+      <c r="E67" s="12"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
@@ -3129,14 +3132,14 @@
       <c r="AE67" s="9"/>
       <c r="AF67" s="9"/>
       <c r="AG67" s="8"/>
-      <c r="AH67" s="17"/>
+      <c r="AH67" s="13"/>
     </row>
     <row r="68" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
-      <c r="E68" s="16"/>
+      <c r="E68" s="12"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
@@ -3165,14 +3168,14 @@
       <c r="AE68" s="9"/>
       <c r="AF68" s="9"/>
       <c r="AG68" s="8"/>
-      <c r="AH68" s="17"/>
+      <c r="AH68" s="13"/>
     </row>
     <row r="69" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
-      <c r="E69" s="16"/>
+      <c r="E69" s="12"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
@@ -3201,14 +3204,14 @@
       <c r="AE69" s="9"/>
       <c r="AF69" s="9"/>
       <c r="AG69" s="8"/>
-      <c r="AH69" s="17"/>
+      <c r="AH69" s="13"/>
     </row>
     <row r="70" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
-      <c r="E70" s="16"/>
+      <c r="E70" s="12"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
@@ -3237,14 +3240,14 @@
       <c r="AE70" s="9"/>
       <c r="AF70" s="9"/>
       <c r="AG70" s="8"/>
-      <c r="AH70" s="17"/>
+      <c r="AH70" s="13"/>
     </row>
     <row r="71" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
-      <c r="E71" s="16"/>
+      <c r="E71" s="12"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
@@ -3273,14 +3276,14 @@
       <c r="AE71" s="9"/>
       <c r="AF71" s="9"/>
       <c r="AG71" s="8"/>
-      <c r="AH71" s="17"/>
+      <c r="AH71" s="13"/>
     </row>
     <row r="72" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
-      <c r="E72" s="16"/>
+      <c r="E72" s="12"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
@@ -3309,14 +3312,14 @@
       <c r="AE72" s="9"/>
       <c r="AF72" s="9"/>
       <c r="AG72" s="8"/>
-      <c r="AH72" s="17"/>
+      <c r="AH72" s="13"/>
     </row>
     <row r="73" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
-      <c r="E73" s="16"/>
+      <c r="E73" s="12"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
@@ -3345,14 +3348,14 @@
       <c r="AE73" s="9"/>
       <c r="AF73" s="9"/>
       <c r="AG73" s="8"/>
-      <c r="AH73" s="17"/>
+      <c r="AH73" s="13"/>
     </row>
     <row r="74" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
-      <c r="E74" s="16"/>
+      <c r="E74" s="12"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
@@ -3381,14 +3384,14 @@
       <c r="AE74" s="9"/>
       <c r="AF74" s="9"/>
       <c r="AG74" s="8"/>
-      <c r="AH74" s="17"/>
+      <c r="AH74" s="13"/>
     </row>
     <row r="75" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
-      <c r="E75" s="16"/>
+      <c r="E75" s="12"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
@@ -3417,14 +3420,14 @@
       <c r="AE75" s="9"/>
       <c r="AF75" s="9"/>
       <c r="AG75" s="8"/>
-      <c r="AH75" s="17"/>
+      <c r="AH75" s="13"/>
     </row>
     <row r="76" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
-      <c r="E76" s="16"/>
+      <c r="E76" s="12"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
@@ -3453,14 +3456,14 @@
       <c r="AE76" s="9"/>
       <c r="AF76" s="9"/>
       <c r="AG76" s="8"/>
-      <c r="AH76" s="17"/>
+      <c r="AH76" s="13"/>
     </row>
     <row r="77" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
-      <c r="E77" s="16"/>
+      <c r="E77" s="12"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
@@ -3489,14 +3492,14 @@
       <c r="AE77" s="9"/>
       <c r="AF77" s="9"/>
       <c r="AG77" s="8"/>
-      <c r="AH77" s="17"/>
+      <c r="AH77" s="13"/>
     </row>
     <row r="78" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
-      <c r="E78" s="16"/>
+      <c r="E78" s="12"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
@@ -3525,14 +3528,14 @@
       <c r="AE78" s="9"/>
       <c r="AF78" s="9"/>
       <c r="AG78" s="8"/>
-      <c r="AH78" s="17"/>
+      <c r="AH78" s="13"/>
     </row>
     <row r="79" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
-      <c r="E79" s="16"/>
+      <c r="E79" s="12"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
@@ -3561,14 +3564,14 @@
       <c r="AE79" s="9"/>
       <c r="AF79" s="9"/>
       <c r="AG79" s="8"/>
-      <c r="AH79" s="17"/>
+      <c r="AH79" s="13"/>
     </row>
     <row r="80" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
-      <c r="E80" s="16"/>
+      <c r="E80" s="12"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
@@ -3597,14 +3600,14 @@
       <c r="AE80" s="9"/>
       <c r="AF80" s="9"/>
       <c r="AG80" s="8"/>
-      <c r="AH80" s="17"/>
+      <c r="AH80" s="13"/>
     </row>
     <row r="81" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
-      <c r="E81" s="16"/>
+      <c r="E81" s="12"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
@@ -3633,14 +3636,14 @@
       <c r="AE81" s="9"/>
       <c r="AF81" s="9"/>
       <c r="AG81" s="8"/>
-      <c r="AH81" s="17"/>
+      <c r="AH81" s="13"/>
     </row>
     <row r="82" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
-      <c r="E82" s="16"/>
+      <c r="E82" s="12"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
@@ -3669,14 +3672,14 @@
       <c r="AE82" s="9"/>
       <c r="AF82" s="9"/>
       <c r="AG82" s="8"/>
-      <c r="AH82" s="17"/>
+      <c r="AH82" s="13"/>
     </row>
     <row r="83" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
-      <c r="E83" s="16"/>
+      <c r="E83" s="12"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
@@ -3705,14 +3708,14 @@
       <c r="AE83" s="9"/>
       <c r="AF83" s="9"/>
       <c r="AG83" s="8"/>
-      <c r="AH83" s="17"/>
+      <c r="AH83" s="13"/>
     </row>
     <row r="84" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
-      <c r="E84" s="16"/>
+      <c r="E84" s="12"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
@@ -3741,14 +3744,14 @@
       <c r="AE84" s="9"/>
       <c r="AF84" s="9"/>
       <c r="AG84" s="8"/>
-      <c r="AH84" s="17"/>
+      <c r="AH84" s="13"/>
     </row>
     <row r="85" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
-      <c r="E85" s="16"/>
+      <c r="E85" s="12"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
@@ -3777,14 +3780,14 @@
       <c r="AE85" s="9"/>
       <c r="AF85" s="9"/>
       <c r="AG85" s="8"/>
-      <c r="AH85" s="17"/>
+      <c r="AH85" s="13"/>
     </row>
     <row r="86" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
-      <c r="E86" s="16"/>
+      <c r="E86" s="12"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
@@ -3813,14 +3816,14 @@
       <c r="AE86" s="9"/>
       <c r="AF86" s="9"/>
       <c r="AG86" s="8"/>
-      <c r="AH86" s="17"/>
+      <c r="AH86" s="13"/>
     </row>
     <row r="87" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
-      <c r="E87" s="16"/>
+      <c r="E87" s="12"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
@@ -3849,14 +3852,14 @@
       <c r="AE87" s="9"/>
       <c r="AF87" s="9"/>
       <c r="AG87" s="8"/>
-      <c r="AH87" s="17"/>
+      <c r="AH87" s="13"/>
     </row>
     <row r="88" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
-      <c r="E88" s="16"/>
+      <c r="E88" s="12"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
@@ -3885,14 +3888,14 @@
       <c r="AE88" s="9"/>
       <c r="AF88" s="9"/>
       <c r="AG88" s="8"/>
-      <c r="AH88" s="17"/>
+      <c r="AH88" s="13"/>
     </row>
     <row r="89" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
-      <c r="E89" s="16"/>
+      <c r="E89" s="12"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
@@ -3921,14 +3924,14 @@
       <c r="AE89" s="9"/>
       <c r="AF89" s="9"/>
       <c r="AG89" s="8"/>
-      <c r="AH89" s="17"/>
+      <c r="AH89" s="13"/>
     </row>
     <row r="90" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
-      <c r="E90" s="16"/>
+      <c r="E90" s="12"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
@@ -3957,14 +3960,14 @@
       <c r="AE90" s="9"/>
       <c r="AF90" s="9"/>
       <c r="AG90" s="8"/>
-      <c r="AH90" s="17"/>
+      <c r="AH90" s="13"/>
     </row>
     <row r="91" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
-      <c r="E91" s="16"/>
+      <c r="E91" s="12"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
@@ -3993,14 +3996,14 @@
       <c r="AE91" s="9"/>
       <c r="AF91" s="9"/>
       <c r="AG91" s="8"/>
-      <c r="AH91" s="17"/>
+      <c r="AH91" s="13"/>
     </row>
     <row r="92" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
-      <c r="E92" s="16"/>
+      <c r="E92" s="12"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
@@ -4029,14 +4032,14 @@
       <c r="AE92" s="9"/>
       <c r="AF92" s="9"/>
       <c r="AG92" s="8"/>
-      <c r="AH92" s="17"/>
+      <c r="AH92" s="13"/>
     </row>
     <row r="93" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
-      <c r="E93" s="16"/>
+      <c r="E93" s="12"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
@@ -4065,14 +4068,14 @@
       <c r="AE93" s="9"/>
       <c r="AF93" s="9"/>
       <c r="AG93" s="8"/>
-      <c r="AH93" s="17"/>
+      <c r="AH93" s="13"/>
     </row>
     <row r="94" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
-      <c r="E94" s="16"/>
+      <c r="E94" s="12"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
@@ -4101,14 +4104,14 @@
       <c r="AE94" s="9"/>
       <c r="AF94" s="9"/>
       <c r="AG94" s="8"/>
-      <c r="AH94" s="17"/>
+      <c r="AH94" s="13"/>
     </row>
     <row r="95" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
-      <c r="E95" s="16"/>
+      <c r="E95" s="12"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
@@ -4137,14 +4140,14 @@
       <c r="AE95" s="9"/>
       <c r="AF95" s="9"/>
       <c r="AG95" s="8"/>
-      <c r="AH95" s="17"/>
+      <c r="AH95" s="13"/>
     </row>
     <row r="96" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
-      <c r="E96" s="16"/>
+      <c r="E96" s="12"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
@@ -4173,14 +4176,14 @@
       <c r="AE96" s="9"/>
       <c r="AF96" s="9"/>
       <c r="AG96" s="8"/>
-      <c r="AH96" s="17"/>
+      <c r="AH96" s="13"/>
     </row>
     <row r="97" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
-      <c r="E97" s="16"/>
+      <c r="E97" s="12"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
@@ -4209,14 +4212,14 @@
       <c r="AE97" s="9"/>
       <c r="AF97" s="9"/>
       <c r="AG97" s="8"/>
-      <c r="AH97" s="17"/>
+      <c r="AH97" s="13"/>
     </row>
     <row r="98" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
-      <c r="E98" s="16"/>
+      <c r="E98" s="12"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
@@ -4245,14 +4248,14 @@
       <c r="AE98" s="9"/>
       <c r="AF98" s="9"/>
       <c r="AG98" s="8"/>
-      <c r="AH98" s="17"/>
+      <c r="AH98" s="13"/>
     </row>
     <row r="99" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
-      <c r="E99" s="16"/>
+      <c r="E99" s="12"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
@@ -4281,14 +4284,14 @@
       <c r="AE99" s="9"/>
       <c r="AF99" s="9"/>
       <c r="AG99" s="8"/>
-      <c r="AH99" s="17"/>
+      <c r="AH99" s="13"/>
     </row>
     <row r="100" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
-      <c r="E100" s="16"/>
+      <c r="E100" s="12"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
@@ -4317,14 +4320,14 @@
       <c r="AE100" s="9"/>
       <c r="AF100" s="9"/>
       <c r="AG100" s="8"/>
-      <c r="AH100" s="17"/>
+      <c r="AH100" s="13"/>
     </row>
     <row r="101" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
-      <c r="E101" s="16"/>
+      <c r="E101" s="12"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
@@ -4353,14 +4356,14 @@
       <c r="AE101" s="9"/>
       <c r="AF101" s="9"/>
       <c r="AG101" s="8"/>
-      <c r="AH101" s="17"/>
+      <c r="AH101" s="13"/>
     </row>
     <row r="102" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
-      <c r="E102" s="16"/>
+      <c r="E102" s="12"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c r="H102" s="8"/>
@@ -4389,14 +4392,14 @@
       <c r="AE102" s="9"/>
       <c r="AF102" s="9"/>
       <c r="AG102" s="8"/>
-      <c r="AH102" s="17"/>
+      <c r="AH102" s="13"/>
     </row>
     <row r="103" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
-      <c r="E103" s="16"/>
+      <c r="E103" s="12"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
@@ -4425,14 +4428,14 @@
       <c r="AE103" s="9"/>
       <c r="AF103" s="9"/>
       <c r="AG103" s="8"/>
-      <c r="AH103" s="17"/>
+      <c r="AH103" s="13"/>
     </row>
     <row r="104" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
-      <c r="E104" s="16"/>
+      <c r="E104" s="12"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
@@ -4461,14 +4464,14 @@
       <c r="AE104" s="9"/>
       <c r="AF104" s="9"/>
       <c r="AG104" s="8"/>
-      <c r="AH104" s="17"/>
+      <c r="AH104" s="13"/>
     </row>
     <row r="105" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
-      <c r="E105" s="16"/>
+      <c r="E105" s="12"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c r="H105" s="8"/>
@@ -4497,14 +4500,14 @@
       <c r="AE105" s="9"/>
       <c r="AF105" s="9"/>
       <c r="AG105" s="8"/>
-      <c r="AH105" s="17"/>
+      <c r="AH105" s="13"/>
     </row>
     <row r="106" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
-      <c r="E106" s="16"/>
+      <c r="E106" s="12"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
@@ -4533,14 +4536,14 @@
       <c r="AE106" s="9"/>
       <c r="AF106" s="9"/>
       <c r="AG106" s="8"/>
-      <c r="AH106" s="17"/>
+      <c r="AH106" s="13"/>
     </row>
     <row r="107" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
-      <c r="E107" s="16"/>
+      <c r="E107" s="12"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
@@ -4569,14 +4572,14 @@
       <c r="AE107" s="9"/>
       <c r="AF107" s="9"/>
       <c r="AG107" s="8"/>
-      <c r="AH107" s="17"/>
+      <c r="AH107" s="13"/>
     </row>
     <row r="108" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
-      <c r="E108" s="16"/>
+      <c r="E108" s="12"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
@@ -4605,14 +4608,14 @@
       <c r="AE108" s="9"/>
       <c r="AF108" s="9"/>
       <c r="AG108" s="8"/>
-      <c r="AH108" s="17"/>
+      <c r="AH108" s="13"/>
     </row>
     <row r="109" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
-      <c r="E109" s="16"/>
+      <c r="E109" s="12"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
@@ -4641,14 +4644,14 @@
       <c r="AE109" s="9"/>
       <c r="AF109" s="9"/>
       <c r="AG109" s="8"/>
-      <c r="AH109" s="17"/>
+      <c r="AH109" s="13"/>
     </row>
     <row r="110" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
-      <c r="E110" s="16"/>
+      <c r="E110" s="12"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c r="H110" s="8"/>
@@ -4677,14 +4680,14 @@
       <c r="AE110" s="9"/>
       <c r="AF110" s="9"/>
       <c r="AG110" s="8"/>
-      <c r="AH110" s="17"/>
+      <c r="AH110" s="13"/>
     </row>
     <row r="111" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
-      <c r="E111" s="16"/>
+      <c r="E111" s="12"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c r="H111" s="8"/>
@@ -4713,14 +4716,14 @@
       <c r="AE111" s="9"/>
       <c r="AF111" s="9"/>
       <c r="AG111" s="8"/>
-      <c r="AH111" s="17"/>
+      <c r="AH111" s="13"/>
     </row>
     <row r="112" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
-      <c r="E112" s="16"/>
+      <c r="E112" s="12"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c r="H112" s="8"/>
@@ -4749,14 +4752,14 @@
       <c r="AE112" s="9"/>
       <c r="AF112" s="9"/>
       <c r="AG112" s="8"/>
-      <c r="AH112" s="17"/>
+      <c r="AH112" s="13"/>
     </row>
     <row r="113" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
-      <c r="E113" s="16"/>
+      <c r="E113" s="12"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c r="H113" s="8"/>
@@ -4785,14 +4788,14 @@
       <c r="AE113" s="9"/>
       <c r="AF113" s="9"/>
       <c r="AG113" s="8"/>
-      <c r="AH113" s="17"/>
+      <c r="AH113" s="13"/>
     </row>
     <row r="114" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
-      <c r="E114" s="16"/>
+      <c r="E114" s="12"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c r="H114" s="8"/>
@@ -4821,14 +4824,14 @@
       <c r="AE114" s="9"/>
       <c r="AF114" s="9"/>
       <c r="AG114" s="8"/>
-      <c r="AH114" s="17"/>
+      <c r="AH114" s="13"/>
     </row>
     <row r="115" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
-      <c r="E115" s="16"/>
+      <c r="E115" s="12"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c r="H115" s="8"/>
@@ -4857,14 +4860,14 @@
       <c r="AE115" s="9"/>
       <c r="AF115" s="9"/>
       <c r="AG115" s="8"/>
-      <c r="AH115" s="17"/>
+      <c r="AH115" s="13"/>
     </row>
     <row r="116" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
-      <c r="E116" s="16"/>
+      <c r="E116" s="12"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c r="H116" s="8"/>
@@ -4893,14 +4896,14 @@
       <c r="AE116" s="9"/>
       <c r="AF116" s="9"/>
       <c r="AG116" s="8"/>
-      <c r="AH116" s="17"/>
+      <c r="AH116" s="13"/>
     </row>
     <row r="117" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
-      <c r="E117" s="16"/>
+      <c r="E117" s="12"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c r="H117" s="8"/>
@@ -4929,14 +4932,14 @@
       <c r="AE117" s="9"/>
       <c r="AF117" s="9"/>
       <c r="AG117" s="8"/>
-      <c r="AH117" s="17"/>
+      <c r="AH117" s="13"/>
     </row>
     <row r="118" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
-      <c r="E118" s="16"/>
+      <c r="E118" s="12"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c r="H118" s="8"/>
@@ -4965,14 +4968,14 @@
       <c r="AE118" s="9"/>
       <c r="AF118" s="9"/>
       <c r="AG118" s="8"/>
-      <c r="AH118" s="17"/>
+      <c r="AH118" s="13"/>
     </row>
     <row r="119" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
-      <c r="E119" s="16"/>
+      <c r="E119" s="12"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c r="H119" s="8"/>
@@ -5001,14 +5004,14 @@
       <c r="AE119" s="9"/>
       <c r="AF119" s="9"/>
       <c r="AG119" s="8"/>
-      <c r="AH119" s="17"/>
+      <c r="AH119" s="13"/>
     </row>
     <row r="120" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
       <c r="D120" s="8"/>
-      <c r="E120" s="16"/>
+      <c r="E120" s="12"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c r="H120" s="8"/>
@@ -5037,14 +5040,14 @@
       <c r="AE120" s="9"/>
       <c r="AF120" s="9"/>
       <c r="AG120" s="8"/>
-      <c r="AH120" s="17"/>
+      <c r="AH120" s="13"/>
     </row>
     <row r="121" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
-      <c r="E121" s="16"/>
+      <c r="E121" s="12"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c r="H121" s="8"/>
@@ -5073,14 +5076,14 @@
       <c r="AE121" s="9"/>
       <c r="AF121" s="9"/>
       <c r="AG121" s="8"/>
-      <c r="AH121" s="17"/>
+      <c r="AH121" s="13"/>
     </row>
     <row r="122" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
-      <c r="E122" s="16"/>
+      <c r="E122" s="12"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c r="H122" s="8"/>
@@ -5109,14 +5112,14 @@
       <c r="AE122" s="9"/>
       <c r="AF122" s="9"/>
       <c r="AG122" s="8"/>
-      <c r="AH122" s="17"/>
+      <c r="AH122" s="13"/>
     </row>
     <row r="123" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
-      <c r="E123" s="16"/>
+      <c r="E123" s="12"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c r="H123" s="8"/>
@@ -5145,14 +5148,14 @@
       <c r="AE123" s="9"/>
       <c r="AF123" s="9"/>
       <c r="AG123" s="8"/>
-      <c r="AH123" s="17"/>
+      <c r="AH123" s="13"/>
     </row>
     <row r="124" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
-      <c r="E124" s="16"/>
+      <c r="E124" s="12"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c r="H124" s="8"/>
@@ -5181,14 +5184,14 @@
       <c r="AE124" s="9"/>
       <c r="AF124" s="9"/>
       <c r="AG124" s="8"/>
-      <c r="AH124" s="17"/>
+      <c r="AH124" s="13"/>
     </row>
     <row r="125" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
-      <c r="E125" s="16"/>
+      <c r="E125" s="12"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c r="H125" s="8"/>
@@ -5217,14 +5220,14 @@
       <c r="AE125" s="9"/>
       <c r="AF125" s="9"/>
       <c r="AG125" s="8"/>
-      <c r="AH125" s="17"/>
+      <c r="AH125" s="13"/>
     </row>
     <row r="126" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
-      <c r="E126" s="16"/>
+      <c r="E126" s="12"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c r="H126" s="8"/>
@@ -5253,14 +5256,14 @@
       <c r="AE126" s="9"/>
       <c r="AF126" s="9"/>
       <c r="AG126" s="8"/>
-      <c r="AH126" s="17"/>
+      <c r="AH126" s="13"/>
     </row>
     <row r="127" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
-      <c r="E127" s="16"/>
+      <c r="E127" s="12"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c r="H127" s="8"/>
@@ -5289,14 +5292,14 @@
       <c r="AE127" s="9"/>
       <c r="AF127" s="9"/>
       <c r="AG127" s="8"/>
-      <c r="AH127" s="17"/>
+      <c r="AH127" s="13"/>
     </row>
     <row r="128" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
-      <c r="E128" s="16"/>
+      <c r="E128" s="12"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c r="H128" s="8"/>
@@ -5325,14 +5328,14 @@
       <c r="AE128" s="9"/>
       <c r="AF128" s="9"/>
       <c r="AG128" s="8"/>
-      <c r="AH128" s="17"/>
+      <c r="AH128" s="13"/>
     </row>
     <row r="129" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
-      <c r="E129" s="16"/>
+      <c r="E129" s="12"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c r="H129" s="8"/>
@@ -5361,14 +5364,14 @@
       <c r="AE129" s="9"/>
       <c r="AF129" s="9"/>
       <c r="AG129" s="8"/>
-      <c r="AH129" s="17"/>
+      <c r="AH129" s="13"/>
     </row>
     <row r="130" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
-      <c r="E130" s="16"/>
+      <c r="E130" s="12"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c r="H130" s="8"/>
@@ -5397,14 +5400,14 @@
       <c r="AE130" s="9"/>
       <c r="AF130" s="9"/>
       <c r="AG130" s="8"/>
-      <c r="AH130" s="17"/>
+      <c r="AH130" s="13"/>
     </row>
     <row r="131" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
-      <c r="E131" s="16"/>
+      <c r="E131" s="12"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c r="H131" s="8"/>
@@ -5433,14 +5436,14 @@
       <c r="AE131" s="9"/>
       <c r="AF131" s="9"/>
       <c r="AG131" s="8"/>
-      <c r="AH131" s="17"/>
+      <c r="AH131" s="13"/>
     </row>
     <row r="132" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
-      <c r="E132" s="16"/>
+      <c r="E132" s="12"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c r="H132" s="8"/>
@@ -5469,14 +5472,14 @@
       <c r="AE132" s="9"/>
       <c r="AF132" s="9"/>
       <c r="AG132" s="8"/>
-      <c r="AH132" s="17"/>
+      <c r="AH132" s="13"/>
     </row>
     <row r="133" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
-      <c r="E133" s="16"/>
+      <c r="E133" s="12"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c r="H133" s="8"/>
@@ -5505,14 +5508,14 @@
       <c r="AE133" s="9"/>
       <c r="AF133" s="9"/>
       <c r="AG133" s="8"/>
-      <c r="AH133" s="17"/>
+      <c r="AH133" s="13"/>
     </row>
     <row r="134" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
-      <c r="E134" s="16"/>
+      <c r="E134" s="12"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c r="H134" s="8"/>
@@ -5541,14 +5544,14 @@
       <c r="AE134" s="9"/>
       <c r="AF134" s="9"/>
       <c r="AG134" s="8"/>
-      <c r="AH134" s="17"/>
+      <c r="AH134" s="13"/>
     </row>
     <row r="135" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
-      <c r="E135" s="16"/>
+      <c r="E135" s="12"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c r="H135" s="8"/>
@@ -5577,14 +5580,14 @@
       <c r="AE135" s="9"/>
       <c r="AF135" s="9"/>
       <c r="AG135" s="8"/>
-      <c r="AH135" s="17"/>
+      <c r="AH135" s="13"/>
     </row>
     <row r="136" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
-      <c r="E136" s="16"/>
+      <c r="E136" s="12"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
@@ -5613,14 +5616,14 @@
       <c r="AE136" s="9"/>
       <c r="AF136" s="9"/>
       <c r="AG136" s="8"/>
-      <c r="AH136" s="17"/>
+      <c r="AH136" s="13"/>
     </row>
     <row r="137" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
-      <c r="E137" s="16"/>
+      <c r="E137" s="12"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
@@ -5649,14 +5652,14 @@
       <c r="AE137" s="9"/>
       <c r="AF137" s="9"/>
       <c r="AG137" s="8"/>
-      <c r="AH137" s="17"/>
+      <c r="AH137" s="13"/>
     </row>
     <row r="138" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
-      <c r="E138" s="16"/>
+      <c r="E138" s="12"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c r="H138" s="8"/>
@@ -5685,14 +5688,14 @@
       <c r="AE138" s="9"/>
       <c r="AF138" s="9"/>
       <c r="AG138" s="8"/>
-      <c r="AH138" s="17"/>
+      <c r="AH138" s="13"/>
     </row>
     <row r="139" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
-      <c r="E139" s="16"/>
+      <c r="E139" s="12"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
@@ -5721,14 +5724,14 @@
       <c r="AE139" s="9"/>
       <c r="AF139" s="9"/>
       <c r="AG139" s="8"/>
-      <c r="AH139" s="17"/>
+      <c r="AH139" s="13"/>
     </row>
     <row r="140" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
-      <c r="E140" s="16"/>
+      <c r="E140" s="12"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c r="H140" s="8"/>
@@ -5757,14 +5760,14 @@
       <c r="AE140" s="9"/>
       <c r="AF140" s="9"/>
       <c r="AG140" s="8"/>
-      <c r="AH140" s="17"/>
+      <c r="AH140" s="13"/>
     </row>
     <row r="141" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
-      <c r="E141" s="16"/>
+      <c r="E141" s="12"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c r="H141" s="8"/>
@@ -5793,14 +5796,14 @@
       <c r="AE141" s="9"/>
       <c r="AF141" s="9"/>
       <c r="AG141" s="8"/>
-      <c r="AH141" s="17"/>
+      <c r="AH141" s="13"/>
     </row>
     <row r="142" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
-      <c r="E142" s="16"/>
+      <c r="E142" s="12"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c r="H142" s="8"/>
@@ -5829,14 +5832,14 @@
       <c r="AE142" s="9"/>
       <c r="AF142" s="9"/>
       <c r="AG142" s="8"/>
-      <c r="AH142" s="17"/>
+      <c r="AH142" s="13"/>
     </row>
     <row r="143" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
-      <c r="E143" s="16"/>
+      <c r="E143" s="12"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
@@ -5865,14 +5868,14 @@
       <c r="AE143" s="9"/>
       <c r="AF143" s="9"/>
       <c r="AG143" s="8"/>
-      <c r="AH143" s="17"/>
+      <c r="AH143" s="13"/>
     </row>
     <row r="144" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
-      <c r="E144" s="16"/>
+      <c r="E144" s="12"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c r="H144" s="8"/>
@@ -5901,14 +5904,14 @@
       <c r="AE144" s="9"/>
       <c r="AF144" s="9"/>
       <c r="AG144" s="8"/>
-      <c r="AH144" s="17"/>
+      <c r="AH144" s="13"/>
     </row>
     <row r="145" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
-      <c r="E145" s="16"/>
+      <c r="E145" s="12"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c r="H145" s="8"/>
@@ -5937,14 +5940,14 @@
       <c r="AE145" s="9"/>
       <c r="AF145" s="9"/>
       <c r="AG145" s="8"/>
-      <c r="AH145" s="17"/>
+      <c r="AH145" s="13"/>
     </row>
     <row r="146" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
-      <c r="E146" s="16"/>
+      <c r="E146" s="12"/>
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
       <c r="H146" s="8"/>
@@ -5973,14 +5976,14 @@
       <c r="AE146" s="9"/>
       <c r="AF146" s="9"/>
       <c r="AG146" s="8"/>
-      <c r="AH146" s="17"/>
+      <c r="AH146" s="13"/>
     </row>
     <row r="147" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
-      <c r="E147" s="16"/>
+      <c r="E147" s="12"/>
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
       <c r="H147" s="8"/>
@@ -6009,14 +6012,14 @@
       <c r="AE147" s="9"/>
       <c r="AF147" s="9"/>
       <c r="AG147" s="8"/>
-      <c r="AH147" s="17"/>
+      <c r="AH147" s="13"/>
     </row>
     <row r="148" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
-      <c r="E148" s="16"/>
+      <c r="E148" s="12"/>
       <c r="F148" s="8"/>
       <c r="G148" s="8"/>
       <c r="H148" s="8"/>
@@ -6045,14 +6048,14 @@
       <c r="AE148" s="9"/>
       <c r="AF148" s="9"/>
       <c r="AG148" s="8"/>
-      <c r="AH148" s="17"/>
+      <c r="AH148" s="13"/>
     </row>
     <row r="149" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
-      <c r="E149" s="16"/>
+      <c r="E149" s="12"/>
       <c r="F149" s="8"/>
       <c r="G149" s="8"/>
       <c r="H149" s="8"/>
@@ -6081,14 +6084,14 @@
       <c r="AE149" s="9"/>
       <c r="AF149" s="9"/>
       <c r="AG149" s="8"/>
-      <c r="AH149" s="17"/>
+      <c r="AH149" s="13"/>
     </row>
     <row r="150" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
       <c r="D150" s="8"/>
-      <c r="E150" s="16"/>
+      <c r="E150" s="12"/>
       <c r="F150" s="8"/>
       <c r="G150" s="8"/>
       <c r="H150" s="8"/>
@@ -6117,14 +6120,14 @@
       <c r="AE150" s="9"/>
       <c r="AF150" s="9"/>
       <c r="AG150" s="8"/>
-      <c r="AH150" s="17"/>
+      <c r="AH150" s="13"/>
     </row>
     <row r="151" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
       <c r="D151" s="8"/>
-      <c r="E151" s="16"/>
+      <c r="E151" s="12"/>
       <c r="F151" s="8"/>
       <c r="G151" s="8"/>
       <c r="H151" s="8"/>
@@ -6153,14 +6156,14 @@
       <c r="AE151" s="9"/>
       <c r="AF151" s="9"/>
       <c r="AG151" s="8"/>
-      <c r="AH151" s="17"/>
+      <c r="AH151" s="13"/>
     </row>
     <row r="152" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
       <c r="D152" s="8"/>
-      <c r="E152" s="16"/>
+      <c r="E152" s="12"/>
       <c r="F152" s="8"/>
       <c r="G152" s="8"/>
       <c r="H152" s="8"/>
@@ -6189,14 +6192,14 @@
       <c r="AE152" s="9"/>
       <c r="AF152" s="9"/>
       <c r="AG152" s="8"/>
-      <c r="AH152" s="17"/>
+      <c r="AH152" s="13"/>
     </row>
     <row r="153" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
       <c r="D153" s="8"/>
-      <c r="E153" s="16"/>
+      <c r="E153" s="12"/>
       <c r="F153" s="8"/>
       <c r="G153" s="8"/>
       <c r="H153" s="8"/>
@@ -6225,14 +6228,14 @@
       <c r="AE153" s="9"/>
       <c r="AF153" s="9"/>
       <c r="AG153" s="8"/>
-      <c r="AH153" s="17"/>
+      <c r="AH153" s="13"/>
     </row>
     <row r="154" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
-      <c r="E154" s="16"/>
+      <c r="E154" s="12"/>
       <c r="F154" s="8"/>
       <c r="G154" s="8"/>
       <c r="H154" s="8"/>
@@ -6261,14 +6264,14 @@
       <c r="AE154" s="9"/>
       <c r="AF154" s="9"/>
       <c r="AG154" s="8"/>
-      <c r="AH154" s="17"/>
+      <c r="AH154" s="13"/>
     </row>
     <row r="155" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
-      <c r="E155" s="16"/>
+      <c r="E155" s="12"/>
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
       <c r="H155" s="8"/>
@@ -6297,14 +6300,14 @@
       <c r="AE155" s="9"/>
       <c r="AF155" s="9"/>
       <c r="AG155" s="8"/>
-      <c r="AH155" s="17"/>
+      <c r="AH155" s="13"/>
     </row>
     <row r="156" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
-      <c r="E156" s="16"/>
+      <c r="E156" s="12"/>
       <c r="F156" s="8"/>
       <c r="G156" s="8"/>
       <c r="H156" s="8"/>
@@ -6333,14 +6336,14 @@
       <c r="AE156" s="9"/>
       <c r="AF156" s="9"/>
       <c r="AG156" s="8"/>
-      <c r="AH156" s="17"/>
+      <c r="AH156" s="13"/>
     </row>
     <row r="157" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
-      <c r="E157" s="16"/>
+      <c r="E157" s="12"/>
       <c r="F157" s="8"/>
       <c r="G157" s="8"/>
       <c r="H157" s="8"/>
@@ -6369,14 +6372,14 @@
       <c r="AE157" s="9"/>
       <c r="AF157" s="9"/>
       <c r="AG157" s="8"/>
-      <c r="AH157" s="17"/>
+      <c r="AH157" s="13"/>
     </row>
     <row r="158" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
-      <c r="E158" s="16"/>
+      <c r="E158" s="12"/>
       <c r="F158" s="8"/>
       <c r="G158" s="8"/>
       <c r="H158" s="8"/>
@@ -6405,14 +6408,14 @@
       <c r="AE158" s="9"/>
       <c r="AF158" s="9"/>
       <c r="AG158" s="8"/>
-      <c r="AH158" s="17"/>
+      <c r="AH158" s="13"/>
     </row>
     <row r="159" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
-      <c r="E159" s="16"/>
+      <c r="E159" s="12"/>
       <c r="F159" s="8"/>
       <c r="G159" s="8"/>
       <c r="H159" s="8"/>
@@ -6441,14 +6444,14 @@
       <c r="AE159" s="9"/>
       <c r="AF159" s="9"/>
       <c r="AG159" s="8"/>
-      <c r="AH159" s="17"/>
+      <c r="AH159" s="13"/>
     </row>
     <row r="160" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
-      <c r="E160" s="16"/>
+      <c r="E160" s="12"/>
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
       <c r="H160" s="8"/>
@@ -6477,14 +6480,14 @@
       <c r="AE160" s="9"/>
       <c r="AF160" s="9"/>
       <c r="AG160" s="8"/>
-      <c r="AH160" s="17"/>
+      <c r="AH160" s="13"/>
     </row>
     <row r="161" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
-      <c r="E161" s="16"/>
+      <c r="E161" s="12"/>
       <c r="F161" s="8"/>
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
@@ -6513,14 +6516,14 @@
       <c r="AE161" s="9"/>
       <c r="AF161" s="9"/>
       <c r="AG161" s="8"/>
-      <c r="AH161" s="17"/>
+      <c r="AH161" s="13"/>
     </row>
     <row r="162" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
-      <c r="E162" s="16"/>
+      <c r="E162" s="12"/>
       <c r="F162" s="8"/>
       <c r="G162" s="8"/>
       <c r="H162" s="8"/>
@@ -6549,14 +6552,14 @@
       <c r="AE162" s="9"/>
       <c r="AF162" s="9"/>
       <c r="AG162" s="8"/>
-      <c r="AH162" s="17"/>
+      <c r="AH162" s="13"/>
     </row>
     <row r="163" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
       <c r="D163" s="8"/>
-      <c r="E163" s="16"/>
+      <c r="E163" s="12"/>
       <c r="F163" s="8"/>
       <c r="G163" s="8"/>
       <c r="H163" s="8"/>
@@ -6585,14 +6588,14 @@
       <c r="AE163" s="9"/>
       <c r="AF163" s="9"/>
       <c r="AG163" s="8"/>
-      <c r="AH163" s="17"/>
+      <c r="AH163" s="13"/>
     </row>
     <row r="164" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
-      <c r="E164" s="16"/>
+      <c r="E164" s="12"/>
       <c r="F164" s="8"/>
       <c r="G164" s="8"/>
       <c r="H164" s="8"/>
@@ -6621,14 +6624,14 @@
       <c r="AE164" s="9"/>
       <c r="AF164" s="9"/>
       <c r="AG164" s="8"/>
-      <c r="AH164" s="17"/>
+      <c r="AH164" s="13"/>
     </row>
     <row r="165" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
       <c r="D165" s="8"/>
-      <c r="E165" s="16"/>
+      <c r="E165" s="12"/>
       <c r="F165" s="8"/>
       <c r="G165" s="8"/>
       <c r="H165" s="8"/>
@@ -6657,14 +6660,14 @@
       <c r="AE165" s="9"/>
       <c r="AF165" s="9"/>
       <c r="AG165" s="8"/>
-      <c r="AH165" s="17"/>
+      <c r="AH165" s="13"/>
     </row>
     <row r="166" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
       <c r="D166" s="8"/>
-      <c r="E166" s="16"/>
+      <c r="E166" s="12"/>
       <c r="F166" s="8"/>
       <c r="G166" s="8"/>
       <c r="H166" s="8"/>
@@ -6693,14 +6696,14 @@
       <c r="AE166" s="9"/>
       <c r="AF166" s="9"/>
       <c r="AG166" s="8"/>
-      <c r="AH166" s="17"/>
+      <c r="AH166" s="13"/>
     </row>
     <row r="167" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
       <c r="D167" s="8"/>
-      <c r="E167" s="16"/>
+      <c r="E167" s="12"/>
       <c r="F167" s="8"/>
       <c r="G167" s="8"/>
       <c r="H167" s="8"/>
@@ -6729,14 +6732,14 @@
       <c r="AE167" s="9"/>
       <c r="AF167" s="9"/>
       <c r="AG167" s="8"/>
-      <c r="AH167" s="17"/>
+      <c r="AH167" s="13"/>
     </row>
     <row r="168" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
       <c r="D168" s="8"/>
-      <c r="E168" s="16"/>
+      <c r="E168" s="12"/>
       <c r="F168" s="8"/>
       <c r="G168" s="8"/>
       <c r="H168" s="8"/>
@@ -6765,14 +6768,14 @@
       <c r="AE168" s="9"/>
       <c r="AF168" s="9"/>
       <c r="AG168" s="8"/>
-      <c r="AH168" s="17"/>
+      <c r="AH168" s="13"/>
     </row>
     <row r="169" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
       <c r="D169" s="8"/>
-      <c r="E169" s="16"/>
+      <c r="E169" s="12"/>
       <c r="F169" s="8"/>
       <c r="G169" s="8"/>
       <c r="H169" s="8"/>
@@ -6801,14 +6804,14 @@
       <c r="AE169" s="9"/>
       <c r="AF169" s="9"/>
       <c r="AG169" s="8"/>
-      <c r="AH169" s="17"/>
+      <c r="AH169" s="13"/>
     </row>
     <row r="170" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
       <c r="D170" s="8"/>
-      <c r="E170" s="16"/>
+      <c r="E170" s="12"/>
       <c r="F170" s="8"/>
       <c r="G170" s="8"/>
       <c r="H170" s="8"/>
@@ -6837,14 +6840,14 @@
       <c r="AE170" s="9"/>
       <c r="AF170" s="9"/>
       <c r="AG170" s="8"/>
-      <c r="AH170" s="17"/>
+      <c r="AH170" s="13"/>
     </row>
     <row r="171" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
       <c r="D171" s="8"/>
-      <c r="E171" s="16"/>
+      <c r="E171" s="12"/>
       <c r="F171" s="8"/>
       <c r="G171" s="8"/>
       <c r="H171" s="8"/>
@@ -6873,14 +6876,14 @@
       <c r="AE171" s="9"/>
       <c r="AF171" s="9"/>
       <c r="AG171" s="8"/>
-      <c r="AH171" s="17"/>
+      <c r="AH171" s="13"/>
     </row>
     <row r="172" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
       <c r="D172" s="8"/>
-      <c r="E172" s="16"/>
+      <c r="E172" s="12"/>
       <c r="F172" s="8"/>
       <c r="G172" s="8"/>
       <c r="H172" s="8"/>
@@ -6909,14 +6912,14 @@
       <c r="AE172" s="9"/>
       <c r="AF172" s="9"/>
       <c r="AG172" s="8"/>
-      <c r="AH172" s="17"/>
+      <c r="AH172" s="13"/>
     </row>
     <row r="173" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
       <c r="D173" s="8"/>
-      <c r="E173" s="16"/>
+      <c r="E173" s="12"/>
       <c r="F173" s="8"/>
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
@@ -6945,14 +6948,14 @@
       <c r="AE173" s="9"/>
       <c r="AF173" s="9"/>
       <c r="AG173" s="8"/>
-      <c r="AH173" s="17"/>
+      <c r="AH173" s="13"/>
     </row>
     <row r="174" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
       <c r="D174" s="8"/>
-      <c r="E174" s="16"/>
+      <c r="E174" s="12"/>
       <c r="F174" s="8"/>
       <c r="G174" s="8"/>
       <c r="H174" s="8"/>
@@ -6981,14 +6984,14 @@
       <c r="AE174" s="9"/>
       <c r="AF174" s="9"/>
       <c r="AG174" s="8"/>
-      <c r="AH174" s="17"/>
+      <c r="AH174" s="13"/>
     </row>
     <row r="175" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
       <c r="D175" s="8"/>
-      <c r="E175" s="16"/>
+      <c r="E175" s="12"/>
       <c r="F175" s="8"/>
       <c r="G175" s="8"/>
       <c r="H175" s="8"/>
@@ -7017,14 +7020,14 @@
       <c r="AE175" s="9"/>
       <c r="AF175" s="9"/>
       <c r="AG175" s="8"/>
-      <c r="AH175" s="17"/>
+      <c r="AH175" s="13"/>
     </row>
     <row r="176" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
       <c r="D176" s="8"/>
-      <c r="E176" s="16"/>
+      <c r="E176" s="12"/>
       <c r="F176" s="8"/>
       <c r="G176" s="8"/>
       <c r="H176" s="8"/>
@@ -7053,14 +7056,14 @@
       <c r="AE176" s="9"/>
       <c r="AF176" s="9"/>
       <c r="AG176" s="8"/>
-      <c r="AH176" s="17"/>
+      <c r="AH176" s="13"/>
     </row>
     <row r="177" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
       <c r="D177" s="8"/>
-      <c r="E177" s="16"/>
+      <c r="E177" s="12"/>
       <c r="F177" s="8"/>
       <c r="G177" s="8"/>
       <c r="H177" s="8"/>
@@ -7089,14 +7092,14 @@
       <c r="AE177" s="9"/>
       <c r="AF177" s="9"/>
       <c r="AG177" s="8"/>
-      <c r="AH177" s="17"/>
+      <c r="AH177" s="13"/>
     </row>
     <row r="178" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
       <c r="D178" s="8"/>
-      <c r="E178" s="16"/>
+      <c r="E178" s="12"/>
       <c r="F178" s="8"/>
       <c r="G178" s="8"/>
       <c r="H178" s="8"/>
@@ -7125,14 +7128,14 @@
       <c r="AE178" s="9"/>
       <c r="AF178" s="9"/>
       <c r="AG178" s="8"/>
-      <c r="AH178" s="17"/>
+      <c r="AH178" s="13"/>
     </row>
     <row r="179" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
       <c r="D179" s="8"/>
-      <c r="E179" s="16"/>
+      <c r="E179" s="12"/>
       <c r="F179" s="8"/>
       <c r="G179" s="8"/>
       <c r="H179" s="8"/>
@@ -7161,14 +7164,14 @@
       <c r="AE179" s="9"/>
       <c r="AF179" s="9"/>
       <c r="AG179" s="8"/>
-      <c r="AH179" s="17"/>
+      <c r="AH179" s="13"/>
     </row>
     <row r="180" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
       <c r="D180" s="8"/>
-      <c r="E180" s="16"/>
+      <c r="E180" s="12"/>
       <c r="F180" s="8"/>
       <c r="G180" s="8"/>
       <c r="H180" s="8"/>
@@ -7197,14 +7200,14 @@
       <c r="AE180" s="9"/>
       <c r="AF180" s="9"/>
       <c r="AG180" s="8"/>
-      <c r="AH180" s="17"/>
+      <c r="AH180" s="13"/>
     </row>
     <row r="181" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
       <c r="D181" s="8"/>
-      <c r="E181" s="16"/>
+      <c r="E181" s="12"/>
       <c r="F181" s="8"/>
       <c r="G181" s="8"/>
       <c r="H181" s="8"/>
@@ -7233,14 +7236,14 @@
       <c r="AE181" s="9"/>
       <c r="AF181" s="9"/>
       <c r="AG181" s="8"/>
-      <c r="AH181" s="17"/>
+      <c r="AH181" s="13"/>
     </row>
     <row r="182" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
       <c r="D182" s="8"/>
-      <c r="E182" s="16"/>
+      <c r="E182" s="12"/>
       <c r="F182" s="8"/>
       <c r="G182" s="8"/>
       <c r="H182" s="8"/>
@@ -7269,14 +7272,14 @@
       <c r="AE182" s="9"/>
       <c r="AF182" s="9"/>
       <c r="AG182" s="8"/>
-      <c r="AH182" s="17"/>
+      <c r="AH182" s="13"/>
     </row>
     <row r="183" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
       <c r="D183" s="8"/>
-      <c r="E183" s="16"/>
+      <c r="E183" s="12"/>
       <c r="F183" s="8"/>
       <c r="G183" s="8"/>
       <c r="H183" s="8"/>
@@ -7305,14 +7308,14 @@
       <c r="AE183" s="9"/>
       <c r="AF183" s="9"/>
       <c r="AG183" s="8"/>
-      <c r="AH183" s="17"/>
+      <c r="AH183" s="13"/>
     </row>
     <row r="184" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
       <c r="D184" s="8"/>
-      <c r="E184" s="16"/>
+      <c r="E184" s="12"/>
       <c r="F184" s="8"/>
       <c r="G184" s="8"/>
       <c r="H184" s="8"/>
@@ -7341,14 +7344,14 @@
       <c r="AE184" s="9"/>
       <c r="AF184" s="9"/>
       <c r="AG184" s="8"/>
-      <c r="AH184" s="17"/>
+      <c r="AH184" s="13"/>
     </row>
     <row r="185" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
       <c r="D185" s="8"/>
-      <c r="E185" s="16"/>
+      <c r="E185" s="12"/>
       <c r="F185" s="8"/>
       <c r="G185" s="8"/>
       <c r="H185" s="8"/>
@@ -7377,14 +7380,14 @@
       <c r="AE185" s="9"/>
       <c r="AF185" s="9"/>
       <c r="AG185" s="8"/>
-      <c r="AH185" s="17"/>
+      <c r="AH185" s="13"/>
     </row>
     <row r="186" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
       <c r="D186" s="8"/>
-      <c r="E186" s="16"/>
+      <c r="E186" s="12"/>
       <c r="F186" s="8"/>
       <c r="G186" s="8"/>
       <c r="H186" s="8"/>
@@ -7413,14 +7416,14 @@
       <c r="AE186" s="9"/>
       <c r="AF186" s="9"/>
       <c r="AG186" s="8"/>
-      <c r="AH186" s="17"/>
+      <c r="AH186" s="13"/>
     </row>
     <row r="187" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
       <c r="D187" s="8"/>
-      <c r="E187" s="16"/>
+      <c r="E187" s="12"/>
       <c r="F187" s="8"/>
       <c r="G187" s="8"/>
       <c r="H187" s="8"/>
@@ -7449,14 +7452,14 @@
       <c r="AE187" s="9"/>
       <c r="AF187" s="9"/>
       <c r="AG187" s="8"/>
-      <c r="AH187" s="17"/>
+      <c r="AH187" s="13"/>
     </row>
     <row r="188" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
       <c r="D188" s="8"/>
-      <c r="E188" s="16"/>
+      <c r="E188" s="12"/>
       <c r="F188" s="8"/>
       <c r="G188" s="8"/>
       <c r="H188" s="8"/>
@@ -7485,14 +7488,14 @@
       <c r="AE188" s="9"/>
       <c r="AF188" s="9"/>
       <c r="AG188" s="8"/>
-      <c r="AH188" s="17"/>
+      <c r="AH188" s="13"/>
     </row>
     <row r="189" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
       <c r="D189" s="8"/>
-      <c r="E189" s="16"/>
+      <c r="E189" s="12"/>
       <c r="F189" s="8"/>
       <c r="G189" s="8"/>
       <c r="H189" s="8"/>
@@ -7521,14 +7524,14 @@
       <c r="AE189" s="9"/>
       <c r="AF189" s="9"/>
       <c r="AG189" s="8"/>
-      <c r="AH189" s="17"/>
+      <c r="AH189" s="13"/>
     </row>
     <row r="190" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
       <c r="D190" s="8"/>
-      <c r="E190" s="16"/>
+      <c r="E190" s="12"/>
       <c r="F190" s="8"/>
       <c r="G190" s="8"/>
       <c r="H190" s="8"/>
@@ -7557,14 +7560,14 @@
       <c r="AE190" s="9"/>
       <c r="AF190" s="9"/>
       <c r="AG190" s="8"/>
-      <c r="AH190" s="17"/>
+      <c r="AH190" s="13"/>
     </row>
     <row r="191" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
       <c r="D191" s="8"/>
-      <c r="E191" s="16"/>
+      <c r="E191" s="12"/>
       <c r="F191" s="8"/>
       <c r="G191" s="8"/>
       <c r="H191" s="8"/>
@@ -7593,14 +7596,14 @@
       <c r="AE191" s="9"/>
       <c r="AF191" s="9"/>
       <c r="AG191" s="8"/>
-      <c r="AH191" s="17"/>
+      <c r="AH191" s="13"/>
     </row>
     <row r="192" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
       <c r="D192" s="8"/>
-      <c r="E192" s="16"/>
+      <c r="E192" s="12"/>
       <c r="F192" s="8"/>
       <c r="G192" s="8"/>
       <c r="H192" s="8"/>
@@ -7629,14 +7632,14 @@
       <c r="AE192" s="9"/>
       <c r="AF192" s="9"/>
       <c r="AG192" s="8"/>
-      <c r="AH192" s="17"/>
+      <c r="AH192" s="13"/>
     </row>
     <row r="193" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
       <c r="D193" s="8"/>
-      <c r="E193" s="16"/>
+      <c r="E193" s="12"/>
       <c r="F193" s="8"/>
       <c r="G193" s="8"/>
       <c r="H193" s="8"/>
@@ -7665,14 +7668,14 @@
       <c r="AE193" s="9"/>
       <c r="AF193" s="9"/>
       <c r="AG193" s="8"/>
-      <c r="AH193" s="17"/>
+      <c r="AH193" s="13"/>
     </row>
     <row r="194" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
       <c r="D194" s="8"/>
-      <c r="E194" s="16"/>
+      <c r="E194" s="12"/>
       <c r="F194" s="8"/>
       <c r="G194" s="8"/>
       <c r="H194" s="8"/>
@@ -7701,14 +7704,14 @@
       <c r="AE194" s="9"/>
       <c r="AF194" s="9"/>
       <c r="AG194" s="8"/>
-      <c r="AH194" s="17"/>
+      <c r="AH194" s="13"/>
     </row>
     <row r="195" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
       <c r="D195" s="8"/>
-      <c r="E195" s="16"/>
+      <c r="E195" s="12"/>
       <c r="F195" s="8"/>
       <c r="G195" s="8"/>
       <c r="H195" s="8"/>
@@ -7737,14 +7740,14 @@
       <c r="AE195" s="9"/>
       <c r="AF195" s="9"/>
       <c r="AG195" s="8"/>
-      <c r="AH195" s="17"/>
+      <c r="AH195" s="13"/>
     </row>
     <row r="196" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
       <c r="D196" s="8"/>
-      <c r="E196" s="16"/>
+      <c r="E196" s="12"/>
       <c r="F196" s="8"/>
       <c r="G196" s="8"/>
       <c r="H196" s="8"/>
@@ -7773,14 +7776,14 @@
       <c r="AE196" s="9"/>
       <c r="AF196" s="9"/>
       <c r="AG196" s="8"/>
-      <c r="AH196" s="17"/>
+      <c r="AH196" s="13"/>
     </row>
     <row r="197" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
       <c r="D197" s="8"/>
-      <c r="E197" s="16"/>
+      <c r="E197" s="12"/>
       <c r="F197" s="8"/>
       <c r="G197" s="8"/>
       <c r="H197" s="8"/>
@@ -7809,14 +7812,14 @@
       <c r="AE197" s="9"/>
       <c r="AF197" s="9"/>
       <c r="AG197" s="8"/>
-      <c r="AH197" s="17"/>
+      <c r="AH197" s="13"/>
     </row>
     <row r="198" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
       <c r="D198" s="8"/>
-      <c r="E198" s="16"/>
+      <c r="E198" s="12"/>
       <c r="F198" s="8"/>
       <c r="G198" s="8"/>
       <c r="H198" s="8"/>
@@ -7845,14 +7848,14 @@
       <c r="AE198" s="9"/>
       <c r="AF198" s="9"/>
       <c r="AG198" s="8"/>
-      <c r="AH198" s="17"/>
+      <c r="AH198" s="13"/>
     </row>
     <row r="199" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
       <c r="D199" s="8"/>
-      <c r="E199" s="16"/>
+      <c r="E199" s="12"/>
       <c r="F199" s="8"/>
       <c r="G199" s="8"/>
       <c r="H199" s="8"/>
@@ -7881,7 +7884,7 @@
       <c r="AE199" s="9"/>
       <c r="AF199" s="9"/>
       <c r="AG199" s="8"/>
-      <c r="AH199" s="17"/>
+      <c r="AH199" s="13"/>
     </row>
     <row r="200" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A200" s="8"/>
@@ -7917,7 +7920,7 @@
       <c r="AE200" s="9"/>
       <c r="AF200" s="9"/>
       <c r="AG200" s="8"/>
-      <c r="AH200" s="17"/>
+      <c r="AH200" s="13"/>
     </row>
     <row r="201" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A201" s="8"/>
@@ -7953,7 +7956,7 @@
       <c r="AE201" s="9"/>
       <c r="AF201" s="9"/>
       <c r="AG201" s="8"/>
-      <c r="AH201" s="17"/>
+      <c r="AH201" s="13"/>
     </row>
     <row r="202" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A202" s="8"/>
@@ -7989,7 +7992,7 @@
       <c r="AE202" s="9"/>
       <c r="AF202" s="9"/>
       <c r="AG202" s="8"/>
-      <c r="AH202" s="17"/>
+      <c r="AH202" s="13"/>
     </row>
     <row r="203" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A203" s="8"/>
@@ -8025,7 +8028,7 @@
       <c r="AE203" s="9"/>
       <c r="AF203" s="9"/>
       <c r="AG203" s="8"/>
-      <c r="AH203" s="17"/>
+      <c r="AH203" s="13"/>
     </row>
     <row r="204" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A204" s="8"/>
@@ -8061,7 +8064,7 @@
       <c r="AE204" s="9"/>
       <c r="AF204" s="9"/>
       <c r="AG204" s="8"/>
-      <c r="AH204" s="17"/>
+      <c r="AH204" s="13"/>
     </row>
     <row r="205" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A205" s="8"/>
@@ -8097,7 +8100,7 @@
       <c r="AE205" s="9"/>
       <c r="AF205" s="9"/>
       <c r="AG205" s="8"/>
-      <c r="AH205" s="17"/>
+      <c r="AH205" s="13"/>
     </row>
     <row r="206" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A206" s="8"/>
@@ -8133,7 +8136,7 @@
       <c r="AE206" s="9"/>
       <c r="AF206" s="9"/>
       <c r="AG206" s="8"/>
-      <c r="AH206" s="17"/>
+      <c r="AH206" s="13"/>
     </row>
     <row r="207" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A207" s="8"/>
@@ -8169,7 +8172,7 @@
       <c r="AE207" s="9"/>
       <c r="AF207" s="9"/>
       <c r="AG207" s="8"/>
-      <c r="AH207" s="17"/>
+      <c r="AH207" s="13"/>
     </row>
     <row r="208" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A208" s="8"/>
@@ -8205,7 +8208,7 @@
       <c r="AE208" s="9"/>
       <c r="AF208" s="9"/>
       <c r="AG208" s="8"/>
-      <c r="AH208" s="17"/>
+      <c r="AH208" s="13"/>
     </row>
     <row r="209" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A209" s="8"/>
@@ -8241,7 +8244,7 @@
       <c r="AE209" s="9"/>
       <c r="AF209" s="9"/>
       <c r="AG209" s="8"/>
-      <c r="AH209" s="17"/>
+      <c r="AH209" s="13"/>
     </row>
     <row r="210" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A210" s="8"/>
@@ -8277,7 +8280,7 @@
       <c r="AE210" s="9"/>
       <c r="AF210" s="9"/>
       <c r="AG210" s="8"/>
-      <c r="AH210" s="17"/>
+      <c r="AH210" s="13"/>
     </row>
     <row r="211" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A211" s="8"/>
@@ -8313,7 +8316,7 @@
       <c r="AE211" s="9"/>
       <c r="AF211" s="9"/>
       <c r="AG211" s="8"/>
-      <c r="AH211" s="17"/>
+      <c r="AH211" s="13"/>
     </row>
     <row r="212" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A212" s="8"/>
@@ -8349,7 +8352,7 @@
       <c r="AE212" s="9"/>
       <c r="AF212" s="9"/>
       <c r="AG212" s="8"/>
-      <c r="AH212" s="17"/>
+      <c r="AH212" s="13"/>
     </row>
     <row r="213" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A213" s="8"/>
@@ -8385,7 +8388,7 @@
       <c r="AE213" s="9"/>
       <c r="AF213" s="9"/>
       <c r="AG213" s="8"/>
-      <c r="AH213" s="17"/>
+      <c r="AH213" s="13"/>
     </row>
     <row r="214" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A214" s="8"/>
@@ -8421,7 +8424,7 @@
       <c r="AE214" s="9"/>
       <c r="AF214" s="9"/>
       <c r="AG214" s="8"/>
-      <c r="AH214" s="17"/>
+      <c r="AH214" s="13"/>
     </row>
     <row r="215" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A215" s="8"/>
@@ -8457,7 +8460,7 @@
       <c r="AE215" s="9"/>
       <c r="AF215" s="9"/>
       <c r="AG215" s="8"/>
-      <c r="AH215" s="17"/>
+      <c r="AH215" s="13"/>
     </row>
     <row r="216" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A216" s="8"/>
@@ -8493,7 +8496,7 @@
       <c r="AE216" s="9"/>
       <c r="AF216" s="9"/>
       <c r="AG216" s="8"/>
-      <c r="AH216" s="17"/>
+      <c r="AH216" s="13"/>
     </row>
     <row r="217" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A217" s="8"/>
@@ -8529,7 +8532,7 @@
       <c r="AE217" s="9"/>
       <c r="AF217" s="9"/>
       <c r="AG217" s="8"/>
-      <c r="AH217" s="17"/>
+      <c r="AH217" s="13"/>
     </row>
     <row r="218" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A218" s="8"/>
@@ -8565,7 +8568,7 @@
       <c r="AE218" s="9"/>
       <c r="AF218" s="9"/>
       <c r="AG218" s="8"/>
-      <c r="AH218" s="17"/>
+      <c r="AH218" s="13"/>
     </row>
     <row r="219" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A219" s="8"/>
@@ -8601,7 +8604,7 @@
       <c r="AE219" s="9"/>
       <c r="AF219" s="9"/>
       <c r="AG219" s="8"/>
-      <c r="AH219" s="17"/>
+      <c r="AH219" s="13"/>
     </row>
     <row r="220" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A220" s="8"/>
@@ -8637,7 +8640,7 @@
       <c r="AE220" s="9"/>
       <c r="AF220" s="9"/>
       <c r="AG220" s="8"/>
-      <c r="AH220" s="17"/>
+      <c r="AH220" s="13"/>
     </row>
     <row r="221" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A221" s="8"/>
@@ -8673,7 +8676,7 @@
       <c r="AE221" s="9"/>
       <c r="AF221" s="9"/>
       <c r="AG221" s="8"/>
-      <c r="AH221" s="17"/>
+      <c r="AH221" s="13"/>
     </row>
     <row r="222" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A222" s="8"/>
@@ -8709,7 +8712,7 @@
       <c r="AE222" s="9"/>
       <c r="AF222" s="9"/>
       <c r="AG222" s="8"/>
-      <c r="AH222" s="17"/>
+      <c r="AH222" s="13"/>
     </row>
     <row r="223" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A223" s="8"/>
@@ -8745,7 +8748,7 @@
       <c r="AE223" s="9"/>
       <c r="AF223" s="9"/>
       <c r="AG223" s="8"/>
-      <c r="AH223" s="17"/>
+      <c r="AH223" s="13"/>
     </row>
     <row r="224" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A224" s="8"/>
@@ -8781,7 +8784,7 @@
       <c r="AE224" s="9"/>
       <c r="AF224" s="9"/>
       <c r="AG224" s="8"/>
-      <c r="AH224" s="17"/>
+      <c r="AH224" s="13"/>
     </row>
     <row r="225" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A225" s="8"/>
@@ -8817,7 +8820,7 @@
       <c r="AE225" s="9"/>
       <c r="AF225" s="9"/>
       <c r="AG225" s="8"/>
-      <c r="AH225" s="17"/>
+      <c r="AH225" s="13"/>
     </row>
     <row r="226" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A226" s="8"/>
@@ -8853,7 +8856,7 @@
       <c r="AE226" s="9"/>
       <c r="AF226" s="9"/>
       <c r="AG226" s="8"/>
-      <c r="AH226" s="17"/>
+      <c r="AH226" s="13"/>
     </row>
     <row r="227" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A227" s="8"/>
@@ -8889,7 +8892,7 @@
       <c r="AE227" s="9"/>
       <c r="AF227" s="9"/>
       <c r="AG227" s="8"/>
-      <c r="AH227" s="17"/>
+      <c r="AH227" s="13"/>
     </row>
     <row r="228" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A228" s="8"/>
@@ -8925,7 +8928,7 @@
       <c r="AE228" s="9"/>
       <c r="AF228" s="9"/>
       <c r="AG228" s="8"/>
-      <c r="AH228" s="17"/>
+      <c r="AH228" s="13"/>
     </row>
     <row r="229" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A229" s="8"/>
@@ -8961,7 +8964,7 @@
       <c r="AE229" s="9"/>
       <c r="AF229" s="9"/>
       <c r="AG229" s="8"/>
-      <c r="AH229" s="17"/>
+      <c r="AH229" s="13"/>
     </row>
     <row r="230" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A230" s="8"/>
@@ -8997,7 +9000,7 @@
       <c r="AE230" s="9"/>
       <c r="AF230" s="9"/>
       <c r="AG230" s="8"/>
-      <c r="AH230" s="17"/>
+      <c r="AH230" s="13"/>
     </row>
     <row r="231" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A231" s="8"/>
@@ -9033,7 +9036,7 @@
       <c r="AE231" s="9"/>
       <c r="AF231" s="9"/>
       <c r="AG231" s="8"/>
-      <c r="AH231" s="17"/>
+      <c r="AH231" s="13"/>
     </row>
     <row r="232" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A232" s="8"/>
@@ -9069,7 +9072,7 @@
       <c r="AE232" s="9"/>
       <c r="AF232" s="9"/>
       <c r="AG232" s="8"/>
-      <c r="AH232" s="17"/>
+      <c r="AH232" s="13"/>
     </row>
     <row r="233" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A233" s="8"/>
@@ -9105,7 +9108,7 @@
       <c r="AE233" s="9"/>
       <c r="AF233" s="9"/>
       <c r="AG233" s="8"/>
-      <c r="AH233" s="17"/>
+      <c r="AH233" s="13"/>
     </row>
     <row r="234" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A234" s="8"/>
@@ -9141,7 +9144,7 @@
       <c r="AE234" s="9"/>
       <c r="AF234" s="9"/>
       <c r="AG234" s="8"/>
-      <c r="AH234" s="17"/>
+      <c r="AH234" s="13"/>
     </row>
     <row r="235" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A235" s="8"/>
@@ -9177,7 +9180,7 @@
       <c r="AE235" s="9"/>
       <c r="AF235" s="9"/>
       <c r="AG235" s="8"/>
-      <c r="AH235" s="17"/>
+      <c r="AH235" s="13"/>
     </row>
     <row r="236" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A236" s="8"/>
@@ -9213,7 +9216,7 @@
       <c r="AE236" s="9"/>
       <c r="AF236" s="9"/>
       <c r="AG236" s="8"/>
-      <c r="AH236" s="17"/>
+      <c r="AH236" s="13"/>
     </row>
     <row r="237" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A237" s="8"/>
@@ -9249,7 +9252,7 @@
       <c r="AE237" s="9"/>
       <c r="AF237" s="9"/>
       <c r="AG237" s="8"/>
-      <c r="AH237" s="17"/>
+      <c r="AH237" s="13"/>
     </row>
     <row r="238" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A238" s="8"/>
@@ -9285,7 +9288,7 @@
       <c r="AE238" s="9"/>
       <c r="AF238" s="9"/>
       <c r="AG238" s="8"/>
-      <c r="AH238" s="17"/>
+      <c r="AH238" s="13"/>
     </row>
     <row r="239" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A239" s="8"/>
@@ -9321,7 +9324,7 @@
       <c r="AE239" s="9"/>
       <c r="AF239" s="9"/>
       <c r="AG239" s="8"/>
-      <c r="AH239" s="17"/>
+      <c r="AH239" s="13"/>
     </row>
     <row r="240" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A240" s="8"/>
@@ -9357,7 +9360,7 @@
       <c r="AE240" s="9"/>
       <c r="AF240" s="9"/>
       <c r="AG240" s="8"/>
-      <c r="AH240" s="17"/>
+      <c r="AH240" s="13"/>
     </row>
     <row r="241" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A241" s="8"/>
@@ -9393,7 +9396,7 @@
       <c r="AE241" s="9"/>
       <c r="AF241" s="9"/>
       <c r="AG241" s="8"/>
-      <c r="AH241" s="17"/>
+      <c r="AH241" s="13"/>
     </row>
     <row r="242" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A242" s="8"/>
@@ -9429,7 +9432,7 @@
       <c r="AE242" s="9"/>
       <c r="AF242" s="9"/>
       <c r="AG242" s="8"/>
-      <c r="AH242" s="17"/>
+      <c r="AH242" s="13"/>
     </row>
     <row r="243" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A243" s="8"/>
@@ -9465,7 +9468,7 @@
       <c r="AE243" s="9"/>
       <c r="AF243" s="9"/>
       <c r="AG243" s="8"/>
-      <c r="AH243" s="17"/>
+      <c r="AH243" s="13"/>
     </row>
     <row r="244" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A244" s="8"/>
@@ -9501,7 +9504,7 @@
       <c r="AE244" s="9"/>
       <c r="AF244" s="9"/>
       <c r="AG244" s="8"/>
-      <c r="AH244" s="17"/>
+      <c r="AH244" s="13"/>
     </row>
     <row r="245" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A245" s="8"/>
@@ -9537,7 +9540,7 @@
       <c r="AE245" s="9"/>
       <c r="AF245" s="9"/>
       <c r="AG245" s="8"/>
-      <c r="AH245" s="17"/>
+      <c r="AH245" s="13"/>
     </row>
     <row r="246" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A246" s="8"/>
@@ -9573,7 +9576,7 @@
       <c r="AE246" s="9"/>
       <c r="AF246" s="9"/>
       <c r="AG246" s="8"/>
-      <c r="AH246" s="17"/>
+      <c r="AH246" s="13"/>
     </row>
     <row r="247" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A247" s="8"/>
@@ -9609,7 +9612,7 @@
       <c r="AE247" s="9"/>
       <c r="AF247" s="9"/>
       <c r="AG247" s="8"/>
-      <c r="AH247" s="17"/>
+      <c r="AH247" s="13"/>
     </row>
     <row r="248" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A248" s="8"/>
@@ -9645,7 +9648,7 @@
       <c r="AE248" s="9"/>
       <c r="AF248" s="9"/>
       <c r="AG248" s="8"/>
-      <c r="AH248" s="17"/>
+      <c r="AH248" s="13"/>
     </row>
     <row r="249" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A249" s="8"/>
@@ -9681,7 +9684,7 @@
       <c r="AE249" s="9"/>
       <c r="AF249" s="9"/>
       <c r="AG249" s="8"/>
-      <c r="AH249" s="17"/>
+      <c r="AH249" s="13"/>
     </row>
     <row r="250" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A250" s="8"/>
@@ -9717,7 +9720,7 @@
       <c r="AE250" s="9"/>
       <c r="AF250" s="9"/>
       <c r="AG250" s="8"/>
-      <c r="AH250" s="17"/>
+      <c r="AH250" s="13"/>
     </row>
     <row r="251" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A251" s="8"/>
@@ -9753,7 +9756,7 @@
       <c r="AE251" s="9"/>
       <c r="AF251" s="9"/>
       <c r="AG251" s="8"/>
-      <c r="AH251" s="17"/>
+      <c r="AH251" s="13"/>
     </row>
     <row r="252" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A252" s="8"/>
@@ -9789,7 +9792,7 @@
       <c r="AE252" s="9"/>
       <c r="AF252" s="9"/>
       <c r="AG252" s="8"/>
-      <c r="AH252" s="17"/>
+      <c r="AH252" s="13"/>
     </row>
     <row r="253" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A253" s="8"/>
@@ -9825,7 +9828,7 @@
       <c r="AE253" s="9"/>
       <c r="AF253" s="9"/>
       <c r="AG253" s="8"/>
-      <c r="AH253" s="17"/>
+      <c r="AH253" s="13"/>
     </row>
     <row r="254" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A254" s="8"/>
@@ -9861,7 +9864,7 @@
       <c r="AE254" s="9"/>
       <c r="AF254" s="9"/>
       <c r="AG254" s="8"/>
-      <c r="AH254" s="17"/>
+      <c r="AH254" s="13"/>
     </row>
     <row r="255" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A255" s="8"/>
@@ -9897,7 +9900,7 @@
       <c r="AE255" s="9"/>
       <c r="AF255" s="9"/>
       <c r="AG255" s="8"/>
-      <c r="AH255" s="17"/>
+      <c r="AH255" s="13"/>
     </row>
     <row r="256" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A256" s="8"/>
@@ -9933,7 +9936,7 @@
       <c r="AE256" s="9"/>
       <c r="AF256" s="9"/>
       <c r="AG256" s="8"/>
-      <c r="AH256" s="17"/>
+      <c r="AH256" s="13"/>
     </row>
     <row r="257" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A257" s="8"/>
@@ -9969,7 +9972,7 @@
       <c r="AE257" s="9"/>
       <c r="AF257" s="9"/>
       <c r="AG257" s="8"/>
-      <c r="AH257" s="17"/>
+      <c r="AH257" s="13"/>
     </row>
     <row r="258" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A258" s="8"/>
@@ -10005,7 +10008,7 @@
       <c r="AE258" s="9"/>
       <c r="AF258" s="9"/>
       <c r="AG258" s="8"/>
-      <c r="AH258" s="17"/>
+      <c r="AH258" s="13"/>
     </row>
     <row r="259" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A259" s="8"/>
@@ -10041,7 +10044,7 @@
       <c r="AE259" s="9"/>
       <c r="AF259" s="9"/>
       <c r="AG259" s="8"/>
-      <c r="AH259" s="17"/>
+      <c r="AH259" s="13"/>
     </row>
     <row r="260" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A260" s="8"/>
@@ -10077,7 +10080,7 @@
       <c r="AE260" s="9"/>
       <c r="AF260" s="9"/>
       <c r="AG260" s="8"/>
-      <c r="AH260" s="17"/>
+      <c r="AH260" s="13"/>
     </row>
     <row r="261" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A261" s="8"/>
@@ -10113,7 +10116,7 @@
       <c r="AE261" s="9"/>
       <c r="AF261" s="9"/>
       <c r="AG261" s="8"/>
-      <c r="AH261" s="17"/>
+      <c r="AH261" s="13"/>
     </row>
     <row r="262" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A262" s="8"/>
@@ -10149,7 +10152,7 @@
       <c r="AE262" s="9"/>
       <c r="AF262" s="9"/>
       <c r="AG262" s="8"/>
-      <c r="AH262" s="17"/>
+      <c r="AH262" s="13"/>
     </row>
     <row r="263" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A263" s="8"/>
@@ -10185,7 +10188,7 @@
       <c r="AE263" s="9"/>
       <c r="AF263" s="9"/>
       <c r="AG263" s="8"/>
-      <c r="AH263" s="17"/>
+      <c r="AH263" s="13"/>
     </row>
     <row r="264" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A264" s="8"/>
@@ -10221,7 +10224,7 @@
       <c r="AE264" s="9"/>
       <c r="AF264" s="9"/>
       <c r="AG264" s="8"/>
-      <c r="AH264" s="17"/>
+      <c r="AH264" s="13"/>
     </row>
     <row r="265" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A265" s="8"/>
@@ -10257,7 +10260,7 @@
       <c r="AE265" s="9"/>
       <c r="AF265" s="9"/>
       <c r="AG265" s="8"/>
-      <c r="AH265" s="17"/>
+      <c r="AH265" s="13"/>
     </row>
     <row r="266" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A266" s="8"/>
@@ -10293,7 +10296,7 @@
       <c r="AE266" s="9"/>
       <c r="AF266" s="9"/>
       <c r="AG266" s="8"/>
-      <c r="AH266" s="17"/>
+      <c r="AH266" s="13"/>
     </row>
     <row r="267" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A267" s="8"/>
@@ -10329,7 +10332,7 @@
       <c r="AE267" s="9"/>
       <c r="AF267" s="9"/>
       <c r="AG267" s="8"/>
-      <c r="AH267" s="17"/>
+      <c r="AH267" s="13"/>
     </row>
     <row r="268" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A268" s="8"/>
@@ -10365,7 +10368,7 @@
       <c r="AE268" s="9"/>
       <c r="AF268" s="9"/>
       <c r="AG268" s="8"/>
-      <c r="AH268" s="17"/>
+      <c r="AH268" s="13"/>
     </row>
     <row r="269" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A269" s="8"/>
@@ -10401,7 +10404,7 @@
       <c r="AE269" s="9"/>
       <c r="AF269" s="9"/>
       <c r="AG269" s="8"/>
-      <c r="AH269" s="17"/>
+      <c r="AH269" s="13"/>
     </row>
     <row r="270" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A270" s="8"/>
@@ -10437,7 +10440,7 @@
       <c r="AE270" s="9"/>
       <c r="AF270" s="9"/>
       <c r="AG270" s="8"/>
-      <c r="AH270" s="17"/>
+      <c r="AH270" s="13"/>
     </row>
     <row r="271" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A271" s="8"/>
@@ -10473,7 +10476,7 @@
       <c r="AE271" s="9"/>
       <c r="AF271" s="9"/>
       <c r="AG271" s="8"/>
-      <c r="AH271" s="17"/>
+      <c r="AH271" s="13"/>
     </row>
     <row r="272" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A272" s="8"/>
@@ -10509,7 +10512,7 @@
       <c r="AE272" s="9"/>
       <c r="AF272" s="9"/>
       <c r="AG272" s="8"/>
-      <c r="AH272" s="17"/>
+      <c r="AH272" s="13"/>
     </row>
     <row r="273" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A273" s="8"/>
@@ -10545,7 +10548,7 @@
       <c r="AE273" s="9"/>
       <c r="AF273" s="9"/>
       <c r="AG273" s="8"/>
-      <c r="AH273" s="17"/>
+      <c r="AH273" s="13"/>
     </row>
     <row r="274" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A274" s="8"/>
@@ -10581,7 +10584,7 @@
       <c r="AE274" s="9"/>
       <c r="AF274" s="9"/>
       <c r="AG274" s="8"/>
-      <c r="AH274" s="17"/>
+      <c r="AH274" s="13"/>
     </row>
     <row r="275" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A275" s="8"/>
@@ -10617,7 +10620,7 @@
       <c r="AE275" s="9"/>
       <c r="AF275" s="9"/>
       <c r="AG275" s="8"/>
-      <c r="AH275" s="17"/>
+      <c r="AH275" s="13"/>
     </row>
     <row r="276" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A276" s="8"/>
@@ -10653,7 +10656,7 @@
       <c r="AE276" s="9"/>
       <c r="AF276" s="9"/>
       <c r="AG276" s="8"/>
-      <c r="AH276" s="17"/>
+      <c r="AH276" s="13"/>
     </row>
     <row r="277" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A277" s="8"/>
@@ -10689,7 +10692,7 @@
       <c r="AE277" s="9"/>
       <c r="AF277" s="9"/>
       <c r="AG277" s="8"/>
-      <c r="AH277" s="17"/>
+      <c r="AH277" s="13"/>
     </row>
     <row r="278" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A278" s="8"/>
@@ -10725,7 +10728,7 @@
       <c r="AE278" s="9"/>
       <c r="AF278" s="9"/>
       <c r="AG278" s="8"/>
-      <c r="AH278" s="17"/>
+      <c r="AH278" s="13"/>
     </row>
     <row r="279" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A279" s="8"/>
@@ -10761,7 +10764,7 @@
       <c r="AE279" s="9"/>
       <c r="AF279" s="9"/>
       <c r="AG279" s="8"/>
-      <c r="AH279" s="17"/>
+      <c r="AH279" s="13"/>
     </row>
     <row r="280" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A280" s="8"/>
@@ -10797,7 +10800,7 @@
       <c r="AE280" s="9"/>
       <c r="AF280" s="9"/>
       <c r="AG280" s="8"/>
-      <c r="AH280" s="17"/>
+      <c r="AH280" s="13"/>
     </row>
     <row r="281" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A281" s="8"/>
@@ -10833,7 +10836,7 @@
       <c r="AE281" s="9"/>
       <c r="AF281" s="9"/>
       <c r="AG281" s="8"/>
-      <c r="AH281" s="17"/>
+      <c r="AH281" s="13"/>
     </row>
     <row r="282" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A282" s="8"/>
@@ -10869,7 +10872,7 @@
       <c r="AE282" s="9"/>
       <c r="AF282" s="9"/>
       <c r="AG282" s="8"/>
-      <c r="AH282" s="17"/>
+      <c r="AH282" s="13"/>
     </row>
     <row r="283" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A283" s="8"/>
@@ -10905,7 +10908,7 @@
       <c r="AE283" s="9"/>
       <c r="AF283" s="9"/>
       <c r="AG283" s="8"/>
-      <c r="AH283" s="17"/>
+      <c r="AH283" s="13"/>
     </row>
     <row r="284" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A284" s="8"/>
@@ -10941,7 +10944,7 @@
       <c r="AE284" s="9"/>
       <c r="AF284" s="9"/>
       <c r="AG284" s="8"/>
-      <c r="AH284" s="17"/>
+      <c r="AH284" s="13"/>
     </row>
     <row r="285" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A285" s="8"/>
@@ -10977,7 +10980,7 @@
       <c r="AE285" s="9"/>
       <c r="AF285" s="9"/>
       <c r="AG285" s="8"/>
-      <c r="AH285" s="17"/>
+      <c r="AH285" s="13"/>
     </row>
     <row r="286" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A286" s="8"/>
@@ -11013,7 +11016,7 @@
       <c r="AE286" s="9"/>
       <c r="AF286" s="9"/>
       <c r="AG286" s="8"/>
-      <c r="AH286" s="17"/>
+      <c r="AH286" s="13"/>
     </row>
     <row r="287" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A287" s="8"/>
@@ -11049,7 +11052,7 @@
       <c r="AE287" s="9"/>
       <c r="AF287" s="9"/>
       <c r="AG287" s="8"/>
-      <c r="AH287" s="17"/>
+      <c r="AH287" s="13"/>
     </row>
     <row r="288" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A288" s="8"/>
@@ -11085,7 +11088,7 @@
       <c r="AE288" s="9"/>
       <c r="AF288" s="9"/>
       <c r="AG288" s="8"/>
-      <c r="AH288" s="17"/>
+      <c r="AH288" s="13"/>
     </row>
     <row r="289" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A289" s="8"/>
@@ -11121,7 +11124,7 @@
       <c r="AE289" s="9"/>
       <c r="AF289" s="9"/>
       <c r="AG289" s="8"/>
-      <c r="AH289" s="17"/>
+      <c r="AH289" s="13"/>
     </row>
     <row r="290" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A290" s="8"/>
@@ -11157,7 +11160,7 @@
       <c r="AE290" s="9"/>
       <c r="AF290" s="9"/>
       <c r="AG290" s="8"/>
-      <c r="AH290" s="17"/>
+      <c r="AH290" s="13"/>
     </row>
     <row r="291" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A291" s="8"/>
@@ -11193,7 +11196,7 @@
       <c r="AE291" s="9"/>
       <c r="AF291" s="9"/>
       <c r="AG291" s="8"/>
-      <c r="AH291" s="17"/>
+      <c r="AH291" s="13"/>
     </row>
     <row r="292" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A292" s="8"/>
@@ -11229,7 +11232,7 @@
       <c r="AE292" s="9"/>
       <c r="AF292" s="9"/>
       <c r="AG292" s="8"/>
-      <c r="AH292" s="17"/>
+      <c r="AH292" s="13"/>
     </row>
     <row r="293" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A293" s="8"/>
@@ -11265,7 +11268,7 @@
       <c r="AE293" s="9"/>
       <c r="AF293" s="9"/>
       <c r="AG293" s="8"/>
-      <c r="AH293" s="17"/>
+      <c r="AH293" s="13"/>
     </row>
     <row r="294" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A294" s="8"/>
@@ -11301,7 +11304,7 @@
       <c r="AE294" s="9"/>
       <c r="AF294" s="9"/>
       <c r="AG294" s="8"/>
-      <c r="AH294" s="17"/>
+      <c r="AH294" s="13"/>
     </row>
     <row r="295" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A295" s="8"/>
@@ -11337,7 +11340,7 @@
       <c r="AE295" s="9"/>
       <c r="AF295" s="9"/>
       <c r="AG295" s="8"/>
-      <c r="AH295" s="17"/>
+      <c r="AH295" s="13"/>
     </row>
     <row r="296" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A296" s="8"/>
@@ -11373,7 +11376,7 @@
       <c r="AE296" s="9"/>
       <c r="AF296" s="9"/>
       <c r="AG296" s="8"/>
-      <c r="AH296" s="17"/>
+      <c r="AH296" s="13"/>
     </row>
     <row r="297" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A297" s="8"/>
@@ -11409,7 +11412,7 @@
       <c r="AE297" s="9"/>
       <c r="AF297" s="9"/>
       <c r="AG297" s="8"/>
-      <c r="AH297" s="17"/>
+      <c r="AH297" s="13"/>
     </row>
     <row r="298" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A298" s="8"/>
@@ -11445,7 +11448,7 @@
       <c r="AE298" s="9"/>
       <c r="AF298" s="9"/>
       <c r="AG298" s="8"/>
-      <c r="AH298" s="17"/>
+      <c r="AH298" s="13"/>
     </row>
     <row r="299" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A299" s="8"/>
@@ -11481,7 +11484,7 @@
       <c r="AE299" s="9"/>
       <c r="AF299" s="9"/>
       <c r="AG299" s="8"/>
-      <c r="AH299" s="17"/>
+      <c r="AH299" s="13"/>
     </row>
     <row r="300" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A300" s="8"/>
@@ -11517,7 +11520,7 @@
       <c r="AE300" s="9"/>
       <c r="AF300" s="9"/>
       <c r="AG300" s="8"/>
-      <c r="AH300" s="17"/>
+      <c r="AH300" s="13"/>
     </row>
     <row r="301" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A301" s="8"/>
@@ -11553,7 +11556,7 @@
       <c r="AE301" s="9"/>
       <c r="AF301" s="9"/>
       <c r="AG301" s="8"/>
-      <c r="AH301" s="17"/>
+      <c r="AH301" s="13"/>
     </row>
     <row r="302" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A302" s="8"/>
@@ -11589,7 +11592,7 @@
       <c r="AE302" s="9"/>
       <c r="AF302" s="9"/>
       <c r="AG302" s="8"/>
-      <c r="AH302" s="17"/>
+      <c r="AH302" s="13"/>
     </row>
     <row r="303" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A303" s="8"/>
@@ -11625,7 +11628,7 @@
       <c r="AE303" s="9"/>
       <c r="AF303" s="9"/>
       <c r="AG303" s="8"/>
-      <c r="AH303" s="17"/>
+      <c r="AH303" s="13"/>
     </row>
     <row r="304" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A304" s="8"/>
@@ -11661,7 +11664,7 @@
       <c r="AE304" s="9"/>
       <c r="AF304" s="9"/>
       <c r="AG304" s="8"/>
-      <c r="AH304" s="17"/>
+      <c r="AH304" s="13"/>
     </row>
     <row r="305" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A305" s="8"/>
@@ -11697,7 +11700,7 @@
       <c r="AE305" s="9"/>
       <c r="AF305" s="9"/>
       <c r="AG305" s="8"/>
-      <c r="AH305" s="17"/>
+      <c r="AH305" s="13"/>
     </row>
     <row r="306" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A306" s="8"/>
@@ -11733,7 +11736,7 @@
       <c r="AE306" s="9"/>
       <c r="AF306" s="9"/>
       <c r="AG306" s="8"/>
-      <c r="AH306" s="17"/>
+      <c r="AH306" s="13"/>
     </row>
     <row r="307" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A307" s="8"/>
@@ -11769,7 +11772,7 @@
       <c r="AE307" s="9"/>
       <c r="AF307" s="9"/>
       <c r="AG307" s="8"/>
-      <c r="AH307" s="17"/>
+      <c r="AH307" s="13"/>
     </row>
     <row r="308" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A308" s="8"/>
@@ -11805,7 +11808,7 @@
       <c r="AE308" s="9"/>
       <c r="AF308" s="9"/>
       <c r="AG308" s="8"/>
-      <c r="AH308" s="17"/>
+      <c r="AH308" s="13"/>
     </row>
     <row r="309" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A309" s="8"/>
@@ -11841,7 +11844,7 @@
       <c r="AE309" s="9"/>
       <c r="AF309" s="9"/>
       <c r="AG309" s="8"/>
-      <c r="AH309" s="17"/>
+      <c r="AH309" s="13"/>
     </row>
     <row r="310" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A310" s="8"/>
@@ -11877,7 +11880,7 @@
       <c r="AE310" s="9"/>
       <c r="AF310" s="9"/>
       <c r="AG310" s="8"/>
-      <c r="AH310" s="17"/>
+      <c r="AH310" s="13"/>
     </row>
     <row r="311" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A311" s="8"/>
@@ -11913,7 +11916,7 @@
       <c r="AE311" s="9"/>
       <c r="AF311" s="9"/>
       <c r="AG311" s="8"/>
-      <c r="AH311" s="17"/>
+      <c r="AH311" s="13"/>
     </row>
     <row r="312" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A312" s="8"/>
@@ -11949,7 +11952,7 @@
       <c r="AE312" s="9"/>
       <c r="AF312" s="9"/>
       <c r="AG312" s="8"/>
-      <c r="AH312" s="17"/>
+      <c r="AH312" s="13"/>
     </row>
     <row r="313" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A313" s="8"/>
@@ -11985,7 +11988,7 @@
       <c r="AE313" s="9"/>
       <c r="AF313" s="9"/>
       <c r="AG313" s="8"/>
-      <c r="AH313" s="17"/>
+      <c r="AH313" s="13"/>
     </row>
     <row r="314" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A314" s="8"/>
@@ -12021,7 +12024,7 @@
       <c r="AE314" s="9"/>
       <c r="AF314" s="9"/>
       <c r="AG314" s="8"/>
-      <c r="AH314" s="17"/>
+      <c r="AH314" s="13"/>
     </row>
     <row r="315" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A315" s="8"/>
@@ -12057,7 +12060,7 @@
       <c r="AE315" s="9"/>
       <c r="AF315" s="9"/>
       <c r="AG315" s="8"/>
-      <c r="AH315" s="17"/>
+      <c r="AH315" s="13"/>
     </row>
     <row r="316" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A316" s="8"/>
@@ -12093,7 +12096,7 @@
       <c r="AE316" s="9"/>
       <c r="AF316" s="9"/>
       <c r="AG316" s="8"/>
-      <c r="AH316" s="17"/>
+      <c r="AH316" s="13"/>
     </row>
     <row r="317" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A317" s="8"/>
@@ -12129,7 +12132,7 @@
       <c r="AE317" s="9"/>
       <c r="AF317" s="9"/>
       <c r="AG317" s="8"/>
-      <c r="AH317" s="17"/>
+      <c r="AH317" s="13"/>
     </row>
     <row r="318" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A318" s="8"/>
@@ -12165,7 +12168,7 @@
       <c r="AE318" s="9"/>
       <c r="AF318" s="9"/>
       <c r="AG318" s="8"/>
-      <c r="AH318" s="17"/>
+      <c r="AH318" s="13"/>
     </row>
     <row r="319" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A319" s="8"/>
@@ -12201,7 +12204,7 @@
       <c r="AE319" s="9"/>
       <c r="AF319" s="9"/>
       <c r="AG319" s="8"/>
-      <c r="AH319" s="17"/>
+      <c r="AH319" s="13"/>
     </row>
     <row r="320" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A320" s="8"/>
@@ -12237,7 +12240,7 @@
       <c r="AE320" s="9"/>
       <c r="AF320" s="9"/>
       <c r="AG320" s="8"/>
-      <c r="AH320" s="17"/>
+      <c r="AH320" s="13"/>
     </row>
     <row r="321" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A321" s="8"/>
@@ -12273,7 +12276,7 @@
       <c r="AE321" s="9"/>
       <c r="AF321" s="9"/>
       <c r="AG321" s="8"/>
-      <c r="AH321" s="17"/>
+      <c r="AH321" s="13"/>
     </row>
     <row r="322" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A322" s="8"/>
@@ -12309,7 +12312,7 @@
       <c r="AE322" s="9"/>
       <c r="AF322" s="9"/>
       <c r="AG322" s="8"/>
-      <c r="AH322" s="17"/>
+      <c r="AH322" s="13"/>
     </row>
     <row r="323" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A323" s="8"/>
@@ -12345,7 +12348,7 @@
       <c r="AE323" s="9"/>
       <c r="AF323" s="9"/>
       <c r="AG323" s="8"/>
-      <c r="AH323" s="17"/>
+      <c r="AH323" s="13"/>
     </row>
     <row r="324" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A324" s="8"/>
@@ -12381,7 +12384,7 @@
       <c r="AE324" s="9"/>
       <c r="AF324" s="9"/>
       <c r="AG324" s="8"/>
-      <c r="AH324" s="17"/>
+      <c r="AH324" s="13"/>
     </row>
     <row r="325" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A325" s="8"/>
@@ -12417,7 +12420,7 @@
       <c r="AE325" s="9"/>
       <c r="AF325" s="9"/>
       <c r="AG325" s="8"/>
-      <c r="AH325" s="17"/>
+      <c r="AH325" s="13"/>
     </row>
     <row r="326" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A326" s="8"/>
@@ -12453,7 +12456,7 @@
       <c r="AE326" s="9"/>
       <c r="AF326" s="9"/>
       <c r="AG326" s="8"/>
-      <c r="AH326" s="17"/>
+      <c r="AH326" s="13"/>
     </row>
     <row r="327" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A327" s="8"/>
@@ -12489,7 +12492,7 @@
       <c r="AE327" s="9"/>
       <c r="AF327" s="9"/>
       <c r="AG327" s="8"/>
-      <c r="AH327" s="17"/>
+      <c r="AH327" s="13"/>
     </row>
     <row r="328" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A328" s="8"/>
@@ -12525,7 +12528,7 @@
       <c r="AE328" s="9"/>
       <c r="AF328" s="9"/>
       <c r="AG328" s="8"/>
-      <c r="AH328" s="17"/>
+      <c r="AH328" s="13"/>
     </row>
     <row r="329" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A329" s="8"/>
@@ -12561,7 +12564,7 @@
       <c r="AE329" s="9"/>
       <c r="AF329" s="9"/>
       <c r="AG329" s="8"/>
-      <c r="AH329" s="17"/>
+      <c r="AH329" s="13"/>
     </row>
     <row r="330" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A330" s="8"/>
@@ -12597,7 +12600,7 @@
       <c r="AE330" s="9"/>
       <c r="AF330" s="9"/>
       <c r="AG330" s="8"/>
-      <c r="AH330" s="17"/>
+      <c r="AH330" s="13"/>
     </row>
     <row r="331" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A331" s="8"/>
@@ -12633,7 +12636,7 @@
       <c r="AE331" s="9"/>
       <c r="AF331" s="9"/>
       <c r="AG331" s="8"/>
-      <c r="AH331" s="17"/>
+      <c r="AH331" s="13"/>
     </row>
     <row r="332" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A332" s="8"/>
@@ -12669,7 +12672,7 @@
       <c r="AE332" s="9"/>
       <c r="AF332" s="9"/>
       <c r="AG332" s="8"/>
-      <c r="AH332" s="17"/>
+      <c r="AH332" s="13"/>
     </row>
     <row r="333" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A333" s="8"/>
@@ -12705,7 +12708,7 @@
       <c r="AE333" s="9"/>
       <c r="AF333" s="9"/>
       <c r="AG333" s="8"/>
-      <c r="AH333" s="17"/>
+      <c r="AH333" s="13"/>
     </row>
     <row r="334" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A334" s="8"/>
@@ -12741,7 +12744,7 @@
       <c r="AE334" s="9"/>
       <c r="AF334" s="9"/>
       <c r="AG334" s="8"/>
-      <c r="AH334" s="17"/>
+      <c r="AH334" s="13"/>
     </row>
     <row r="335" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A335" s="8"/>
@@ -12777,7 +12780,7 @@
       <c r="AE335" s="9"/>
       <c r="AF335" s="9"/>
       <c r="AG335" s="8"/>
-      <c r="AH335" s="17"/>
+      <c r="AH335" s="13"/>
     </row>
     <row r="336" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A336" s="8"/>
@@ -12813,7 +12816,7 @@
       <c r="AE336" s="9"/>
       <c r="AF336" s="9"/>
       <c r="AG336" s="8"/>
-      <c r="AH336" s="17"/>
+      <c r="AH336" s="13"/>
     </row>
     <row r="337" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A337" s="8"/>
@@ -12849,7 +12852,7 @@
       <c r="AE337" s="9"/>
       <c r="AF337" s="9"/>
       <c r="AG337" s="8"/>
-      <c r="AH337" s="17"/>
+      <c r="AH337" s="13"/>
     </row>
     <row r="338" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A338" s="8"/>
@@ -12885,7 +12888,7 @@
       <c r="AE338" s="9"/>
       <c r="AF338" s="9"/>
       <c r="AG338" s="8"/>
-      <c r="AH338" s="17"/>
+      <c r="AH338" s="13"/>
     </row>
     <row r="339" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A339" s="8"/>
@@ -12921,7 +12924,7 @@
       <c r="AE339" s="9"/>
       <c r="AF339" s="9"/>
       <c r="AG339" s="8"/>
-      <c r="AH339" s="17"/>
+      <c r="AH339" s="13"/>
     </row>
     <row r="340" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A340" s="8"/>
@@ -12957,7 +12960,7 @@
       <c r="AE340" s="9"/>
       <c r="AF340" s="9"/>
       <c r="AG340" s="8"/>
-      <c r="AH340" s="17"/>
+      <c r="AH340" s="13"/>
     </row>
     <row r="341" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A341" s="8"/>
@@ -12993,7 +12996,7 @@
       <c r="AE341" s="9"/>
       <c r="AF341" s="9"/>
       <c r="AG341" s="8"/>
-      <c r="AH341" s="17"/>
+      <c r="AH341" s="13"/>
     </row>
     <row r="342" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A342" s="8"/>
@@ -13029,7 +13032,7 @@
       <c r="AE342" s="9"/>
       <c r="AF342" s="9"/>
       <c r="AG342" s="8"/>
-      <c r="AH342" s="17"/>
+      <c r="AH342" s="13"/>
     </row>
     <row r="343" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A343" s="8"/>
@@ -13065,7 +13068,7 @@
       <c r="AE343" s="9"/>
       <c r="AF343" s="9"/>
       <c r="AG343" s="8"/>
-      <c r="AH343" s="17"/>
+      <c r="AH343" s="13"/>
     </row>
     <row r="344" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A344" s="8"/>
@@ -13101,7 +13104,7 @@
       <c r="AE344" s="9"/>
       <c r="AF344" s="9"/>
       <c r="AG344" s="8"/>
-      <c r="AH344" s="17"/>
+      <c r="AH344" s="13"/>
     </row>
     <row r="345" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A345" s="8"/>
@@ -13137,7 +13140,7 @@
       <c r="AE345" s="9"/>
       <c r="AF345" s="9"/>
       <c r="AG345" s="8"/>
-      <c r="AH345" s="17"/>
+      <c r="AH345" s="13"/>
     </row>
     <row r="346" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A346" s="8"/>
@@ -13173,7 +13176,7 @@
       <c r="AE346" s="9"/>
       <c r="AF346" s="9"/>
       <c r="AG346" s="8"/>
-      <c r="AH346" s="17"/>
+      <c r="AH346" s="13"/>
     </row>
     <row r="347" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A347" s="8"/>
@@ -13209,7 +13212,7 @@
       <c r="AE347" s="9"/>
       <c r="AF347" s="9"/>
       <c r="AG347" s="8"/>
-      <c r="AH347" s="17"/>
+      <c r="AH347" s="13"/>
     </row>
     <row r="348" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A348" s="8"/>
@@ -13245,7 +13248,7 @@
       <c r="AE348" s="9"/>
       <c r="AF348" s="9"/>
       <c r="AG348" s="8"/>
-      <c r="AH348" s="17"/>
+      <c r="AH348" s="13"/>
     </row>
     <row r="349" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A349" s="8"/>
@@ -13281,7 +13284,7 @@
       <c r="AE349" s="9"/>
       <c r="AF349" s="9"/>
       <c r="AG349" s="8"/>
-      <c r="AH349" s="17"/>
+      <c r="AH349" s="13"/>
     </row>
     <row r="350" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A350" s="8"/>
@@ -13317,7 +13320,7 @@
       <c r="AE350" s="9"/>
       <c r="AF350" s="9"/>
       <c r="AG350" s="8"/>
-      <c r="AH350" s="17"/>
+      <c r="AH350" s="13"/>
     </row>
     <row r="351" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A351" s="8"/>
@@ -13353,7 +13356,7 @@
       <c r="AE351" s="9"/>
       <c r="AF351" s="9"/>
       <c r="AG351" s="8"/>
-      <c r="AH351" s="17"/>
+      <c r="AH351" s="13"/>
     </row>
     <row r="352" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A352" s="8"/>
@@ -13389,7 +13392,7 @@
       <c r="AE352" s="9"/>
       <c r="AF352" s="9"/>
       <c r="AG352" s="8"/>
-      <c r="AH352" s="17"/>
+      <c r="AH352" s="13"/>
     </row>
     <row r="353" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A353" s="8"/>
@@ -13425,7 +13428,7 @@
       <c r="AE353" s="9"/>
       <c r="AF353" s="9"/>
       <c r="AG353" s="8"/>
-      <c r="AH353" s="17"/>
+      <c r="AH353" s="13"/>
     </row>
     <row r="354" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A354" s="8"/>
@@ -13461,7 +13464,7 @@
       <c r="AE354" s="9"/>
       <c r="AF354" s="9"/>
       <c r="AG354" s="8"/>
-      <c r="AH354" s="17"/>
+      <c r="AH354" s="13"/>
     </row>
     <row r="355" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A355" s="8"/>
@@ -13497,7 +13500,7 @@
       <c r="AE355" s="9"/>
       <c r="AF355" s="9"/>
       <c r="AG355" s="8"/>
-      <c r="AH355" s="17"/>
+      <c r="AH355" s="13"/>
     </row>
     <row r="356" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A356" s="8"/>
@@ -13533,7 +13536,7 @@
       <c r="AE356" s="9"/>
       <c r="AF356" s="9"/>
       <c r="AG356" s="8"/>
-      <c r="AH356" s="17"/>
+      <c r="AH356" s="13"/>
     </row>
     <row r="357" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A357" s="8"/>
@@ -13569,7 +13572,7 @@
       <c r="AE357" s="9"/>
       <c r="AF357" s="9"/>
       <c r="AG357" s="8"/>
-      <c r="AH357" s="17"/>
+      <c r="AH357" s="13"/>
     </row>
     <row r="358" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A358" s="8"/>
@@ -13605,7 +13608,7 @@
       <c r="AE358" s="9"/>
       <c r="AF358" s="9"/>
       <c r="AG358" s="8"/>
-      <c r="AH358" s="17"/>
+      <c r="AH358" s="13"/>
     </row>
     <row r="359" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A359" s="8"/>
@@ -13641,7 +13644,7 @@
       <c r="AE359" s="9"/>
       <c r="AF359" s="9"/>
       <c r="AG359" s="8"/>
-      <c r="AH359" s="17"/>
+      <c r="AH359" s="13"/>
     </row>
     <row r="360" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A360" s="8"/>
@@ -13677,7 +13680,7 @@
       <c r="AE360" s="9"/>
       <c r="AF360" s="9"/>
       <c r="AG360" s="8"/>
-      <c r="AH360" s="17"/>
+      <c r="AH360" s="13"/>
     </row>
     <row r="361" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A361" s="8"/>
@@ -13713,7 +13716,7 @@
       <c r="AE361" s="9"/>
       <c r="AF361" s="9"/>
       <c r="AG361" s="8"/>
-      <c r="AH361" s="17"/>
+      <c r="AH361" s="13"/>
     </row>
     <row r="362" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A362" s="8"/>
@@ -13749,7 +13752,7 @@
       <c r="AE362" s="9"/>
       <c r="AF362" s="9"/>
       <c r="AG362" s="8"/>
-      <c r="AH362" s="17"/>
+      <c r="AH362" s="13"/>
     </row>
     <row r="363" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A363" s="8"/>
@@ -13785,7 +13788,7 @@
       <c r="AE363" s="9"/>
       <c r="AF363" s="9"/>
       <c r="AG363" s="8"/>
-      <c r="AH363" s="17"/>
+      <c r="AH363" s="13"/>
     </row>
     <row r="364" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A364" s="8"/>
@@ -13821,7 +13824,7 @@
       <c r="AE364" s="9"/>
       <c r="AF364" s="9"/>
       <c r="AG364" s="8"/>
-      <c r="AH364" s="17"/>
+      <c r="AH364" s="13"/>
     </row>
     <row r="365" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A365" s="8"/>
@@ -13857,7 +13860,7 @@
       <c r="AE365" s="9"/>
       <c r="AF365" s="9"/>
       <c r="AG365" s="8"/>
-      <c r="AH365" s="17"/>
+      <c r="AH365" s="13"/>
     </row>
     <row r="366" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A366" s="8"/>
@@ -13893,7 +13896,7 @@
       <c r="AE366" s="9"/>
       <c r="AF366" s="9"/>
       <c r="AG366" s="8"/>
-      <c r="AH366" s="17"/>
+      <c r="AH366" s="13"/>
     </row>
     <row r="367" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A367" s="8"/>
@@ -13929,7 +13932,7 @@
       <c r="AE367" s="9"/>
       <c r="AF367" s="9"/>
       <c r="AG367" s="8"/>
-      <c r="AH367" s="17"/>
+      <c r="AH367" s="13"/>
     </row>
     <row r="368" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A368" s="8"/>
@@ -13965,7 +13968,7 @@
       <c r="AE368" s="9"/>
       <c r="AF368" s="9"/>
       <c r="AG368" s="8"/>
-      <c r="AH368" s="17"/>
+      <c r="AH368" s="13"/>
     </row>
     <row r="369" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A369" s="8"/>
@@ -14001,7 +14004,7 @@
       <c r="AE369" s="9"/>
       <c r="AF369" s="9"/>
       <c r="AG369" s="8"/>
-      <c r="AH369" s="17"/>
+      <c r="AH369" s="13"/>
     </row>
     <row r="370" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A370" s="8"/>
@@ -14037,7 +14040,7 @@
       <c r="AE370" s="9"/>
       <c r="AF370" s="9"/>
       <c r="AG370" s="8"/>
-      <c r="AH370" s="17"/>
+      <c r="AH370" s="13"/>
     </row>
     <row r="371" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A371" s="8"/>
@@ -14073,7 +14076,7 @@
       <c r="AE371" s="9"/>
       <c r="AF371" s="9"/>
       <c r="AG371" s="8"/>
-      <c r="AH371" s="17"/>
+      <c r="AH371" s="13"/>
     </row>
     <row r="372" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A372" s="8"/>
@@ -14109,7 +14112,7 @@
       <c r="AE372" s="9"/>
       <c r="AF372" s="9"/>
       <c r="AG372" s="8"/>
-      <c r="AH372" s="17"/>
+      <c r="AH372" s="13"/>
     </row>
     <row r="373" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A373" s="8"/>
@@ -14145,7 +14148,7 @@
       <c r="AE373" s="9"/>
       <c r="AF373" s="9"/>
       <c r="AG373" s="8"/>
-      <c r="AH373" s="17"/>
+      <c r="AH373" s="13"/>
     </row>
     <row r="374" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A374" s="8"/>
@@ -14181,7 +14184,7 @@
       <c r="AE374" s="9"/>
       <c r="AF374" s="9"/>
       <c r="AG374" s="8"/>
-      <c r="AH374" s="17"/>
+      <c r="AH374" s="13"/>
     </row>
     <row r="375" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A375" s="8"/>
@@ -14217,7 +14220,7 @@
       <c r="AE375" s="9"/>
       <c r="AF375" s="9"/>
       <c r="AG375" s="8"/>
-      <c r="AH375" s="17"/>
+      <c r="AH375" s="13"/>
     </row>
     <row r="376" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A376" s="8"/>
@@ -14253,7 +14256,7 @@
       <c r="AE376" s="9"/>
       <c r="AF376" s="9"/>
       <c r="AG376" s="8"/>
-      <c r="AH376" s="17"/>
+      <c r="AH376" s="13"/>
     </row>
     <row r="377" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A377" s="8"/>
@@ -14289,7 +14292,7 @@
       <c r="AE377" s="9"/>
       <c r="AF377" s="9"/>
       <c r="AG377" s="8"/>
-      <c r="AH377" s="17"/>
+      <c r="AH377" s="13"/>
     </row>
     <row r="378" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A378" s="8"/>
@@ -14325,7 +14328,7 @@
       <c r="AE378" s="9"/>
       <c r="AF378" s="9"/>
       <c r="AG378" s="8"/>
-      <c r="AH378" s="17"/>
+      <c r="AH378" s="13"/>
     </row>
     <row r="379" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A379" s="8"/>
@@ -14361,7 +14364,7 @@
       <c r="AE379" s="9"/>
       <c r="AF379" s="9"/>
       <c r="AG379" s="8"/>
-      <c r="AH379" s="17"/>
+      <c r="AH379" s="13"/>
     </row>
     <row r="380" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A380" s="8"/>
@@ -14397,7 +14400,7 @@
       <c r="AE380" s="9"/>
       <c r="AF380" s="9"/>
       <c r="AG380" s="8"/>
-      <c r="AH380" s="17"/>
+      <c r="AH380" s="13"/>
     </row>
     <row r="381" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A381" s="8"/>
@@ -14433,7 +14436,7 @@
       <c r="AE381" s="9"/>
       <c r="AF381" s="9"/>
       <c r="AG381" s="8"/>
-      <c r="AH381" s="17"/>
+      <c r="AH381" s="13"/>
     </row>
     <row r="382" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A382" s="8"/>
@@ -14469,7 +14472,7 @@
       <c r="AE382" s="9"/>
       <c r="AF382" s="9"/>
       <c r="AG382" s="8"/>
-      <c r="AH382" s="17"/>
+      <c r="AH382" s="13"/>
     </row>
     <row r="383" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A383" s="8"/>
@@ -14505,7 +14508,7 @@
       <c r="AE383" s="9"/>
       <c r="AF383" s="9"/>
       <c r="AG383" s="8"/>
-      <c r="AH383" s="17"/>
+      <c r="AH383" s="13"/>
     </row>
     <row r="384" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A384" s="8"/>
@@ -14541,7 +14544,7 @@
       <c r="AE384" s="9"/>
       <c r="AF384" s="9"/>
       <c r="AG384" s="8"/>
-      <c r="AH384" s="17"/>
+      <c r="AH384" s="13"/>
     </row>
     <row r="385" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A385" s="8"/>
@@ -14577,7 +14580,7 @@
       <c r="AE385" s="9"/>
       <c r="AF385" s="9"/>
       <c r="AG385" s="8"/>
-      <c r="AH385" s="17"/>
+      <c r="AH385" s="13"/>
     </row>
     <row r="386" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A386" s="8"/>
@@ -14613,7 +14616,7 @@
       <c r="AE386" s="9"/>
       <c r="AF386" s="9"/>
       <c r="AG386" s="8"/>
-      <c r="AH386" s="17"/>
+      <c r="AH386" s="13"/>
     </row>
     <row r="387" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A387" s="8"/>
@@ -14649,7 +14652,7 @@
       <c r="AE387" s="9"/>
       <c r="AF387" s="9"/>
       <c r="AG387" s="8"/>
-      <c r="AH387" s="17"/>
+      <c r="AH387" s="13"/>
     </row>
     <row r="388" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A388" s="8"/>
@@ -14685,7 +14688,7 @@
       <c r="AE388" s="9"/>
       <c r="AF388" s="9"/>
       <c r="AG388" s="8"/>
-      <c r="AH388" s="17"/>
+      <c r="AH388" s="13"/>
     </row>
     <row r="389" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A389" s="8"/>
@@ -14721,7 +14724,7 @@
       <c r="AE389" s="9"/>
       <c r="AF389" s="9"/>
       <c r="AG389" s="8"/>
-      <c r="AH389" s="17"/>
+      <c r="AH389" s="13"/>
     </row>
     <row r="390" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A390" s="8"/>
@@ -14757,7 +14760,7 @@
       <c r="AE390" s="9"/>
       <c r="AF390" s="9"/>
       <c r="AG390" s="8"/>
-      <c r="AH390" s="17"/>
+      <c r="AH390" s="13"/>
     </row>
     <row r="391" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A391" s="8"/>
@@ -14793,7 +14796,7 @@
       <c r="AE391" s="9"/>
       <c r="AF391" s="9"/>
       <c r="AG391" s="8"/>
-      <c r="AH391" s="17"/>
+      <c r="AH391" s="13"/>
     </row>
     <row r="392" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A392" s="8"/>
@@ -14829,7 +14832,7 @@
       <c r="AE392" s="9"/>
       <c r="AF392" s="9"/>
       <c r="AG392" s="8"/>
-      <c r="AH392" s="17"/>
+      <c r="AH392" s="13"/>
     </row>
     <row r="393" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A393" s="8"/>
@@ -14865,7 +14868,7 @@
       <c r="AE393" s="9"/>
       <c r="AF393" s="9"/>
       <c r="AG393" s="8"/>
-      <c r="AH393" s="17"/>
+      <c r="AH393" s="13"/>
     </row>
     <row r="394" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A394" s="8"/>
@@ -14901,7 +14904,7 @@
       <c r="AE394" s="9"/>
       <c r="AF394" s="9"/>
       <c r="AG394" s="8"/>
-      <c r="AH394" s="17"/>
+      <c r="AH394" s="13"/>
     </row>
     <row r="395" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A395" s="8"/>
@@ -14937,7 +14940,7 @@
       <c r="AE395" s="9"/>
       <c r="AF395" s="9"/>
       <c r="AG395" s="8"/>
-      <c r="AH395" s="17"/>
+      <c r="AH395" s="13"/>
     </row>
     <row r="396" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A396" s="8"/>
@@ -14973,7 +14976,7 @@
       <c r="AE396" s="9"/>
       <c r="AF396" s="9"/>
       <c r="AG396" s="8"/>
-      <c r="AH396" s="17"/>
+      <c r="AH396" s="13"/>
     </row>
     <row r="397" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A397" s="8"/>
@@ -15009,7 +15012,7 @@
       <c r="AE397" s="9"/>
       <c r="AF397" s="9"/>
       <c r="AG397" s="8"/>
-      <c r="AH397" s="17"/>
+      <c r="AH397" s="13"/>
     </row>
     <row r="398" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A398" s="8"/>
@@ -15045,7 +15048,7 @@
       <c r="AE398" s="9"/>
       <c r="AF398" s="9"/>
       <c r="AG398" s="8"/>
-      <c r="AH398" s="17"/>
+      <c r="AH398" s="13"/>
     </row>
     <row r="399" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A399" s="8"/>
@@ -15081,7 +15084,7 @@
       <c r="AE399" s="9"/>
       <c r="AF399" s="9"/>
       <c r="AG399" s="8"/>
-      <c r="AH399" s="17"/>
+      <c r="AH399" s="13"/>
     </row>
     <row r="400" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A400" s="8"/>
@@ -15117,7 +15120,7 @@
       <c r="AE400" s="9"/>
       <c r="AF400" s="9"/>
       <c r="AG400" s="8"/>
-      <c r="AH400" s="17"/>
+      <c r="AH400" s="13"/>
     </row>
     <row r="401" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A401" s="8"/>
@@ -15153,7 +15156,7 @@
       <c r="AE401" s="9"/>
       <c r="AF401" s="9"/>
       <c r="AG401" s="8"/>
-      <c r="AH401" s="17"/>
+      <c r="AH401" s="13"/>
     </row>
     <row r="402" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A402" s="8"/>
@@ -15189,7 +15192,7 @@
       <c r="AE402" s="9"/>
       <c r="AF402" s="9"/>
       <c r="AG402" s="8"/>
-      <c r="AH402" s="17"/>
+      <c r="AH402" s="13"/>
     </row>
     <row r="403" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A403" s="8"/>
@@ -15225,7 +15228,7 @@
       <c r="AE403" s="9"/>
       <c r="AF403" s="9"/>
       <c r="AG403" s="8"/>
-      <c r="AH403" s="17"/>
+      <c r="AH403" s="13"/>
     </row>
     <row r="404" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A404" s="8"/>
@@ -15261,7 +15264,7 @@
       <c r="AE404" s="9"/>
       <c r="AF404" s="9"/>
       <c r="AG404" s="8"/>
-      <c r="AH404" s="17"/>
+      <c r="AH404" s="13"/>
     </row>
     <row r="405" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A405" s="8"/>
@@ -15297,7 +15300,7 @@
       <c r="AE405" s="9"/>
       <c r="AF405" s="9"/>
       <c r="AG405" s="8"/>
-      <c r="AH405" s="17"/>
+      <c r="AH405" s="13"/>
     </row>
     <row r="406" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A406" s="8"/>
@@ -15333,7 +15336,7 @@
       <c r="AE406" s="9"/>
       <c r="AF406" s="9"/>
       <c r="AG406" s="8"/>
-      <c r="AH406" s="17"/>
+      <c r="AH406" s="13"/>
     </row>
     <row r="407" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A407" s="8"/>
@@ -15369,7 +15372,7 @@
       <c r="AE407" s="9"/>
       <c r="AF407" s="9"/>
       <c r="AG407" s="8"/>
-      <c r="AH407" s="17"/>
+      <c r="AH407" s="13"/>
     </row>
     <row r="408" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A408" s="8"/>
@@ -15405,7 +15408,7 @@
       <c r="AE408" s="9"/>
       <c r="AF408" s="9"/>
       <c r="AG408" s="8"/>
-      <c r="AH408" s="17"/>
+      <c r="AH408" s="13"/>
     </row>
     <row r="409" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A409" s="8"/>
@@ -15441,7 +15444,7 @@
       <c r="AE409" s="9"/>
       <c r="AF409" s="9"/>
       <c r="AG409" s="8"/>
-      <c r="AH409" s="17"/>
+      <c r="AH409" s="13"/>
     </row>
     <row r="410" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A410" s="8"/>
@@ -15477,7 +15480,7 @@
       <c r="AE410" s="9"/>
       <c r="AF410" s="9"/>
       <c r="AG410" s="8"/>
-      <c r="AH410" s="17"/>
+      <c r="AH410" s="13"/>
     </row>
     <row r="411" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A411" s="8"/>
@@ -15513,7 +15516,7 @@
       <c r="AE411" s="9"/>
       <c r="AF411" s="9"/>
       <c r="AG411" s="8"/>
-      <c r="AH411" s="17"/>
+      <c r="AH411" s="13"/>
     </row>
     <row r="412" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A412" s="8"/>
@@ -15549,7 +15552,7 @@
       <c r="AE412" s="9"/>
       <c r="AF412" s="9"/>
       <c r="AG412" s="8"/>
-      <c r="AH412" s="17"/>
+      <c r="AH412" s="13"/>
     </row>
     <row r="413" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A413" s="8"/>
@@ -15585,7 +15588,7 @@
       <c r="AE413" s="9"/>
       <c r="AF413" s="9"/>
       <c r="AG413" s="8"/>
-      <c r="AH413" s="17"/>
+      <c r="AH413" s="13"/>
     </row>
     <row r="414" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A414" s="8"/>
@@ -15621,7 +15624,7 @@
       <c r="AE414" s="9"/>
       <c r="AF414" s="9"/>
       <c r="AG414" s="8"/>
-      <c r="AH414" s="17"/>
+      <c r="AH414" s="13"/>
     </row>
     <row r="415" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A415" s="8"/>
@@ -15657,7 +15660,7 @@
       <c r="AE415" s="9"/>
       <c r="AF415" s="9"/>
       <c r="AG415" s="8"/>
-      <c r="AH415" s="17"/>
+      <c r="AH415" s="13"/>
     </row>
     <row r="416" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A416" s="8"/>
@@ -15693,7 +15696,7 @@
       <c r="AE416" s="9"/>
       <c r="AF416" s="9"/>
       <c r="AG416" s="8"/>
-      <c r="AH416" s="17"/>
+      <c r="AH416" s="13"/>
     </row>
     <row r="417" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A417" s="8"/>
@@ -15729,7 +15732,7 @@
       <c r="AE417" s="9"/>
       <c r="AF417" s="9"/>
       <c r="AG417" s="8"/>
-      <c r="AH417" s="17"/>
+      <c r="AH417" s="13"/>
     </row>
     <row r="418" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A418" s="8"/>
@@ -15765,7 +15768,7 @@
       <c r="AE418" s="9"/>
       <c r="AF418" s="9"/>
       <c r="AG418" s="8"/>
-      <c r="AH418" s="17"/>
+      <c r="AH418" s="13"/>
     </row>
     <row r="419" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A419" s="8"/>
@@ -15801,7 +15804,7 @@
       <c r="AE419" s="9"/>
       <c r="AF419" s="9"/>
       <c r="AG419" s="8"/>
-      <c r="AH419" s="17"/>
+      <c r="AH419" s="13"/>
     </row>
     <row r="420" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A420" s="8"/>
@@ -15837,7 +15840,7 @@
       <c r="AE420" s="9"/>
       <c r="AF420" s="9"/>
       <c r="AG420" s="8"/>
-      <c r="AH420" s="17"/>
+      <c r="AH420" s="13"/>
     </row>
     <row r="421" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A421" s="8"/>
@@ -15873,7 +15876,7 @@
       <c r="AE421" s="9"/>
       <c r="AF421" s="9"/>
       <c r="AG421" s="8"/>
-      <c r="AH421" s="17"/>
+      <c r="AH421" s="13"/>
     </row>
     <row r="422" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A422" s="8"/>
@@ -15909,7 +15912,7 @@
       <c r="AE422" s="9"/>
       <c r="AF422" s="9"/>
       <c r="AG422" s="8"/>
-      <c r="AH422" s="17"/>
+      <c r="AH422" s="13"/>
     </row>
     <row r="423" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A423" s="8"/>
@@ -15945,7 +15948,7 @@
       <c r="AE423" s="9"/>
       <c r="AF423" s="9"/>
       <c r="AG423" s="8"/>
-      <c r="AH423" s="17"/>
+      <c r="AH423" s="13"/>
     </row>
     <row r="424" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A424" s="8"/>
@@ -15981,7 +15984,7 @@
       <c r="AE424" s="9"/>
       <c r="AF424" s="9"/>
       <c r="AG424" s="8"/>
-      <c r="AH424" s="17"/>
+      <c r="AH424" s="13"/>
     </row>
     <row r="425" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A425" s="8"/>
@@ -16017,7 +16020,7 @@
       <c r="AE425" s="9"/>
       <c r="AF425" s="9"/>
       <c r="AG425" s="8"/>
-      <c r="AH425" s="17"/>
+      <c r="AH425" s="13"/>
     </row>
     <row r="426" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A426" s="8"/>
@@ -16053,7 +16056,7 @@
       <c r="AE426" s="9"/>
       <c r="AF426" s="9"/>
       <c r="AG426" s="8"/>
-      <c r="AH426" s="17"/>
+      <c r="AH426" s="13"/>
     </row>
     <row r="427" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A427" s="8"/>
@@ -16089,7 +16092,7 @@
       <c r="AE427" s="9"/>
       <c r="AF427" s="9"/>
       <c r="AG427" s="8"/>
-      <c r="AH427" s="17"/>
+      <c r="AH427" s="13"/>
     </row>
     <row r="428" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A428" s="8"/>
@@ -16125,7 +16128,7 @@
       <c r="AE428" s="9"/>
       <c r="AF428" s="9"/>
       <c r="AG428" s="8"/>
-      <c r="AH428" s="17"/>
+      <c r="AH428" s="13"/>
     </row>
     <row r="429" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A429" s="8"/>
@@ -16161,7 +16164,7 @@
       <c r="AE429" s="9"/>
       <c r="AF429" s="9"/>
       <c r="AG429" s="8"/>
-      <c r="AH429" s="17"/>
+      <c r="AH429" s="13"/>
     </row>
     <row r="430" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A430" s="8"/>
@@ -16197,7 +16200,7 @@
       <c r="AE430" s="9"/>
       <c r="AF430" s="9"/>
       <c r="AG430" s="8"/>
-      <c r="AH430" s="17"/>
+      <c r="AH430" s="13"/>
     </row>
     <row r="431" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A431" s="8"/>
@@ -16233,7 +16236,7 @@
       <c r="AE431" s="9"/>
       <c r="AF431" s="9"/>
       <c r="AG431" s="8"/>
-      <c r="AH431" s="17"/>
+      <c r="AH431" s="13"/>
     </row>
     <row r="432" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A432" s="8"/>
@@ -16269,7 +16272,7 @@
       <c r="AE432" s="9"/>
       <c r="AF432" s="9"/>
       <c r="AG432" s="8"/>
-      <c r="AH432" s="17"/>
+      <c r="AH432" s="13"/>
     </row>
     <row r="433" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A433" s="8"/>
@@ -16305,7 +16308,7 @@
       <c r="AE433" s="9"/>
       <c r="AF433" s="9"/>
       <c r="AG433" s="8"/>
-      <c r="AH433" s="17"/>
+      <c r="AH433" s="13"/>
     </row>
     <row r="434" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A434" s="8"/>
@@ -16341,7 +16344,7 @@
       <c r="AE434" s="9"/>
       <c r="AF434" s="9"/>
       <c r="AG434" s="8"/>
-      <c r="AH434" s="17"/>
+      <c r="AH434" s="13"/>
     </row>
     <row r="435" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A435" s="8"/>
@@ -16377,7 +16380,7 @@
       <c r="AE435" s="9"/>
       <c r="AF435" s="9"/>
       <c r="AG435" s="8"/>
-      <c r="AH435" s="17"/>
+      <c r="AH435" s="13"/>
     </row>
     <row r="436" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A436" s="8"/>
@@ -16413,7 +16416,7 @@
       <c r="AE436" s="9"/>
       <c r="AF436" s="9"/>
       <c r="AG436" s="8"/>
-      <c r="AH436" s="17"/>
+      <c r="AH436" s="13"/>
     </row>
     <row r="437" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A437" s="8"/>
@@ -16449,7 +16452,7 @@
       <c r="AE437" s="9"/>
       <c r="AF437" s="9"/>
       <c r="AG437" s="8"/>
-      <c r="AH437" s="17"/>
+      <c r="AH437" s="13"/>
     </row>
     <row r="438" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A438" s="8"/>
@@ -16485,7 +16488,7 @@
       <c r="AE438" s="9"/>
       <c r="AF438" s="9"/>
       <c r="AG438" s="8"/>
-      <c r="AH438" s="17"/>
+      <c r="AH438" s="13"/>
     </row>
     <row r="439" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A439" s="8"/>
@@ -16521,7 +16524,7 @@
       <c r="AE439" s="9"/>
       <c r="AF439" s="9"/>
       <c r="AG439" s="8"/>
-      <c r="AH439" s="17"/>
+      <c r="AH439" s="13"/>
     </row>
     <row r="440" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A440" s="8"/>
@@ -16557,7 +16560,7 @@
       <c r="AE440" s="9"/>
       <c r="AF440" s="9"/>
       <c r="AG440" s="8"/>
-      <c r="AH440" s="17"/>
+      <c r="AH440" s="13"/>
     </row>
     <row r="441" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A441" s="8"/>
@@ -16593,7 +16596,7 @@
       <c r="AE441" s="9"/>
       <c r="AF441" s="9"/>
       <c r="AG441" s="8"/>
-      <c r="AH441" s="17"/>
+      <c r="AH441" s="13"/>
     </row>
     <row r="442" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A442" s="8"/>
@@ -16629,7 +16632,7 @@
       <c r="AE442" s="9"/>
       <c r="AF442" s="9"/>
       <c r="AG442" s="8"/>
-      <c r="AH442" s="17"/>
+      <c r="AH442" s="13"/>
     </row>
     <row r="443" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A443" s="8"/>
@@ -16665,7 +16668,7 @@
       <c r="AE443" s="9"/>
       <c r="AF443" s="9"/>
       <c r="AG443" s="8"/>
-      <c r="AH443" s="17"/>
+      <c r="AH443" s="13"/>
     </row>
     <row r="444" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A444" s="8"/>
@@ -16701,7 +16704,7 @@
       <c r="AE444" s="9"/>
       <c r="AF444" s="9"/>
       <c r="AG444" s="8"/>
-      <c r="AH444" s="17"/>
+      <c r="AH444" s="13"/>
     </row>
     <row r="445" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A445" s="8"/>
@@ -16737,7 +16740,7 @@
       <c r="AE445" s="9"/>
       <c r="AF445" s="9"/>
       <c r="AG445" s="8"/>
-      <c r="AH445" s="17"/>
+      <c r="AH445" s="13"/>
     </row>
     <row r="446" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A446" s="8"/>
@@ -16773,7 +16776,7 @@
       <c r="AE446" s="9"/>
       <c r="AF446" s="9"/>
       <c r="AG446" s="8"/>
-      <c r="AH446" s="17"/>
+      <c r="AH446" s="13"/>
     </row>
     <row r="447" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A447" s="8"/>
@@ -16809,7 +16812,7 @@
       <c r="AE447" s="9"/>
       <c r="AF447" s="9"/>
       <c r="AG447" s="8"/>
-      <c r="AH447" s="17"/>
+      <c r="AH447" s="13"/>
     </row>
     <row r="448" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A448" s="8"/>
@@ -16845,7 +16848,7 @@
       <c r="AE448" s="9"/>
       <c r="AF448" s="9"/>
       <c r="AG448" s="8"/>
-      <c r="AH448" s="17"/>
+      <c r="AH448" s="13"/>
     </row>
     <row r="449" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A449" s="8"/>
@@ -16881,7 +16884,7 @@
       <c r="AE449" s="9"/>
       <c r="AF449" s="9"/>
       <c r="AG449" s="8"/>
-      <c r="AH449" s="17"/>
+      <c r="AH449" s="13"/>
     </row>
     <row r="450" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A450" s="8"/>
@@ -16917,7 +16920,7 @@
       <c r="AE450" s="9"/>
       <c r="AF450" s="9"/>
       <c r="AG450" s="8"/>
-      <c r="AH450" s="17"/>
+      <c r="AH450" s="13"/>
     </row>
     <row r="451" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A451" s="8"/>
@@ -16953,7 +16956,7 @@
       <c r="AE451" s="9"/>
       <c r="AF451" s="9"/>
       <c r="AG451" s="8"/>
-      <c r="AH451" s="17"/>
+      <c r="AH451" s="13"/>
     </row>
     <row r="452" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A452" s="8"/>
@@ -16989,7 +16992,7 @@
       <c r="AE452" s="9"/>
       <c r="AF452" s="9"/>
       <c r="AG452" s="8"/>
-      <c r="AH452" s="17"/>
+      <c r="AH452" s="13"/>
     </row>
     <row r="453" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A453" s="8"/>
@@ -17025,7 +17028,7 @@
       <c r="AE453" s="9"/>
       <c r="AF453" s="9"/>
       <c r="AG453" s="8"/>
-      <c r="AH453" s="17"/>
+      <c r="AH453" s="13"/>
     </row>
     <row r="454" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A454" s="8"/>
@@ -17061,7 +17064,7 @@
       <c r="AE454" s="9"/>
       <c r="AF454" s="9"/>
       <c r="AG454" s="8"/>
-      <c r="AH454" s="17"/>
+      <c r="AH454" s="13"/>
     </row>
     <row r="455" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A455" s="8"/>
@@ -17097,7 +17100,7 @@
       <c r="AE455" s="9"/>
       <c r="AF455" s="9"/>
       <c r="AG455" s="8"/>
-      <c r="AH455" s="17"/>
+      <c r="AH455" s="13"/>
     </row>
     <row r="456" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A456" s="8"/>
@@ -17133,7 +17136,7 @@
       <c r="AE456" s="9"/>
       <c r="AF456" s="9"/>
       <c r="AG456" s="8"/>
-      <c r="AH456" s="17"/>
+      <c r="AH456" s="13"/>
     </row>
     <row r="457" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A457" s="8"/>
@@ -17169,7 +17172,7 @@
       <c r="AE457" s="9"/>
       <c r="AF457" s="9"/>
       <c r="AG457" s="8"/>
-      <c r="AH457" s="17"/>
+      <c r="AH457" s="13"/>
     </row>
     <row r="458" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A458" s="8"/>
@@ -17205,7 +17208,7 @@
       <c r="AE458" s="9"/>
       <c r="AF458" s="9"/>
       <c r="AG458" s="8"/>
-      <c r="AH458" s="17"/>
+      <c r="AH458" s="13"/>
     </row>
     <row r="459" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A459" s="8"/>
@@ -17241,7 +17244,7 @@
       <c r="AE459" s="9"/>
       <c r="AF459" s="9"/>
       <c r="AG459" s="8"/>
-      <c r="AH459" s="17"/>
+      <c r="AH459" s="13"/>
     </row>
     <row r="460" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A460" s="8"/>
@@ -17277,7 +17280,7 @@
       <c r="AE460" s="9"/>
       <c r="AF460" s="9"/>
       <c r="AG460" s="8"/>
-      <c r="AH460" s="17"/>
+      <c r="AH460" s="13"/>
     </row>
     <row r="461" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A461" s="8"/>
@@ -17313,7 +17316,7 @@
       <c r="AE461" s="9"/>
       <c r="AF461" s="9"/>
       <c r="AG461" s="8"/>
-      <c r="AH461" s="17"/>
+      <c r="AH461" s="13"/>
     </row>
     <row r="462" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A462" s="8"/>
@@ -17349,7 +17352,7 @@
       <c r="AE462" s="9"/>
       <c r="AF462" s="9"/>
       <c r="AG462" s="8"/>
-      <c r="AH462" s="17"/>
+      <c r="AH462" s="13"/>
     </row>
     <row r="463" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A463" s="8"/>
@@ -17385,7 +17388,7 @@
       <c r="AE463" s="9"/>
       <c r="AF463" s="9"/>
       <c r="AG463" s="8"/>
-      <c r="AH463" s="17"/>
+      <c r="AH463" s="13"/>
     </row>
     <row r="464" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A464" s="8"/>
@@ -17421,7 +17424,7 @@
       <c r="AE464" s="9"/>
       <c r="AF464" s="9"/>
       <c r="AG464" s="8"/>
-      <c r="AH464" s="17"/>
+      <c r="AH464" s="13"/>
     </row>
     <row r="465" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A465" s="8"/>
@@ -17457,7 +17460,7 @@
       <c r="AE465" s="9"/>
       <c r="AF465" s="9"/>
       <c r="AG465" s="8"/>
-      <c r="AH465" s="17"/>
+      <c r="AH465" s="13"/>
     </row>
     <row r="466" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A466" s="8"/>
@@ -17493,7 +17496,7 @@
       <c r="AE466" s="9"/>
       <c r="AF466" s="9"/>
       <c r="AG466" s="8"/>
-      <c r="AH466" s="17"/>
+      <c r="AH466" s="13"/>
     </row>
     <row r="467" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A467" s="8"/>
@@ -17529,7 +17532,7 @@
       <c r="AE467" s="9"/>
       <c r="AF467" s="9"/>
       <c r="AG467" s="8"/>
-      <c r="AH467" s="17"/>
+      <c r="AH467" s="13"/>
     </row>
     <row r="468" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A468" s="8"/>
@@ -17565,7 +17568,7 @@
       <c r="AE468" s="9"/>
       <c r="AF468" s="9"/>
       <c r="AG468" s="8"/>
-      <c r="AH468" s="17"/>
+      <c r="AH468" s="13"/>
     </row>
     <row r="469" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A469" s="8"/>
@@ -17601,7 +17604,7 @@
       <c r="AE469" s="9"/>
       <c r="AF469" s="9"/>
       <c r="AG469" s="8"/>
-      <c r="AH469" s="17"/>
+      <c r="AH469" s="13"/>
     </row>
     <row r="470" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A470" s="8"/>
@@ -17637,7 +17640,7 @@
       <c r="AE470" s="9"/>
       <c r="AF470" s="9"/>
       <c r="AG470" s="8"/>
-      <c r="AH470" s="17"/>
+      <c r="AH470" s="13"/>
     </row>
     <row r="471" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A471" s="8"/>
@@ -17673,7 +17676,7 @@
       <c r="AE471" s="9"/>
       <c r="AF471" s="9"/>
       <c r="AG471" s="8"/>
-      <c r="AH471" s="17"/>
+      <c r="AH471" s="13"/>
     </row>
     <row r="472" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A472" s="8"/>
@@ -17709,7 +17712,7 @@
       <c r="AE472" s="9"/>
       <c r="AF472" s="9"/>
       <c r="AG472" s="8"/>
-      <c r="AH472" s="17"/>
+      <c r="AH472" s="13"/>
     </row>
     <row r="473" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A473" s="8"/>
@@ -17745,7 +17748,7 @@
       <c r="AE473" s="9"/>
       <c r="AF473" s="9"/>
       <c r="AG473" s="8"/>
-      <c r="AH473" s="17"/>
+      <c r="AH473" s="13"/>
     </row>
     <row r="474" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A474" s="8"/>
@@ -17781,7 +17784,7 @@
       <c r="AE474" s="9"/>
       <c r="AF474" s="9"/>
       <c r="AG474" s="8"/>
-      <c r="AH474" s="17"/>
+      <c r="AH474" s="13"/>
     </row>
     <row r="475" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A475" s="8"/>
@@ -17817,7 +17820,7 @@
       <c r="AE475" s="9"/>
       <c r="AF475" s="9"/>
       <c r="AG475" s="8"/>
-      <c r="AH475" s="17"/>
+      <c r="AH475" s="13"/>
     </row>
     <row r="476" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A476" s="8"/>
@@ -17853,7 +17856,7 @@
       <c r="AE476" s="9"/>
       <c r="AF476" s="9"/>
       <c r="AG476" s="8"/>
-      <c r="AH476" s="17"/>
+      <c r="AH476" s="13"/>
     </row>
     <row r="477" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A477" s="8"/>
@@ -17889,7 +17892,7 @@
       <c r="AE477" s="9"/>
       <c r="AF477" s="9"/>
       <c r="AG477" s="8"/>
-      <c r="AH477" s="17"/>
+      <c r="AH477" s="13"/>
     </row>
     <row r="478" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A478" s="8"/>
@@ -17925,7 +17928,7 @@
       <c r="AE478" s="9"/>
       <c r="AF478" s="9"/>
       <c r="AG478" s="8"/>
-      <c r="AH478" s="17"/>
+      <c r="AH478" s="13"/>
     </row>
     <row r="479" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A479" s="8"/>
@@ -17961,7 +17964,7 @@
       <c r="AE479" s="9"/>
       <c r="AF479" s="9"/>
       <c r="AG479" s="8"/>
-      <c r="AH479" s="17"/>
+      <c r="AH479" s="13"/>
     </row>
     <row r="480" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A480" s="8"/>
@@ -17997,7 +18000,7 @@
       <c r="AE480" s="9"/>
       <c r="AF480" s="9"/>
       <c r="AG480" s="8"/>
-      <c r="AH480" s="17"/>
+      <c r="AH480" s="13"/>
     </row>
     <row r="481" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A481" s="8"/>
@@ -18033,7 +18036,7 @@
       <c r="AE481" s="9"/>
       <c r="AF481" s="9"/>
       <c r="AG481" s="8"/>
-      <c r="AH481" s="17"/>
+      <c r="AH481" s="13"/>
     </row>
     <row r="482" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A482" s="8"/>
@@ -18069,7 +18072,7 @@
       <c r="AE482" s="9"/>
       <c r="AF482" s="9"/>
       <c r="AG482" s="8"/>
-      <c r="AH482" s="17"/>
+      <c r="AH482" s="13"/>
     </row>
     <row r="483" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A483" s="8"/>
@@ -18105,7 +18108,7 @@
       <c r="AE483" s="9"/>
       <c r="AF483" s="9"/>
       <c r="AG483" s="8"/>
-      <c r="AH483" s="17"/>
+      <c r="AH483" s="13"/>
     </row>
     <row r="484" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A484" s="8"/>
@@ -18141,7 +18144,7 @@
       <c r="AE484" s="9"/>
       <c r="AF484" s="9"/>
       <c r="AG484" s="8"/>
-      <c r="AH484" s="17"/>
+      <c r="AH484" s="13"/>
     </row>
     <row r="485" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A485" s="8"/>
@@ -18177,7 +18180,7 @@
       <c r="AE485" s="9"/>
       <c r="AF485" s="9"/>
       <c r="AG485" s="8"/>
-      <c r="AH485" s="17"/>
+      <c r="AH485" s="13"/>
     </row>
     <row r="486" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A486" s="8"/>
@@ -18213,7 +18216,7 @@
       <c r="AE486" s="9"/>
       <c r="AF486" s="9"/>
       <c r="AG486" s="8"/>
-      <c r="AH486" s="17"/>
+      <c r="AH486" s="13"/>
     </row>
     <row r="487" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A487" s="8"/>
@@ -18249,7 +18252,7 @@
       <c r="AE487" s="9"/>
       <c r="AF487" s="9"/>
       <c r="AG487" s="8"/>
-      <c r="AH487" s="17"/>
+      <c r="AH487" s="13"/>
     </row>
     <row r="488" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A488" s="8"/>
@@ -18285,7 +18288,7 @@
       <c r="AE488" s="9"/>
       <c r="AF488" s="9"/>
       <c r="AG488" s="8"/>
-      <c r="AH488" s="17"/>
+      <c r="AH488" s="13"/>
     </row>
     <row r="489" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A489" s="8"/>
@@ -18321,7 +18324,7 @@
       <c r="AE489" s="9"/>
       <c r="AF489" s="9"/>
       <c r="AG489" s="8"/>
-      <c r="AH489" s="17"/>
+      <c r="AH489" s="13"/>
     </row>
     <row r="490" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A490" s="8"/>
@@ -18357,7 +18360,7 @@
       <c r="AE490" s="9"/>
       <c r="AF490" s="9"/>
       <c r="AG490" s="8"/>
-      <c r="AH490" s="17"/>
+      <c r="AH490" s="13"/>
     </row>
     <row r="491" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A491" s="8"/>
@@ -18393,7 +18396,7 @@
       <c r="AE491" s="9"/>
       <c r="AF491" s="9"/>
       <c r="AG491" s="8"/>
-      <c r="AH491" s="17"/>
+      <c r="AH491" s="13"/>
     </row>
     <row r="492" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A492" s="8"/>
@@ -18429,7 +18432,7 @@
       <c r="AE492" s="9"/>
       <c r="AF492" s="9"/>
       <c r="AG492" s="8"/>
-      <c r="AH492" s="17"/>
+      <c r="AH492" s="13"/>
     </row>
     <row r="493" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A493" s="8"/>
@@ -18465,7 +18468,7 @@
       <c r="AE493" s="9"/>
       <c r="AF493" s="9"/>
       <c r="AG493" s="8"/>
-      <c r="AH493" s="17"/>
+      <c r="AH493" s="13"/>
     </row>
     <row r="494" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A494" s="8"/>
@@ -18501,7 +18504,7 @@
       <c r="AE494" s="9"/>
       <c r="AF494" s="9"/>
       <c r="AG494" s="8"/>
-      <c r="AH494" s="17"/>
+      <c r="AH494" s="13"/>
     </row>
     <row r="495" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A495" s="8"/>
@@ -18537,7 +18540,7 @@
       <c r="AE495" s="9"/>
       <c r="AF495" s="9"/>
       <c r="AG495" s="8"/>
-      <c r="AH495" s="17"/>
+      <c r="AH495" s="13"/>
     </row>
     <row r="496" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A496" s="8"/>
@@ -18573,7 +18576,7 @@
       <c r="AE496" s="9"/>
       <c r="AF496" s="9"/>
       <c r="AG496" s="8"/>
-      <c r="AH496" s="17"/>
+      <c r="AH496" s="13"/>
     </row>
     <row r="497" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A497" s="8"/>
@@ -18609,7 +18612,7 @@
       <c r="AE497" s="9"/>
       <c r="AF497" s="9"/>
       <c r="AG497" s="8"/>
-      <c r="AH497" s="17"/>
+      <c r="AH497" s="13"/>
     </row>
     <row r="498" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A498" s="8"/>
@@ -18645,7 +18648,7 @@
       <c r="AE498" s="9"/>
       <c r="AF498" s="9"/>
       <c r="AG498" s="8"/>
-      <c r="AH498" s="17"/>
+      <c r="AH498" s="13"/>
     </row>
     <row r="499" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A499" s="8"/>
@@ -18681,7 +18684,7 @@
       <c r="AE499" s="9"/>
       <c r="AF499" s="9"/>
       <c r="AG499" s="8"/>
-      <c r="AH499" s="17"/>
+      <c r="AH499" s="13"/>
     </row>
     <row r="500" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A500" s="8"/>
@@ -18717,7 +18720,7 @@
       <c r="AE500" s="9"/>
       <c r="AF500" s="9"/>
       <c r="AG500" s="8"/>
-      <c r="AH500" s="17"/>
+      <c r="AH500" s="13"/>
     </row>
     <row r="501" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A501" s="8"/>
@@ -18753,7 +18756,7 @@
       <c r="AE501" s="9"/>
       <c r="AF501" s="9"/>
       <c r="AG501" s="8"/>
-      <c r="AH501" s="17"/>
+      <c r="AH501" s="13"/>
     </row>
     <row r="502" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A502" s="8"/>
@@ -18789,7 +18792,7 @@
       <c r="AE502" s="9"/>
       <c r="AF502" s="9"/>
       <c r="AG502" s="8"/>
-      <c r="AH502" s="17"/>
+      <c r="AH502" s="13"/>
     </row>
     <row r="503" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A503" s="8"/>
@@ -18825,7 +18828,7 @@
       <c r="AE503" s="9"/>
       <c r="AF503" s="9"/>
       <c r="AG503" s="8"/>
-      <c r="AH503" s="17"/>
+      <c r="AH503" s="13"/>
     </row>
     <row r="504" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A504" s="8"/>
@@ -18861,7 +18864,7 @@
       <c r="AE504" s="9"/>
       <c r="AF504" s="9"/>
       <c r="AG504" s="8"/>
-      <c r="AH504" s="17"/>
+      <c r="AH504" s="13"/>
     </row>
     <row r="505" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A505" s="8"/>
@@ -18897,7 +18900,7 @@
       <c r="AE505" s="9"/>
       <c r="AF505" s="9"/>
       <c r="AG505" s="8"/>
-      <c r="AH505" s="17"/>
+      <c r="AH505" s="13"/>
     </row>
     <row r="506" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A506" s="8"/>
@@ -18933,7 +18936,7 @@
       <c r="AE506" s="9"/>
       <c r="AF506" s="9"/>
       <c r="AG506" s="8"/>
-      <c r="AH506" s="17"/>
+      <c r="AH506" s="13"/>
     </row>
     <row r="507" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A507" s="8"/>
@@ -18969,7 +18972,7 @@
       <c r="AE507" s="9"/>
       <c r="AF507" s="9"/>
       <c r="AG507" s="8"/>
-      <c r="AH507" s="17"/>
+      <c r="AH507" s="13"/>
     </row>
     <row r="508" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A508" s="8"/>
@@ -19005,7 +19008,7 @@
       <c r="AE508" s="9"/>
       <c r="AF508" s="9"/>
       <c r="AG508" s="8"/>
-      <c r="AH508" s="17"/>
+      <c r="AH508" s="13"/>
     </row>
     <row r="509" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A509" s="8"/>
@@ -19041,7 +19044,7 @@
       <c r="AE509" s="9"/>
       <c r="AF509" s="9"/>
       <c r="AG509" s="8"/>
-      <c r="AH509" s="17"/>
+      <c r="AH509" s="13"/>
     </row>
     <row r="510" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A510" s="8"/>
@@ -19077,7 +19080,7 @@
       <c r="AE510" s="9"/>
       <c r="AF510" s="9"/>
       <c r="AG510" s="8"/>
-      <c r="AH510" s="17"/>
+      <c r="AH510" s="13"/>
     </row>
     <row r="511" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A511" s="8"/>
@@ -19113,7 +19116,7 @@
       <c r="AE511" s="9"/>
       <c r="AF511" s="9"/>
       <c r="AG511" s="8"/>
-      <c r="AH511" s="17"/>
+      <c r="AH511" s="13"/>
     </row>
     <row r="512" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A512" s="8"/>
@@ -19149,7 +19152,7 @@
       <c r="AE512" s="9"/>
       <c r="AF512" s="9"/>
       <c r="AG512" s="8"/>
-      <c r="AH512" s="17"/>
+      <c r="AH512" s="13"/>
     </row>
     <row r="513" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A513" s="8"/>
@@ -19185,7 +19188,7 @@
       <c r="AE513" s="9"/>
       <c r="AF513" s="9"/>
       <c r="AG513" s="8"/>
-      <c r="AH513" s="17"/>
+      <c r="AH513" s="13"/>
     </row>
     <row r="514" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A514" s="8"/>
@@ -19221,7 +19224,7 @@
       <c r="AE514" s="9"/>
       <c r="AF514" s="9"/>
       <c r="AG514" s="8"/>
-      <c r="AH514" s="17"/>
+      <c r="AH514" s="13"/>
     </row>
     <row r="515" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A515" s="8"/>
@@ -19257,7 +19260,7 @@
       <c r="AE515" s="9"/>
       <c r="AF515" s="9"/>
       <c r="AG515" s="8"/>
-      <c r="AH515" s="17"/>
+      <c r="AH515" s="13"/>
     </row>
     <row r="516" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A516" s="8"/>
@@ -19293,7 +19296,7 @@
       <c r="AE516" s="9"/>
       <c r="AF516" s="9"/>
       <c r="AG516" s="8"/>
-      <c r="AH516" s="17"/>
+      <c r="AH516" s="13"/>
     </row>
     <row r="517" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A517" s="8"/>
@@ -19329,7 +19332,7 @@
       <c r="AE517" s="9"/>
       <c r="AF517" s="9"/>
       <c r="AG517" s="8"/>
-      <c r="AH517" s="17"/>
+      <c r="AH517" s="13"/>
     </row>
     <row r="518" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A518" s="8"/>
@@ -19365,7 +19368,7 @@
       <c r="AE518" s="9"/>
       <c r="AF518" s="9"/>
       <c r="AG518" s="8"/>
-      <c r="AH518" s="17"/>
+      <c r="AH518" s="13"/>
     </row>
     <row r="519" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A519" s="8"/>
@@ -19401,7 +19404,7 @@
       <c r="AE519" s="9"/>
       <c r="AF519" s="9"/>
       <c r="AG519" s="8"/>
-      <c r="AH519" s="17"/>
+      <c r="AH519" s="13"/>
     </row>
     <row r="520" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A520" s="8"/>
@@ -19437,7 +19440,7 @@
       <c r="AE520" s="9"/>
       <c r="AF520" s="9"/>
       <c r="AG520" s="8"/>
-      <c r="AH520" s="17"/>
+      <c r="AH520" s="13"/>
     </row>
     <row r="521" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A521" s="8"/>
@@ -19473,7 +19476,7 @@
       <c r="AE521" s="9"/>
       <c r="AF521" s="9"/>
       <c r="AG521" s="8"/>
-      <c r="AH521" s="17"/>
+      <c r="AH521" s="13"/>
     </row>
     <row r="522" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A522" s="8"/>
@@ -19509,7 +19512,7 @@
       <c r="AE522" s="9"/>
       <c r="AF522" s="9"/>
       <c r="AG522" s="8"/>
-      <c r="AH522" s="17"/>
+      <c r="AH522" s="13"/>
     </row>
     <row r="523" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A523" s="8"/>
@@ -19545,7 +19548,7 @@
       <c r="AE523" s="9"/>
       <c r="AF523" s="9"/>
       <c r="AG523" s="8"/>
-      <c r="AH523" s="17"/>
+      <c r="AH523" s="13"/>
     </row>
     <row r="524" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A524" s="8"/>
@@ -19581,7 +19584,7 @@
       <c r="AE524" s="9"/>
       <c r="AF524" s="9"/>
       <c r="AG524" s="8"/>
-      <c r="AH524" s="17"/>
+      <c r="AH524" s="13"/>
     </row>
     <row r="525" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A525" s="8"/>
@@ -19617,7 +19620,7 @@
       <c r="AE525" s="9"/>
       <c r="AF525" s="9"/>
       <c r="AG525" s="8"/>
-      <c r="AH525" s="17"/>
+      <c r="AH525" s="13"/>
     </row>
     <row r="526" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A526" s="8"/>
@@ -19653,7 +19656,7 @@
       <c r="AE526" s="9"/>
       <c r="AF526" s="9"/>
       <c r="AG526" s="8"/>
-      <c r="AH526" s="17"/>
+      <c r="AH526" s="13"/>
     </row>
     <row r="527" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A527" s="8"/>
@@ -19689,7 +19692,7 @@
       <c r="AE527" s="9"/>
       <c r="AF527" s="9"/>
       <c r="AG527" s="8"/>
-      <c r="AH527" s="17"/>
+      <c r="AH527" s="13"/>
     </row>
     <row r="528" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A528" s="8"/>
@@ -19725,7 +19728,7 @@
       <c r="AE528" s="9"/>
       <c r="AF528" s="9"/>
       <c r="AG528" s="8"/>
-      <c r="AH528" s="17"/>
+      <c r="AH528" s="13"/>
     </row>
     <row r="529" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A529" s="8"/>
@@ -19761,7 +19764,7 @@
       <c r="AE529" s="9"/>
       <c r="AF529" s="9"/>
       <c r="AG529" s="8"/>
-      <c r="AH529" s="17"/>
+      <c r="AH529" s="13"/>
     </row>
     <row r="530" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A530" s="8"/>
@@ -19797,7 +19800,7 @@
       <c r="AE530" s="9"/>
       <c r="AF530" s="9"/>
       <c r="AG530" s="8"/>
-      <c r="AH530" s="17"/>
+      <c r="AH530" s="13"/>
     </row>
     <row r="531" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A531" s="8"/>
@@ -19833,7 +19836,7 @@
       <c r="AE531" s="9"/>
       <c r="AF531" s="9"/>
       <c r="AG531" s="8"/>
-      <c r="AH531" s="17"/>
+      <c r="AH531" s="13"/>
     </row>
     <row r="532" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A532" s="8"/>
@@ -19869,7 +19872,7 @@
       <c r="AE532" s="9"/>
       <c r="AF532" s="9"/>
       <c r="AG532" s="8"/>
-      <c r="AH532" s="17"/>
+      <c r="AH532" s="13"/>
     </row>
     <row r="533" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A533" s="8"/>
@@ -19905,7 +19908,7 @@
       <c r="AE533" s="9"/>
       <c r="AF533" s="9"/>
       <c r="AG533" s="8"/>
-      <c r="AH533" s="17"/>
+      <c r="AH533" s="13"/>
     </row>
     <row r="534" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A534" s="8"/>
@@ -19941,7 +19944,7 @@
       <c r="AE534" s="9"/>
       <c r="AF534" s="9"/>
       <c r="AG534" s="8"/>
-      <c r="AH534" s="17"/>
+      <c r="AH534" s="13"/>
     </row>
     <row r="535" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A535" s="8"/>
@@ -19977,7 +19980,7 @@
       <c r="AE535" s="9"/>
       <c r="AF535" s="9"/>
       <c r="AG535" s="8"/>
-      <c r="AH535" s="17"/>
+      <c r="AH535" s="13"/>
     </row>
     <row r="536" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A536" s="8"/>
@@ -20013,7 +20016,7 @@
       <c r="AE536" s="9"/>
       <c r="AF536" s="9"/>
       <c r="AG536" s="8"/>
-      <c r="AH536" s="17"/>
+      <c r="AH536" s="13"/>
     </row>
     <row r="537" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A537" s="8"/>
@@ -20049,7 +20052,7 @@
       <c r="AE537" s="9"/>
       <c r="AF537" s="9"/>
       <c r="AG537" s="8"/>
-      <c r="AH537" s="17"/>
+      <c r="AH537" s="13"/>
     </row>
     <row r="538" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A538" s="8"/>
@@ -20085,7 +20088,7 @@
       <c r="AE538" s="9"/>
       <c r="AF538" s="9"/>
       <c r="AG538" s="8"/>
-      <c r="AH538" s="17"/>
+      <c r="AH538" s="13"/>
     </row>
     <row r="539" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A539" s="8"/>
@@ -20121,7 +20124,7 @@
       <c r="AE539" s="9"/>
       <c r="AF539" s="9"/>
       <c r="AG539" s="8"/>
-      <c r="AH539" s="17"/>
+      <c r="AH539" s="13"/>
     </row>
     <row r="540" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A540" s="8"/>
@@ -20157,7 +20160,7 @@
       <c r="AE540" s="9"/>
       <c r="AF540" s="9"/>
       <c r="AG540" s="8"/>
-      <c r="AH540" s="17"/>
+      <c r="AH540" s="13"/>
     </row>
     <row r="541" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A541" s="8"/>
@@ -20193,7 +20196,7 @@
       <c r="AE541" s="9"/>
       <c r="AF541" s="9"/>
       <c r="AG541" s="8"/>
-      <c r="AH541" s="17"/>
+      <c r="AH541" s="13"/>
     </row>
     <row r="542" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A542" s="8"/>
@@ -20229,7 +20232,7 @@
       <c r="AE542" s="9"/>
       <c r="AF542" s="9"/>
       <c r="AG542" s="8"/>
-      <c r="AH542" s="17"/>
+      <c r="AH542" s="13"/>
     </row>
     <row r="543" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A543" s="8"/>
@@ -20265,7 +20268,7 @@
       <c r="AE543" s="9"/>
       <c r="AF543" s="9"/>
       <c r="AG543" s="8"/>
-      <c r="AH543" s="17"/>
+      <c r="AH543" s="13"/>
     </row>
     <row r="544" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A544" s="8"/>
@@ -20301,7 +20304,7 @@
       <c r="AE544" s="9"/>
       <c r="AF544" s="9"/>
       <c r="AG544" s="8"/>
-      <c r="AH544" s="17"/>
+      <c r="AH544" s="13"/>
     </row>
     <row r="545" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A545" s="8"/>
@@ -20337,7 +20340,7 @@
       <c r="AE545" s="9"/>
       <c r="AF545" s="9"/>
       <c r="AG545" s="8"/>
-      <c r="AH545" s="17"/>
+      <c r="AH545" s="13"/>
     </row>
     <row r="546" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A546" s="8"/>
@@ -20373,7 +20376,7 @@
       <c r="AE546" s="9"/>
       <c r="AF546" s="9"/>
       <c r="AG546" s="8"/>
-      <c r="AH546" s="17"/>
+      <c r="AH546" s="13"/>
     </row>
     <row r="547" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A547" s="8"/>
@@ -20409,7 +20412,7 @@
       <c r="AE547" s="9"/>
       <c r="AF547" s="9"/>
       <c r="AG547" s="8"/>
-      <c r="AH547" s="17"/>
+      <c r="AH547" s="13"/>
     </row>
     <row r="548" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A548" s="8"/>
@@ -20445,7 +20448,7 @@
       <c r="AE548" s="9"/>
       <c r="AF548" s="9"/>
       <c r="AG548" s="8"/>
-      <c r="AH548" s="17"/>
+      <c r="AH548" s="13"/>
     </row>
     <row r="549" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A549" s="8"/>
@@ -20481,7 +20484,7 @@
       <c r="AE549" s="9"/>
       <c r="AF549" s="9"/>
       <c r="AG549" s="8"/>
-      <c r="AH549" s="17"/>
+      <c r="AH549" s="13"/>
     </row>
     <row r="550" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A550" s="8"/>
@@ -20517,7 +20520,7 @@
       <c r="AE550" s="9"/>
       <c r="AF550" s="9"/>
       <c r="AG550" s="8"/>
-      <c r="AH550" s="17"/>
+      <c r="AH550" s="13"/>
     </row>
     <row r="551" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A551" s="8"/>
@@ -20553,7 +20556,7 @@
       <c r="AE551" s="9"/>
       <c r="AF551" s="9"/>
       <c r="AG551" s="8"/>
-      <c r="AH551" s="17"/>
+      <c r="AH551" s="13"/>
     </row>
     <row r="552" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A552" s="8"/>
@@ -20589,7 +20592,7 @@
       <c r="AE552" s="9"/>
       <c r="AF552" s="9"/>
       <c r="AG552" s="8"/>
-      <c r="AH552" s="17"/>
+      <c r="AH552" s="13"/>
     </row>
     <row r="553" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A553" s="8"/>
@@ -20625,7 +20628,7 @@
       <c r="AE553" s="9"/>
       <c r="AF553" s="9"/>
       <c r="AG553" s="8"/>
-      <c r="AH553" s="17"/>
+      <c r="AH553" s="13"/>
     </row>
     <row r="554" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A554" s="8"/>
@@ -20661,7 +20664,7 @@
       <c r="AE554" s="9"/>
       <c r="AF554" s="9"/>
       <c r="AG554" s="8"/>
-      <c r="AH554" s="17"/>
+      <c r="AH554" s="13"/>
     </row>
     <row r="555" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A555" s="8"/>
@@ -20697,7 +20700,7 @@
       <c r="AE555" s="9"/>
       <c r="AF555" s="9"/>
       <c r="AG555" s="8"/>
-      <c r="AH555" s="17"/>
+      <c r="AH555" s="13"/>
     </row>
     <row r="556" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A556" s="8"/>
@@ -20733,7 +20736,7 @@
       <c r="AE556" s="9"/>
       <c r="AF556" s="9"/>
       <c r="AG556" s="8"/>
-      <c r="AH556" s="17"/>
+      <c r="AH556" s="13"/>
     </row>
     <row r="557" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A557" s="8"/>
@@ -20769,7 +20772,7 @@
       <c r="AE557" s="9"/>
       <c r="AF557" s="9"/>
       <c r="AG557" s="8"/>
-      <c r="AH557" s="17"/>
+      <c r="AH557" s="13"/>
     </row>
     <row r="558" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A558" s="8"/>
@@ -20805,7 +20808,7 @@
       <c r="AE558" s="9"/>
       <c r="AF558" s="9"/>
       <c r="AG558" s="8"/>
-      <c r="AH558" s="17"/>
+      <c r="AH558" s="13"/>
     </row>
     <row r="559" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A559" s="8"/>
@@ -20841,7 +20844,7 @@
       <c r="AE559" s="9"/>
       <c r="AF559" s="9"/>
       <c r="AG559" s="8"/>
-      <c r="AH559" s="17"/>
+      <c r="AH559" s="13"/>
     </row>
     <row r="560" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A560" s="8"/>
@@ -20877,7 +20880,7 @@
       <c r="AE560" s="9"/>
       <c r="AF560" s="9"/>
       <c r="AG560" s="8"/>
-      <c r="AH560" s="17"/>
+      <c r="AH560" s="13"/>
     </row>
     <row r="561" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A561" s="8"/>
@@ -20913,7 +20916,7 @@
       <c r="AE561" s="9"/>
       <c r="AF561" s="9"/>
       <c r="AG561" s="8"/>
-      <c r="AH561" s="17"/>
+      <c r="AH561" s="13"/>
     </row>
     <row r="562" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A562" s="8"/>
@@ -20949,7 +20952,7 @@
       <c r="AE562" s="9"/>
       <c r="AF562" s="9"/>
       <c r="AG562" s="8"/>
-      <c r="AH562" s="17"/>
+      <c r="AH562" s="13"/>
     </row>
     <row r="563" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A563" s="8"/>
@@ -20985,7 +20988,7 @@
       <c r="AE563" s="9"/>
       <c r="AF563" s="9"/>
       <c r="AG563" s="8"/>
-      <c r="AH563" s="17"/>
+      <c r="AH563" s="13"/>
     </row>
     <row r="564" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A564" s="8"/>
@@ -21021,7 +21024,7 @@
       <c r="AE564" s="9"/>
       <c r="AF564" s="9"/>
       <c r="AG564" s="8"/>
-      <c r="AH564" s="17"/>
+      <c r="AH564" s="13"/>
     </row>
     <row r="565" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A565" s="8"/>
@@ -21057,7 +21060,7 @@
       <c r="AE565" s="9"/>
       <c r="AF565" s="9"/>
       <c r="AG565" s="8"/>
-      <c r="AH565" s="17"/>
+      <c r="AH565" s="13"/>
     </row>
     <row r="566" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A566" s="8"/>
@@ -21093,7 +21096,7 @@
       <c r="AE566" s="9"/>
       <c r="AF566" s="9"/>
       <c r="AG566" s="8"/>
-      <c r="AH566" s="17"/>
+      <c r="AH566" s="13"/>
     </row>
     <row r="567" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A567" s="8"/>
@@ -21129,7 +21132,7 @@
       <c r="AE567" s="9"/>
       <c r="AF567" s="9"/>
       <c r="AG567" s="8"/>
-      <c r="AH567" s="17"/>
+      <c r="AH567" s="13"/>
     </row>
     <row r="568" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A568" s="8"/>
@@ -21165,7 +21168,7 @@
       <c r="AE568" s="9"/>
       <c r="AF568" s="9"/>
       <c r="AG568" s="8"/>
-      <c r="AH568" s="17"/>
+      <c r="AH568" s="13"/>
     </row>
     <row r="569" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A569" s="8"/>
@@ -21201,7 +21204,7 @@
       <c r="AE569" s="9"/>
       <c r="AF569" s="9"/>
       <c r="AG569" s="8"/>
-      <c r="AH569" s="17"/>
+      <c r="AH569" s="13"/>
     </row>
     <row r="570" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A570" s="8"/>
@@ -21237,7 +21240,7 @@
       <c r="AE570" s="9"/>
       <c r="AF570" s="9"/>
       <c r="AG570" s="8"/>
-      <c r="AH570" s="17"/>
+      <c r="AH570" s="13"/>
     </row>
     <row r="571" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A571" s="8"/>
@@ -21273,7 +21276,7 @@
       <c r="AE571" s="9"/>
       <c r="AF571" s="9"/>
       <c r="AG571" s="8"/>
-      <c r="AH571" s="17"/>
+      <c r="AH571" s="13"/>
     </row>
     <row r="572" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A572" s="8"/>
@@ -21309,7 +21312,7 @@
       <c r="AE572" s="9"/>
       <c r="AF572" s="9"/>
       <c r="AG572" s="8"/>
-      <c r="AH572" s="17"/>
+      <c r="AH572" s="13"/>
     </row>
     <row r="573" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A573" s="8"/>
@@ -21345,7 +21348,7 @@
       <c r="AE573" s="9"/>
       <c r="AF573" s="9"/>
       <c r="AG573" s="8"/>
-      <c r="AH573" s="17"/>
+      <c r="AH573" s="13"/>
     </row>
     <row r="574" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A574" s="8"/>
@@ -21381,7 +21384,7 @@
       <c r="AE574" s="9"/>
       <c r="AF574" s="9"/>
       <c r="AG574" s="8"/>
-      <c r="AH574" s="17"/>
+      <c r="AH574" s="13"/>
     </row>
     <row r="575" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A575" s="8"/>
@@ -21417,7 +21420,7 @@
       <c r="AE575" s="9"/>
       <c r="AF575" s="9"/>
       <c r="AG575" s="8"/>
-      <c r="AH575" s="17"/>
+      <c r="AH575" s="13"/>
     </row>
     <row r="576" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A576" s="8"/>
@@ -21453,7 +21456,7 @@
       <c r="AE576" s="9"/>
       <c r="AF576" s="9"/>
       <c r="AG576" s="8"/>
-      <c r="AH576" s="17"/>
+      <c r="AH576" s="13"/>
     </row>
     <row r="577" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A577" s="8"/>
@@ -21489,7 +21492,7 @@
       <c r="AE577" s="9"/>
       <c r="AF577" s="9"/>
       <c r="AG577" s="8"/>
-      <c r="AH577" s="17"/>
+      <c r="AH577" s="13"/>
     </row>
     <row r="578" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A578" s="8"/>
@@ -21525,7 +21528,7 @@
       <c r="AE578" s="9"/>
       <c r="AF578" s="9"/>
       <c r="AG578" s="8"/>
-      <c r="AH578" s="17"/>
+      <c r="AH578" s="13"/>
     </row>
     <row r="579" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A579" s="8"/>
@@ -21561,7 +21564,7 @@
       <c r="AE579" s="9"/>
       <c r="AF579" s="9"/>
       <c r="AG579" s="8"/>
-      <c r="AH579" s="17"/>
+      <c r="AH579" s="13"/>
     </row>
     <row r="580" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A580" s="8"/>
@@ -21597,7 +21600,7 @@
       <c r="AE580" s="9"/>
       <c r="AF580" s="9"/>
       <c r="AG580" s="8"/>
-      <c r="AH580" s="17"/>
+      <c r="AH580" s="13"/>
     </row>
     <row r="581" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A581" s="8"/>
@@ -21633,7 +21636,7 @@
       <c r="AE581" s="9"/>
       <c r="AF581" s="9"/>
       <c r="AG581" s="8"/>
-      <c r="AH581" s="17"/>
+      <c r="AH581" s="13"/>
     </row>
     <row r="582" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A582" s="8"/>
@@ -21669,7 +21672,7 @@
       <c r="AE582" s="9"/>
       <c r="AF582" s="9"/>
       <c r="AG582" s="8"/>
-      <c r="AH582" s="17"/>
+      <c r="AH582" s="13"/>
     </row>
     <row r="583" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A583" s="8"/>
@@ -21705,7 +21708,7 @@
       <c r="AE583" s="9"/>
       <c r="AF583" s="9"/>
       <c r="AG583" s="8"/>
-      <c r="AH583" s="17"/>
+      <c r="AH583" s="13"/>
     </row>
     <row r="584" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A584" s="8"/>
@@ -21741,7 +21744,7 @@
       <c r="AE584" s="9"/>
       <c r="AF584" s="9"/>
       <c r="AG584" s="8"/>
-      <c r="AH584" s="17"/>
+      <c r="AH584" s="13"/>
     </row>
     <row r="585" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A585" s="8"/>
@@ -21777,7 +21780,7 @@
       <c r="AE585" s="9"/>
       <c r="AF585" s="9"/>
       <c r="AG585" s="8"/>
-      <c r="AH585" s="17"/>
+      <c r="AH585" s="13"/>
     </row>
     <row r="586" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A586" s="8"/>
@@ -21813,7 +21816,7 @@
       <c r="AE586" s="9"/>
       <c r="AF586" s="9"/>
       <c r="AG586" s="8"/>
-      <c r="AH586" s="17"/>
+      <c r="AH586" s="13"/>
     </row>
     <row r="587" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A587" s="8"/>
@@ -21849,7 +21852,7 @@
       <c r="AE587" s="9"/>
       <c r="AF587" s="9"/>
       <c r="AG587" s="8"/>
-      <c r="AH587" s="17"/>
+      <c r="AH587" s="13"/>
     </row>
     <row r="588" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A588" s="8"/>
@@ -21885,7 +21888,7 @@
       <c r="AE588" s="9"/>
       <c r="AF588" s="9"/>
       <c r="AG588" s="8"/>
-      <c r="AH588" s="17"/>
+      <c r="AH588" s="13"/>
     </row>
     <row r="589" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A589" s="8"/>
@@ -21921,7 +21924,7 @@
       <c r="AE589" s="9"/>
       <c r="AF589" s="9"/>
       <c r="AG589" s="8"/>
-      <c r="AH589" s="17"/>
+      <c r="AH589" s="13"/>
     </row>
     <row r="590" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A590" s="8"/>
@@ -21957,7 +21960,7 @@
       <c r="AE590" s="9"/>
       <c r="AF590" s="9"/>
       <c r="AG590" s="8"/>
-      <c r="AH590" s="17"/>
+      <c r="AH590" s="13"/>
     </row>
     <row r="591" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A591" s="8"/>
@@ -21993,7 +21996,7 @@
       <c r="AE591" s="9"/>
       <c r="AF591" s="9"/>
       <c r="AG591" s="8"/>
-      <c r="AH591" s="17"/>
+      <c r="AH591" s="13"/>
     </row>
     <row r="592" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A592" s="8"/>
@@ -22029,7 +22032,7 @@
       <c r="AE592" s="9"/>
       <c r="AF592" s="9"/>
       <c r="AG592" s="8"/>
-      <c r="AH592" s="17"/>
+      <c r="AH592" s="13"/>
     </row>
     <row r="593" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A593" s="8"/>
@@ -22065,7 +22068,7 @@
       <c r="AE593" s="9"/>
       <c r="AF593" s="9"/>
       <c r="AG593" s="8"/>
-      <c r="AH593" s="17"/>
+      <c r="AH593" s="13"/>
     </row>
     <row r="594" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A594" s="8"/>
@@ -22101,7 +22104,7 @@
       <c r="AE594" s="9"/>
       <c r="AF594" s="9"/>
       <c r="AG594" s="8"/>
-      <c r="AH594" s="17"/>
+      <c r="AH594" s="13"/>
     </row>
     <row r="595" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="8"/>
@@ -22137,7 +22140,7 @@
       <c r="AE595" s="9"/>
       <c r="AF595" s="9"/>
       <c r="AG595" s="8"/>
-      <c r="AH595" s="17"/>
+      <c r="AH595" s="13"/>
     </row>
     <row r="596" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="8"/>
@@ -22173,7 +22176,7 @@
       <c r="AE596" s="9"/>
       <c r="AF596" s="9"/>
       <c r="AG596" s="8"/>
-      <c r="AH596" s="17"/>
+      <c r="AH596" s="13"/>
     </row>
     <row r="597" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="8"/>
@@ -22209,7 +22212,7 @@
       <c r="AE597" s="9"/>
       <c r="AF597" s="9"/>
       <c r="AG597" s="8"/>
-      <c r="AH597" s="17"/>
+      <c r="AH597" s="13"/>
     </row>
     <row r="598" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="8"/>
@@ -22245,7 +22248,7 @@
       <c r="AE598" s="9"/>
       <c r="AF598" s="9"/>
       <c r="AG598" s="8"/>
-      <c r="AH598" s="17"/>
+      <c r="AH598" s="13"/>
     </row>
     <row r="599" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="8"/>
@@ -22281,7 +22284,7 @@
       <c r="AE599" s="9"/>
       <c r="AF599" s="9"/>
       <c r="AG599" s="8"/>
-      <c r="AH599" s="17"/>
+      <c r="AH599" s="13"/>
     </row>
     <row r="600" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="8"/>
@@ -22317,7 +22320,7 @@
       <c r="AE600" s="9"/>
       <c r="AF600" s="9"/>
       <c r="AG600" s="8"/>
-      <c r="AH600" s="17"/>
+      <c r="AH600" s="13"/>
     </row>
     <row r="601" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="8"/>
@@ -22353,7 +22356,7 @@
       <c r="AE601" s="9"/>
       <c r="AF601" s="9"/>
       <c r="AG601" s="8"/>
-      <c r="AH601" s="17"/>
+      <c r="AH601" s="13"/>
     </row>
     <row r="602" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="8"/>
@@ -22389,7 +22392,7 @@
       <c r="AE602" s="9"/>
       <c r="AF602" s="9"/>
       <c r="AG602" s="8"/>
-      <c r="AH602" s="17"/>
+      <c r="AH602" s="13"/>
     </row>
     <row r="603" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="8"/>
@@ -22425,7 +22428,7 @@
       <c r="AE603" s="9"/>
       <c r="AF603" s="9"/>
       <c r="AG603" s="8"/>
-      <c r="AH603" s="17"/>
+      <c r="AH603" s="13"/>
     </row>
     <row r="604" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="8"/>
@@ -22461,7 +22464,7 @@
       <c r="AE604" s="9"/>
       <c r="AF604" s="9"/>
       <c r="AG604" s="8"/>
-      <c r="AH604" s="17"/>
+      <c r="AH604" s="13"/>
     </row>
     <row r="605" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="8"/>
@@ -22497,7 +22500,7 @@
       <c r="AE605" s="9"/>
       <c r="AF605" s="9"/>
       <c r="AG605" s="8"/>
-      <c r="AH605" s="17"/>
+      <c r="AH605" s="13"/>
     </row>
     <row r="606" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="8"/>
@@ -22533,7 +22536,7 @@
       <c r="AE606" s="9"/>
       <c r="AF606" s="9"/>
       <c r="AG606" s="8"/>
-      <c r="AH606" s="17"/>
+      <c r="AH606" s="13"/>
     </row>
     <row r="607" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="8"/>
@@ -22569,7 +22572,7 @@
       <c r="AE607" s="9"/>
       <c r="AF607" s="9"/>
       <c r="AG607" s="8"/>
-      <c r="AH607" s="17"/>
+      <c r="AH607" s="13"/>
     </row>
     <row r="608" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="8"/>
@@ -22605,7 +22608,7 @@
       <c r="AE608" s="9"/>
       <c r="AF608" s="9"/>
       <c r="AG608" s="8"/>
-      <c r="AH608" s="17"/>
+      <c r="AH608" s="13"/>
     </row>
     <row r="609" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="8"/>
@@ -22641,7 +22644,7 @@
       <c r="AE609" s="9"/>
       <c r="AF609" s="9"/>
       <c r="AG609" s="8"/>
-      <c r="AH609" s="17"/>
+      <c r="AH609" s="13"/>
     </row>
     <row r="610" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="8"/>
@@ -22677,7 +22680,7 @@
       <c r="AE610" s="9"/>
       <c r="AF610" s="9"/>
       <c r="AG610" s="8"/>
-      <c r="AH610" s="17"/>
+      <c r="AH610" s="13"/>
     </row>
     <row r="611" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="8"/>
@@ -22713,7 +22716,7 @@
       <c r="AE611" s="9"/>
       <c r="AF611" s="9"/>
       <c r="AG611" s="8"/>
-      <c r="AH611" s="17"/>
+      <c r="AH611" s="13"/>
     </row>
     <row r="612" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="8"/>
@@ -22749,7 +22752,7 @@
       <c r="AE612" s="9"/>
       <c r="AF612" s="9"/>
       <c r="AG612" s="8"/>
-      <c r="AH612" s="17"/>
+      <c r="AH612" s="13"/>
     </row>
     <row r="613" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="8"/>
@@ -22785,7 +22788,7 @@
       <c r="AE613" s="9"/>
       <c r="AF613" s="9"/>
       <c r="AG613" s="8"/>
-      <c r="AH613" s="17"/>
+      <c r="AH613" s="13"/>
     </row>
     <row r="614" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="8"/>
@@ -22821,7 +22824,7 @@
       <c r="AE614" s="9"/>
       <c r="AF614" s="9"/>
       <c r="AG614" s="8"/>
-      <c r="AH614" s="17"/>
+      <c r="AH614" s="13"/>
     </row>
     <row r="615" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="8"/>
@@ -22857,7 +22860,7 @@
       <c r="AE615" s="9"/>
       <c r="AF615" s="9"/>
       <c r="AG615" s="8"/>
-      <c r="AH615" s="17"/>
+      <c r="AH615" s="13"/>
     </row>
     <row r="616" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="8"/>
@@ -22893,7 +22896,7 @@
       <c r="AE616" s="9"/>
       <c r="AF616" s="9"/>
       <c r="AG616" s="8"/>
-      <c r="AH616" s="17"/>
+      <c r="AH616" s="13"/>
     </row>
     <row r="617" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="8"/>
@@ -22929,7 +22932,7 @@
       <c r="AE617" s="9"/>
       <c r="AF617" s="9"/>
       <c r="AG617" s="8"/>
-      <c r="AH617" s="17"/>
+      <c r="AH617" s="13"/>
     </row>
     <row r="618" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="8"/>
@@ -22965,7 +22968,7 @@
       <c r="AE618" s="9"/>
       <c r="AF618" s="9"/>
       <c r="AG618" s="8"/>
-      <c r="AH618" s="17"/>
+      <c r="AH618" s="13"/>
     </row>
     <row r="619" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="8"/>
@@ -23001,7 +23004,7 @@
       <c r="AE619" s="9"/>
       <c r="AF619" s="9"/>
       <c r="AG619" s="8"/>
-      <c r="AH619" s="17"/>
+      <c r="AH619" s="13"/>
     </row>
     <row r="620" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="8"/>
@@ -23037,7 +23040,7 @@
       <c r="AE620" s="9"/>
       <c r="AF620" s="9"/>
       <c r="AG620" s="8"/>
-      <c r="AH620" s="17"/>
+      <c r="AH620" s="13"/>
     </row>
     <row r="621" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="8"/>
@@ -23073,7 +23076,7 @@
       <c r="AE621" s="9"/>
       <c r="AF621" s="9"/>
       <c r="AG621" s="8"/>
-      <c r="AH621" s="17"/>
+      <c r="AH621" s="13"/>
     </row>
     <row r="622" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="8"/>
@@ -23109,7 +23112,7 @@
       <c r="AE622" s="9"/>
       <c r="AF622" s="9"/>
       <c r="AG622" s="8"/>
-      <c r="AH622" s="17"/>
+      <c r="AH622" s="13"/>
     </row>
     <row r="623" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="8"/>
@@ -23145,7 +23148,7 @@
       <c r="AE623" s="9"/>
       <c r="AF623" s="9"/>
       <c r="AG623" s="8"/>
-      <c r="AH623" s="17"/>
+      <c r="AH623" s="13"/>
     </row>
     <row r="624" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="8"/>
@@ -23181,7 +23184,7 @@
       <c r="AE624" s="9"/>
       <c r="AF624" s="9"/>
       <c r="AG624" s="8"/>
-      <c r="AH624" s="17"/>
+      <c r="AH624" s="13"/>
     </row>
     <row r="625" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="8"/>
@@ -23217,7 +23220,7 @@
       <c r="AE625" s="9"/>
       <c r="AF625" s="9"/>
       <c r="AG625" s="8"/>
-      <c r="AH625" s="17"/>
+      <c r="AH625" s="13"/>
     </row>
     <row r="626" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="8"/>
@@ -23253,7 +23256,7 @@
       <c r="AE626" s="9"/>
       <c r="AF626" s="9"/>
       <c r="AG626" s="8"/>
-      <c r="AH626" s="17"/>
+      <c r="AH626" s="13"/>
     </row>
     <row r="627" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="8"/>
@@ -23289,7 +23292,7 @@
       <c r="AE627" s="9"/>
       <c r="AF627" s="9"/>
       <c r="AG627" s="8"/>
-      <c r="AH627" s="17"/>
+      <c r="AH627" s="13"/>
     </row>
     <row r="628" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="8"/>
@@ -23325,7 +23328,7 @@
       <c r="AE628" s="9"/>
       <c r="AF628" s="9"/>
       <c r="AG628" s="8"/>
-      <c r="AH628" s="17"/>
+      <c r="AH628" s="13"/>
     </row>
     <row r="629" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="8"/>
@@ -23361,7 +23364,7 @@
       <c r="AE629" s="9"/>
       <c r="AF629" s="9"/>
       <c r="AG629" s="8"/>
-      <c r="AH629" s="17"/>
+      <c r="AH629" s="13"/>
     </row>
     <row r="630" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="8"/>
@@ -23397,7 +23400,7 @@
       <c r="AE630" s="9"/>
       <c r="AF630" s="9"/>
       <c r="AG630" s="8"/>
-      <c r="AH630" s="17"/>
+      <c r="AH630" s="13"/>
     </row>
     <row r="631" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="8"/>
@@ -23433,7 +23436,7 @@
       <c r="AE631" s="9"/>
       <c r="AF631" s="9"/>
       <c r="AG631" s="8"/>
-      <c r="AH631" s="17"/>
+      <c r="AH631" s="13"/>
     </row>
     <row r="632" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="8"/>
@@ -23469,7 +23472,7 @@
       <c r="AE632" s="9"/>
       <c r="AF632" s="9"/>
       <c r="AG632" s="8"/>
-      <c r="AH632" s="17"/>
+      <c r="AH632" s="13"/>
     </row>
     <row r="633" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="8"/>
@@ -23505,7 +23508,7 @@
       <c r="AE633" s="9"/>
       <c r="AF633" s="9"/>
       <c r="AG633" s="8"/>
-      <c r="AH633" s="17"/>
+      <c r="AH633" s="13"/>
     </row>
     <row r="634" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="8"/>
@@ -23541,7 +23544,7 @@
       <c r="AE634" s="9"/>
       <c r="AF634" s="9"/>
       <c r="AG634" s="8"/>
-      <c r="AH634" s="17"/>
+      <c r="AH634" s="13"/>
     </row>
     <row r="635" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="8"/>
@@ -23577,7 +23580,7 @@
       <c r="AE635" s="9"/>
       <c r="AF635" s="9"/>
       <c r="AG635" s="8"/>
-      <c r="AH635" s="17"/>
+      <c r="AH635" s="13"/>
     </row>
     <row r="636" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="8"/>
@@ -23613,7 +23616,7 @@
       <c r="AE636" s="9"/>
       <c r="AF636" s="9"/>
       <c r="AG636" s="8"/>
-      <c r="AH636" s="17"/>
+      <c r="AH636" s="13"/>
     </row>
     <row r="637" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="8"/>
@@ -23649,7 +23652,7 @@
       <c r="AE637" s="9"/>
       <c r="AF637" s="9"/>
       <c r="AG637" s="8"/>
-      <c r="AH637" s="17"/>
+      <c r="AH637" s="13"/>
     </row>
     <row r="638" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="8"/>
@@ -23685,7 +23688,7 @@
       <c r="AE638" s="9"/>
       <c r="AF638" s="9"/>
       <c r="AG638" s="8"/>
-      <c r="AH638" s="17"/>
+      <c r="AH638" s="13"/>
     </row>
     <row r="639" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="8"/>
@@ -23721,7 +23724,7 @@
       <c r="AE639" s="9"/>
       <c r="AF639" s="9"/>
       <c r="AG639" s="8"/>
-      <c r="AH639" s="17"/>
+      <c r="AH639" s="13"/>
     </row>
     <row r="640" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="8"/>
@@ -23757,7 +23760,7 @@
       <c r="AE640" s="9"/>
       <c r="AF640" s="9"/>
       <c r="AG640" s="8"/>
-      <c r="AH640" s="17"/>
+      <c r="AH640" s="13"/>
     </row>
     <row r="641" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="8"/>
@@ -23793,7 +23796,7 @@
       <c r="AE641" s="9"/>
       <c r="AF641" s="9"/>
       <c r="AG641" s="8"/>
-      <c r="AH641" s="17"/>
+      <c r="AH641" s="13"/>
     </row>
     <row r="642" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="8"/>
@@ -23829,7 +23832,7 @@
       <c r="AE642" s="9"/>
       <c r="AF642" s="9"/>
       <c r="AG642" s="8"/>
-      <c r="AH642" s="17"/>
+      <c r="AH642" s="13"/>
     </row>
     <row r="643" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="8"/>
@@ -23865,7 +23868,7 @@
       <c r="AE643" s="9"/>
       <c r="AF643" s="9"/>
       <c r="AG643" s="8"/>
-      <c r="AH643" s="17"/>
+      <c r="AH643" s="13"/>
     </row>
     <row r="644" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="8"/>
@@ -23901,7 +23904,7 @@
       <c r="AE644" s="9"/>
       <c r="AF644" s="9"/>
       <c r="AG644" s="8"/>
-      <c r="AH644" s="17"/>
+      <c r="AH644" s="13"/>
     </row>
     <row r="645" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="8"/>
@@ -23937,7 +23940,7 @@
       <c r="AE645" s="9"/>
       <c r="AF645" s="9"/>
       <c r="AG645" s="8"/>
-      <c r="AH645" s="17"/>
+      <c r="AH645" s="13"/>
     </row>
     <row r="646" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="8"/>
@@ -23973,7 +23976,7 @@
       <c r="AE646" s="9"/>
       <c r="AF646" s="9"/>
       <c r="AG646" s="8"/>
-      <c r="AH646" s="17"/>
+      <c r="AH646" s="13"/>
     </row>
     <row r="647" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="8"/>
@@ -24009,7 +24012,7 @@
       <c r="AE647" s="9"/>
       <c r="AF647" s="9"/>
       <c r="AG647" s="8"/>
-      <c r="AH647" s="17"/>
+      <c r="AH647" s="13"/>
     </row>
     <row r="648" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="8"/>
@@ -24045,7 +24048,7 @@
       <c r="AE648" s="9"/>
       <c r="AF648" s="9"/>
       <c r="AG648" s="8"/>
-      <c r="AH648" s="17"/>
+      <c r="AH648" s="13"/>
     </row>
     <row r="649" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="8"/>
@@ -24081,7 +24084,7 @@
       <c r="AE649" s="9"/>
       <c r="AF649" s="9"/>
       <c r="AG649" s="8"/>
-      <c r="AH649" s="17"/>
+      <c r="AH649" s="13"/>
     </row>
     <row r="650" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="8"/>
@@ -24117,7 +24120,7 @@
       <c r="AE650" s="9"/>
       <c r="AF650" s="9"/>
       <c r="AG650" s="8"/>
-      <c r="AH650" s="17"/>
+      <c r="AH650" s="13"/>
     </row>
     <row r="651" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="8"/>
@@ -24153,7 +24156,7 @@
       <c r="AE651" s="9"/>
       <c r="AF651" s="9"/>
       <c r="AG651" s="8"/>
-      <c r="AH651" s="17"/>
+      <c r="AH651" s="13"/>
     </row>
     <row r="652" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="8"/>
@@ -24189,7 +24192,7 @@
       <c r="AE652" s="9"/>
       <c r="AF652" s="9"/>
       <c r="AG652" s="8"/>
-      <c r="AH652" s="17"/>
+      <c r="AH652" s="13"/>
     </row>
     <row r="653" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="8"/>
@@ -24225,7 +24228,7 @@
       <c r="AE653" s="9"/>
       <c r="AF653" s="9"/>
       <c r="AG653" s="8"/>
-      <c r="AH653" s="17"/>
+      <c r="AH653" s="13"/>
     </row>
     <row r="654" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="8"/>
@@ -24261,7 +24264,7 @@
       <c r="AE654" s="9"/>
       <c r="AF654" s="9"/>
       <c r="AG654" s="8"/>
-      <c r="AH654" s="17"/>
+      <c r="AH654" s="13"/>
     </row>
     <row r="655" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="8"/>
@@ -24297,7 +24300,7 @@
       <c r="AE655" s="9"/>
       <c r="AF655" s="9"/>
       <c r="AG655" s="8"/>
-      <c r="AH655" s="17"/>
+      <c r="AH655" s="13"/>
     </row>
     <row r="656" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="8"/>
@@ -24333,7 +24336,7 @@
       <c r="AE656" s="9"/>
       <c r="AF656" s="9"/>
       <c r="AG656" s="8"/>
-      <c r="AH656" s="17"/>
+      <c r="AH656" s="13"/>
     </row>
     <row r="657" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="8"/>
@@ -24369,7 +24372,7 @@
       <c r="AE657" s="9"/>
       <c r="AF657" s="9"/>
       <c r="AG657" s="8"/>
-      <c r="AH657" s="17"/>
+      <c r="AH657" s="13"/>
     </row>
     <row r="658" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="8"/>
@@ -24405,7 +24408,7 @@
       <c r="AE658" s="9"/>
       <c r="AF658" s="9"/>
       <c r="AG658" s="8"/>
-      <c r="AH658" s="17"/>
+      <c r="AH658" s="13"/>
     </row>
     <row r="659" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="8"/>
@@ -24441,7 +24444,7 @@
       <c r="AE659" s="9"/>
       <c r="AF659" s="9"/>
       <c r="AG659" s="8"/>
-      <c r="AH659" s="17"/>
+      <c r="AH659" s="13"/>
     </row>
     <row r="660" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="8"/>
@@ -24477,7 +24480,7 @@
       <c r="AE660" s="9"/>
       <c r="AF660" s="9"/>
       <c r="AG660" s="8"/>
-      <c r="AH660" s="17"/>
+      <c r="AH660" s="13"/>
     </row>
     <row r="661" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="8"/>
@@ -24513,81 +24516,43 @@
       <c r="AE661" s="9"/>
       <c r="AF661" s="9"/>
       <c r="AG661" s="8"/>
-      <c r="AH661" s="17"/>
-    </row>
-    <row r="662" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A662" s="8">
-        <v>282</v>
-      </c>
-      <c r="B662" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C662" s="8">
-        <v>141</v>
-      </c>
-      <c r="D662" s="11"/>
-      <c r="E662" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F662" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G662" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H662" s="13"/>
-      <c r="I662" s="13"/>
-      <c r="J662" s="13"/>
-      <c r="K662" s="13"/>
-      <c r="L662" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M662" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="N662" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="O662" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="P662" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q662" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="R662" s="8">
-        <v>3</v>
-      </c>
-      <c r="S662" s="8"/>
-      <c r="T662" s="8"/>
-      <c r="U662" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="V662" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="W662" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="X662" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y662" s="9"/>
-      <c r="Z662" s="11"/>
-      <c r="AA662" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB662" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC662" s="8"/>
-      <c r="AD662" s="9"/>
-      <c r="AE662" s="9"/>
-      <c r="AF662" s="9"/>
-      <c r="AG662" s="8"/>
-      <c r="AH662" s="17"/>
+      <c r="AH661" s="13"/>
+    </row>
+    <row r="662" spans="1:34" s="25" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A662" s="16"/>
+      <c r="B662" s="17"/>
+      <c r="C662" s="16"/>
+      <c r="D662" s="18"/>
+      <c r="E662" s="16"/>
+      <c r="F662" s="16"/>
+      <c r="G662" s="16"/>
+      <c r="H662" s="19"/>
+      <c r="I662" s="19"/>
+      <c r="J662" s="19"/>
+      <c r="K662" s="19"/>
+      <c r="L662" s="16"/>
+      <c r="M662" s="20"/>
+      <c r="N662" s="21"/>
+      <c r="O662" s="16"/>
+      <c r="P662" s="20"/>
+      <c r="Q662" s="22"/>
+      <c r="R662" s="16"/>
+      <c r="S662" s="16"/>
+      <c r="T662" s="16"/>
+      <c r="U662" s="16"/>
+      <c r="V662" s="23"/>
+      <c r="W662" s="16"/>
+      <c r="X662" s="20"/>
+      <c r="Y662" s="20"/>
+      <c r="Z662" s="18"/>
+      <c r="AA662" s="20"/>
+      <c r="AB662" s="16"/>
+      <c r="AC662" s="16"/>
+      <c r="AD662" s="20"/>
+      <c r="AE662" s="20"/>
+      <c r="AF662" s="20"/>
+      <c r="AG662" s="16"/>
+      <c r="AH662" s="24"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AJ662" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
